--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1544" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96AD209D-5279-4D75-B499-6CD7F9D77002}"/>
+  <xr:revisionPtr revIDLastSave="1547" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87F74E30-46D2-46E8-9D51-7B903E3074A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4809,11 +4809,11 @@
       <c r="C73" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
         <v>220</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
       </c>
       <c r="F73" t="s">
         <v>45</v>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1547" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87F74E30-46D2-46E8-9D51-7B903E3074A6}"/>
+  <xr:revisionPtr revIDLastSave="1561" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F89BAD6D-8A4F-49C9-9E0F-B96E47CB7E95}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="391">
   <si>
     <t>Number</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>Conceptual framework; WEAI</t>
-  </si>
-  <si>
-    <t>Climate</t>
   </si>
   <si>
     <t>(Bulte &amp; Lensink,2019)</t>
@@ -881,9 +878,6 @@
 low emissions dairy development</t>
   </si>
   <si>
-    <t>Resouces</t>
-  </si>
-  <si>
     <t>(Sri &amp; Ravindran,2012)</t>
   </si>
   <si>
@@ -923,9 +917,6 @@
   </si>
   <si>
     <t>Content analysis</t>
-  </si>
-  <si>
-    <t>Soicial</t>
   </si>
   <si>
     <t>(Shields,1999)</t>
@@ -1924,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,10 +1939,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2282,10 +2273,10 @@
         <v>45</v>
       </c>
       <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -2359,6 +2350,9 @@
       </c>
       <c r="F11" t="s">
         <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -2519,6 +2513,9 @@
       <c r="F15" t="s">
         <v>22</v>
       </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
         <v>42</v>
       </c>
@@ -3044,7 +3041,7 @@
         <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -3073,16 +3070,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -3091,7 +3088,7 @@
         <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -3114,16 +3111,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
         <v>29</v>
@@ -3132,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -3155,10 +3152,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -3179,13 +3176,13 @@
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s">
         <v>13</v>
@@ -3196,16 +3193,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
         <v>81</v>
@@ -3214,7 +3211,7 @@
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -3237,10 +3234,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
@@ -3278,10 +3275,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D34" t="s">
         <v>52</v>
@@ -3316,10 +3313,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
@@ -3357,13 +3354,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>122</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -3398,10 +3395,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
@@ -3410,7 +3407,7 @@
         <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -3439,10 +3436,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
@@ -3480,10 +3477,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
@@ -3498,7 +3495,7 @@
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -3521,16 +3518,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
         <v>29</v>
@@ -3562,10 +3559,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
@@ -3580,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -3603,10 +3600,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -3621,7 +3618,7 @@
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -3644,16 +3641,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D43" t="s">
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -3662,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -3685,10 +3682,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -3697,7 +3694,7 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -3726,19 +3723,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -3767,19 +3764,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D46" t="s">
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -3808,16 +3805,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
@@ -3826,7 +3823,7 @@
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -3849,10 +3846,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -3861,13 +3858,13 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
@@ -3890,10 +3887,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -3908,7 +3905,7 @@
         <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
@@ -3929,10 +3926,10 @@
     <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>161</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>18</v>
@@ -3941,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>45</v>
@@ -3967,16 +3964,16 @@
     </row>
     <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
         <v>33</v>
@@ -3985,7 +3982,7 @@
         <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
@@ -4005,10 +4002,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -4043,25 +4040,25 @@
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53" t="s">
         <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
@@ -4081,10 +4078,10 @@
     </row>
     <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -4119,10 +4116,10 @@
     </row>
     <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D55" t="s">
         <v>40</v>
@@ -4137,7 +4134,7 @@
         <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
@@ -4157,7 +4154,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -4196,19 +4193,23 @@
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" s="5" t="s">
         <v>25</v>
       </c>
@@ -4231,10 +4232,10 @@
     <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>40</v>
@@ -4270,16 +4271,16 @@
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>29</v>
@@ -4309,10 +4310,10 @@
     <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>40</v>
@@ -4324,10 +4325,10 @@
         <v>29</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
@@ -4347,10 +4348,10 @@
     </row>
     <row r="61" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>18</v>
@@ -4385,10 +4386,10 @@
     </row>
     <row r="62" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>18</v>
@@ -4406,13 +4407,13 @@
         <v>23</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>13</v>
@@ -4424,10 +4425,10 @@
     <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>18</v>
@@ -4436,13 +4437,13 @@
         <v>13</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>15</v>
@@ -4462,16 +4463,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
         <v>45</v>
@@ -4500,10 +4501,10 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D65" t="s">
         <v>40</v>
@@ -4538,10 +4539,10 @@
     </row>
     <row r="66" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D66" t="s">
         <v>40</v>
@@ -4556,10 +4557,10 @@
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J66" t="s">
         <v>13</v>
@@ -4576,10 +4577,10 @@
     </row>
     <row r="67" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="D67" t="s">
         <v>52</v>
@@ -4594,7 +4595,7 @@
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I67" t="s">
         <v>13</v>
@@ -4614,10 +4615,10 @@
     </row>
     <row r="68" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -4632,7 +4633,7 @@
         <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I68" t="s">
         <v>13</v>
@@ -4652,10 +4653,10 @@
     </row>
     <row r="69" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -4670,7 +4671,7 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I69" t="s">
         <v>13</v>
@@ -4690,10 +4691,10 @@
     </row>
     <row r="70" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D70" t="s">
         <v>52</v>
@@ -4708,7 +4709,7 @@
         <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I70" t="s">
         <v>13</v>
@@ -4728,16 +4729,16 @@
     </row>
     <row r="71" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F71" t="s">
         <v>45</v>
@@ -4766,19 +4767,19 @@
     </row>
     <row r="72" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D72" t="s">
         <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
@@ -4804,22 +4805,22 @@
     </row>
     <row r="73" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
         <v>219</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s">
-        <v>220</v>
       </c>
       <c r="F73" t="s">
         <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H73" t="s">
         <v>46</v>
@@ -4842,10 +4843,10 @@
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D74" t="s">
         <v>40</v>
@@ -4854,7 +4855,7 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
@@ -4880,16 +4881,19 @@
     </row>
     <row r="75" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D75" t="s">
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="F75" t="s">
+        <v>125</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
@@ -4915,22 +4919,22 @@
     </row>
     <row r="76" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D76" t="s">
         <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F76" t="s">
         <v>45</v>
       </c>
       <c r="G76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H76" t="s">
         <v>42</v>
@@ -4953,10 +4957,10 @@
     </row>
     <row r="77" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -4965,7 +4969,7 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
@@ -4991,10 +4995,10 @@
     </row>
     <row r="78" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" t="s">
         <v>40</v>
@@ -5003,13 +5007,13 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G78" t="s">
         <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I78" t="s">
         <v>13</v>
@@ -5029,10 +5033,10 @@
     </row>
     <row r="79" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -5041,7 +5045,7 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G79" t="s">
         <v>45</v>
@@ -5067,10 +5071,10 @@
     </row>
     <row r="80" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" t="s">
         <v>40</v>
@@ -5079,7 +5083,7 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G80" t="s">
         <v>45</v>
@@ -5105,10 +5109,10 @@
     </row>
     <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
@@ -5117,13 +5121,13 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G81" t="s">
         <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I81" t="s">
         <v>13</v>
@@ -5143,22 +5147,22 @@
     </row>
     <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" t="s">
         <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="H82" t="s">
         <v>42</v>
@@ -5181,10 +5185,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -5199,7 +5203,7 @@
         <v>81</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I83" t="s">
         <v>13</v>
@@ -5219,10 +5223,10 @@
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D84" t="s">
         <v>40</v>
@@ -5231,7 +5235,7 @@
         <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G84" t="s">
         <v>14</v>
@@ -5258,19 +5262,19 @@
     <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>45</v>
@@ -5297,10 +5301,10 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>40</v>
@@ -5336,10 +5340,10 @@
     <row r="87" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>52</v>
@@ -5375,16 +5379,16 @@
     <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>45</v>
@@ -5414,10 +5418,10 @@
     <row r="89" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>52</v>
@@ -5453,10 +5457,10 @@
     <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>40</v>
@@ -5492,10 +5496,10 @@
     <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>40</v>
@@ -5531,10 +5535,10 @@
     <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>40</v>
@@ -5571,20 +5575,22 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F93" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G93" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>13</v>
@@ -5605,13 +5611,13 @@
     <row r="94" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>41</v>
@@ -5643,19 +5649,19 @@
     </row>
     <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -5681,16 +5687,16 @@
     </row>
     <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" t="s">
         <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -5699,16 +5705,16 @@
         <v>45</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I96" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J96" t="s">
         <v>25</v>
       </c>
       <c r="K96" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L96" t="s">
         <v>13</v>
@@ -5719,16 +5725,16 @@
     </row>
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F97" t="s">
         <v>33</v>
@@ -5737,7 +5743,7 @@
         <v>13</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I97" t="s">
         <v>13</v>
@@ -5757,22 +5763,25 @@
     </row>
     <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D98" t="s">
         <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F98" t="s">
         <v>45</v>
       </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M98" t="s">
         <v>13</v>
@@ -5780,10 +5789,10 @@
     </row>
     <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D99" t="s">
         <v>40</v>
@@ -5807,10 +5816,10 @@
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>52</v>
@@ -5825,7 +5834,7 @@
         <v>13</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>13</v>
@@ -5846,13 +5855,13 @@
     <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
@@ -5885,13 +5894,13 @@
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>13</v>
@@ -5924,13 +5933,13 @@
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>13</v>
@@ -5963,13 +5972,13 @@
     <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>13</v>
@@ -6002,13 +6011,13 @@
     <row r="105" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>13</v>
@@ -6041,13 +6050,13 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>13</v>
@@ -6080,13 +6089,13 @@
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>13</v>
@@ -6119,13 +6128,13 @@
     <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>13</v>
@@ -6158,13 +6167,13 @@
     <row r="109" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>13</v>
@@ -6197,13 +6206,13 @@
     <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>13</v>
@@ -6236,13 +6245,13 @@
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>13</v>
@@ -6275,13 +6284,13 @@
     <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
@@ -6312,13 +6321,13 @@
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7" t="s">
@@ -6349,13 +6358,13 @@
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
@@ -6386,13 +6395,13 @@
     <row r="115" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
@@ -6423,13 +6432,13 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
@@ -6460,13 +6469,13 @@
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
@@ -6497,13 +6506,13 @@
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
@@ -6534,13 +6543,13 @@
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7" t="s">
@@ -6571,16 +6580,16 @@
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>13</v>
@@ -6610,16 +6619,16 @@
     <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>13</v>
@@ -6649,13 +6658,13 @@
     <row r="122" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7" t="s">
@@ -6686,13 +6695,13 @@
     <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
@@ -6723,13 +6732,13 @@
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
@@ -6760,13 +6769,13 @@
     <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7" t="s">
@@ -6798,13 +6807,13 @@
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>13</v>
@@ -6834,13 +6843,13 @@
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>13</v>
@@ -6873,13 +6882,13 @@
     <row r="128" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>13</v>
@@ -6912,13 +6921,13 @@
     <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>13</v>
@@ -6951,13 +6960,13 @@
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>13</v>
@@ -6990,16 +6999,16 @@
     <row r="131" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>13</v>
@@ -7029,13 +7038,13 @@
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>13</v>
@@ -7068,10 +7077,10 @@
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>13</v>
@@ -7101,16 +7110,16 @@
         <v>13</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>13</v>
@@ -7140,16 +7149,16 @@
         <v>13</v>
       </c>
       <c r="M134" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>13</v>
@@ -7179,16 +7188,16 @@
         <v>13</v>
       </c>
       <c r="M135" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>13</v>
@@ -7218,16 +7227,16 @@
         <v>13</v>
       </c>
       <c r="M136" s="16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>13</v>
@@ -7257,16 +7266,16 @@
         <v>13</v>
       </c>
       <c r="M137" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>13</v>
@@ -7296,16 +7305,16 @@
         <v>13</v>
       </c>
       <c r="M138" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>13</v>
@@ -7335,16 +7344,16 @@
         <v>13</v>
       </c>
       <c r="M139" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>13</v>
@@ -7374,16 +7383,16 @@
         <v>13</v>
       </c>
       <c r="M140" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>13</v>
@@ -7413,16 +7422,16 @@
         <v>13</v>
       </c>
       <c r="M141" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>13</v>
@@ -7452,16 +7461,16 @@
         <v>13</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>13</v>
@@ -7491,16 +7500,16 @@
         <v>13</v>
       </c>
       <c r="M143" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>13</v>
@@ -7530,7 +7539,7 @@
         <v>13</v>
       </c>
       <c r="M144" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1561" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F89BAD6D-8A4F-49C9-9E0F-B96E47CB7E95}"/>
+  <xr:revisionPtr revIDLastSave="1567" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49B159C-6612-4977-9B32-FA43BE0C5431}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="389">
   <si>
     <t>Number</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>Country_1</t>
-  </si>
-  <si>
-    <t>County_2</t>
-  </si>
-  <si>
-    <t>County_3</t>
   </si>
   <si>
     <t>Country_4</t>
@@ -309,10 +303,6 @@
   </si>
   <si>
     <t>Participatory mapping</t>
-  </si>
-  <si>
-    <t>KwaZulu-Natal
-Province</t>
   </si>
   <si>
     <t>(Rudman &amp; Phelan,2008</t>
@@ -906,9 +896,6 @@
 Zambian abortion policy</t>
   </si>
   <si>
-    <t>Zhambia</t>
-  </si>
-  <si>
     <t>(Rusatira et al.,2021)</t>
   </si>
   <si>
@@ -1414,6 +1401,12 @@
   </si>
   <si>
     <t>Method_detail</t>
+  </si>
+  <si>
+    <t>Country_2</t>
+  </si>
+  <si>
+    <t>Country_3</t>
   </si>
 </sst>
 </file>
@@ -1915,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,10 +1932,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1954,19 +1947,19 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1974,40 +1967,40 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2015,40 +2008,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2056,40 +2049,40 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2097,40 +2090,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2138,40 +2131,40 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2179,40 +2172,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2220,40 +2213,40 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2261,37 +2254,37 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2299,37 +2292,37 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2337,79 +2330,79 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2417,40 +2410,40 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2458,40 +2451,40 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
       <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2499,40 +2492,40 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2540,40 +2533,40 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2581,40 +2574,40 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>42</v>
-      </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2622,40 +2615,40 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
-      </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2663,40 +2656,40 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
         <v>40</v>
       </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>42</v>
-      </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2704,40 +2697,40 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2745,40 +2738,40 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>42</v>
-      </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2786,37 +2779,37 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
-      </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2824,40 +2817,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
         <v>40</v>
       </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
-      </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2865,40 +2858,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>42</v>
-      </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2906,40 +2899,40 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2947,40 +2940,40 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2988,40 +2981,40 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3029,40 +3022,40 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
         <v>40</v>
       </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3070,40 +3063,40 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>101</v>
-      </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3111,40 +3104,40 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -3152,40 +3145,40 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>108</v>
-      </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" t="s">
-        <v>109</v>
-      </c>
       <c r="M31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -3193,40 +3186,40 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>113</v>
-      </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3234,40 +3227,40 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
         <v>40</v>
       </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>42</v>
-      </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3275,37 +3268,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3313,40 +3306,40 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>42</v>
-      </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3354,40 +3347,40 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3395,40 +3388,40 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3436,40 +3429,40 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3477,40 +3470,40 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3518,40 +3511,40 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3559,40 +3552,40 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3600,40 +3593,40 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3641,40 +3634,40 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3682,40 +3675,40 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3723,40 +3716,40 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3764,40 +3757,40 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3805,40 +3798,40 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3846,40 +3839,40 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3887,3659 +3880,3683 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s">
-        <v>164</v>
-      </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
         <v>22</v>
       </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>24</v>
-      </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
         <v>27</v>
       </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>29</v>
-      </c>
       <c r="G56" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="I59" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="J63" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
         <v>40</v>
       </c>
-      <c r="E72" t="s">
-        <v>216</v>
-      </c>
-      <c r="F72" t="s">
-        <v>125</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s">
-        <v>42</v>
-      </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>140</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
         <v>40</v>
       </c>
-      <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>42</v>
-      </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s">
+        <v>122</v>
+      </c>
+      <c r="H76" t="s">
         <v>40</v>
       </c>
-      <c r="E76" t="s">
-        <v>227</v>
-      </c>
-      <c r="F76" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76" t="s">
-        <v>125</v>
-      </c>
-      <c r="H76" t="s">
-        <v>42</v>
-      </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H82" t="s">
         <v>40</v>
       </c>
-      <c r="E82" t="s">
-        <v>241</v>
-      </c>
-      <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>125</v>
-      </c>
-      <c r="H82" t="s">
-        <v>42</v>
-      </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
         <v>13</v>
       </c>
-      <c r="F84" t="s">
-        <v>125</v>
-      </c>
-      <c r="G84" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s">
-        <v>15</v>
-      </c>
       <c r="I84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D86" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="I86" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="I87" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="I88" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="I90" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="I91" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="I92" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" t="s">
+        <v>268</v>
+      </c>
+      <c r="F96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I96" t="s">
         <v>270</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="J96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" t="s">
         <v>271</v>
       </c>
-      <c r="D96" t="s">
-        <v>52</v>
-      </c>
-      <c r="E96" t="s">
-        <v>272</v>
-      </c>
-      <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I96" t="s">
-        <v>274</v>
-      </c>
-      <c r="J96" t="s">
-        <v>25</v>
-      </c>
-      <c r="K96" t="s">
-        <v>275</v>
-      </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E98" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" t="s">
+        <v>11</v>
+      </c>
+      <c r="L98" t="s">
+        <v>11</v>
       </c>
       <c r="M98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
         <v>40</v>
       </c>
-      <c r="E99" t="s">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="s">
-        <v>42</v>
+      <c r="I99" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" t="s">
+        <v>11</v>
       </c>
       <c r="M99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L122" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M130" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M132" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M134" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M135" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M136" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M137" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M138" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M139" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M140" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M141" s="16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M143" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M144" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1567" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49B159C-6612-4977-9B32-FA43BE0C5431}"/>
+  <xr:revisionPtr revIDLastSave="1579" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08263FB9-4194-49C0-926C-E174A343C2E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="391">
   <si>
     <t>Number</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>Conceptual framework</t>
-  </si>
-  <si>
-    <t>Nigaeria</t>
   </si>
   <si>
     <t>(McCoy &amp; Carruth,2004)</t>
@@ -1407,6 +1404,15 @@
   </si>
   <si>
     <t>Country_3</t>
+  </si>
+  <si>
+    <t>https://gender.cgiar.org/news-events/cultivating-equality-after-sowing-gender-and-feminist-research-principles?s=03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender equality in our agriculture and food systems will flourish by consciously applying and reflecting on gender and feminist research approaches towards transformative change. </t>
+  </si>
+  <si>
+    <t>(Elias &amp; vander Burg, 2022)</t>
   </si>
 </sst>
 </file>
@@ -1906,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,10 +1938,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" t="s">
         <v>385</v>
-      </c>
-      <c r="E1" t="s">
-        <v>386</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1947,10 +1953,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J1" t="s">
         <v>387</v>
-      </c>
-      <c r="J1" t="s">
-        <v>388</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -3204,7 +3210,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -3227,10 +3233,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -3268,10 +3274,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
@@ -3306,10 +3312,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -3347,13 +3353,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -3388,10 +3394,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D37" t="s">
         <v>50</v>
@@ -3400,7 +3406,7 @@
         <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -3429,10 +3435,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
@@ -3470,10 +3476,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D39" t="s">
         <v>50</v>
@@ -3511,16 +3517,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
         <v>27</v>
@@ -3552,10 +3558,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
@@ -3570,7 +3576,7 @@
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -3593,10 +3599,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
@@ -3611,7 +3617,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
         <v>11</v>
@@ -3634,16 +3640,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -3652,7 +3658,7 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -3675,10 +3681,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
@@ -3687,7 +3693,7 @@
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3716,19 +3722,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -3757,19 +3763,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s">
         <v>43</v>
@@ -3798,16 +3804,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D47" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
@@ -3816,7 +3822,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I47" t="s">
         <v>11</v>
@@ -3839,10 +3845,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
@@ -3851,13 +3857,13 @@
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I48" t="s">
         <v>11</v>
@@ -3880,10 +3886,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -3898,7 +3904,7 @@
         <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I49" t="s">
         <v>11</v>
@@ -3919,10 +3925,10 @@
     <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>157</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>16</v>
@@ -3931,7 +3937,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>43</v>
@@ -3957,16 +3963,16 @@
     </row>
     <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F51" t="s">
         <v>31</v>
@@ -3975,7 +3981,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I51" t="s">
         <v>11</v>
@@ -3995,10 +4001,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D52" t="s">
         <v>38</v>
@@ -4033,25 +4039,25 @@
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" t="s">
         <v>11</v>
@@ -4071,10 +4077,10 @@
     </row>
     <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
@@ -4109,10 +4115,10 @@
     </row>
     <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D55" t="s">
         <v>38</v>
@@ -4127,7 +4133,7 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I55" t="s">
         <v>11</v>
@@ -4147,7 +4153,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
@@ -4186,16 +4192,16 @@
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>43</v>
@@ -4225,10 +4231,10 @@
     <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>38</v>
@@ -4264,16 +4270,16 @@
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>27</v>
@@ -4303,10 +4309,10 @@
     <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>38</v>
@@ -4318,7 +4324,7 @@
         <v>27</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
         <v>106</v>
@@ -4341,10 +4347,10 @@
     </row>
     <row r="61" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>16</v>
@@ -4379,10 +4385,10 @@
     </row>
     <row r="62" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>16</v>
@@ -4403,7 +4409,7 @@
         <v>102</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>98</v>
@@ -4418,10 +4424,10 @@
     <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>16</v>
@@ -4430,7 +4436,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>31</v>
@@ -4456,16 +4462,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F64" t="s">
         <v>43</v>
@@ -4494,10 +4500,10 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D65" t="s">
         <v>38</v>
@@ -4532,10 +4538,10 @@
     </row>
     <row r="66" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D66" t="s">
         <v>38</v>
@@ -4550,10 +4556,10 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J66" t="s">
         <v>11</v>
@@ -4570,10 +4576,10 @@
     </row>
     <row r="67" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="D67" t="s">
         <v>50</v>
@@ -4588,7 +4594,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I67" t="s">
         <v>11</v>
@@ -4608,10 +4614,10 @@
     </row>
     <row r="68" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -4626,7 +4632,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I68" t="s">
         <v>11</v>
@@ -4646,10 +4652,10 @@
     </row>
     <row r="69" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -4664,7 +4670,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I69" t="s">
         <v>11</v>
@@ -4684,10 +4690,10 @@
     </row>
     <row r="70" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D70" t="s">
         <v>50</v>
@@ -4702,7 +4708,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I70" t="s">
         <v>11</v>
@@ -4722,16 +4728,16 @@
     </row>
     <row r="71" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D71" t="s">
         <v>38</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
@@ -4760,19 +4766,19 @@
     </row>
     <row r="72" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D72" t="s">
         <v>38</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
@@ -4798,22 +4804,22 @@
     </row>
     <row r="73" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
         <v>215</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>216</v>
       </c>
       <c r="F73" t="s">
         <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H73" t="s">
         <v>44</v>
@@ -4836,10 +4842,10 @@
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D74" t="s">
         <v>38</v>
@@ -4848,7 +4854,7 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
@@ -4874,19 +4880,19 @@
     </row>
     <row r="75" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D75" t="s">
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
@@ -4912,22 +4918,22 @@
     </row>
     <row r="76" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D76" t="s">
         <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F76" t="s">
         <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H76" t="s">
         <v>40</v>
@@ -4950,10 +4956,10 @@
     </row>
     <row r="77" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
@@ -4988,10 +4994,10 @@
     </row>
     <row r="78" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D78" t="s">
         <v>38</v>
@@ -5000,7 +5006,7 @@
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G78" t="s">
         <v>43</v>
@@ -5026,10 +5032,10 @@
     </row>
     <row r="79" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -5038,7 +5044,7 @@
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -5064,10 +5070,10 @@
     </row>
     <row r="80" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D80" t="s">
         <v>38</v>
@@ -5076,7 +5082,7 @@
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -5102,10 +5108,10 @@
     </row>
     <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D81" t="s">
         <v>38</v>
@@ -5114,13 +5120,13 @@
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I81" t="s">
         <v>11</v>
@@ -5140,22 +5146,22 @@
     </row>
     <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D82" t="s">
         <v>38</v>
       </c>
       <c r="E82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H82" t="s">
         <v>40</v>
@@ -5178,10 +5184,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -5196,7 +5202,7 @@
         <v>78</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
@@ -5216,10 +5222,10 @@
     </row>
     <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D84" t="s">
         <v>38</v>
@@ -5228,7 +5234,7 @@
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -5255,19 +5261,19 @@
     <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>43</v>
@@ -5294,10 +5300,10 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>38</v>
@@ -5333,10 +5339,10 @@
     <row r="87" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>50</v>
@@ -5372,16 +5378,16 @@
     <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>43</v>
@@ -5411,10 +5417,10 @@
     <row r="89" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>50</v>
@@ -5450,10 +5456,10 @@
     <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>38</v>
@@ -5489,10 +5495,10 @@
     <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>38</v>
@@ -5528,10 +5534,10 @@
     <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>38</v>
@@ -5568,22 +5574,22 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E93" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>11</v>
@@ -5604,13 +5610,13 @@
     <row r="94" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>262</v>
-      </c>
       <c r="D94" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>39</v>
@@ -5618,8 +5624,8 @@
       <c r="F94" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>11</v>
+      <c r="G94" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>40</v>
@@ -5642,19 +5648,19 @@
     </row>
     <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -5680,16 +5686,16 @@
     </row>
     <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>265</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D96" t="s">
         <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -5698,16 +5704,16 @@
         <v>43</v>
       </c>
       <c r="H96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I96" t="s">
         <v>269</v>
-      </c>
-      <c r="I96" t="s">
-        <v>270</v>
       </c>
       <c r="J96" t="s">
         <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L96" t="s">
         <v>11</v>
@@ -5718,16 +5724,16 @@
     </row>
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D97" t="s">
         <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F97" t="s">
         <v>31</v>
@@ -5736,7 +5742,7 @@
         <v>11</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I97" t="s">
         <v>11</v>
@@ -5756,16 +5762,16 @@
     </row>
     <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D98" t="s">
         <v>50</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F98" t="s">
         <v>43</v>
@@ -5774,7 +5780,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I98" t="s">
         <v>11</v>
@@ -5794,10 +5800,10 @@
     </row>
     <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D99" t="s">
         <v>38</v>
@@ -5833,10 +5839,10 @@
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>50</v>
@@ -5872,13 +5878,13 @@
     <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>284</v>
-      </c>
       <c r="D101" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>11</v>
@@ -5911,13 +5917,13 @@
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="D102" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>11</v>
@@ -5950,13 +5956,13 @@
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>288</v>
-      </c>
       <c r="D103" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>11</v>
@@ -5989,13 +5995,13 @@
     <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>290</v>
-      </c>
       <c r="D104" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>11</v>
@@ -6028,13 +6034,13 @@
     <row r="105" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>292</v>
-      </c>
       <c r="D105" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>11</v>
@@ -6067,13 +6073,13 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C106" s="14" t="s">
-        <v>294</v>
-      </c>
       <c r="D106" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>11</v>
@@ -6106,13 +6112,13 @@
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C107" s="14" t="s">
-        <v>296</v>
-      </c>
       <c r="D107" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>11</v>
@@ -6145,13 +6151,13 @@
     <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C108" s="14" t="s">
-        <v>298</v>
-      </c>
       <c r="D108" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>11</v>
@@ -6184,13 +6190,13 @@
     <row r="109" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C109" s="14" t="s">
-        <v>300</v>
-      </c>
       <c r="D109" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>11</v>
@@ -6223,13 +6229,13 @@
     <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>11</v>
@@ -6262,13 +6268,13 @@
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C111" s="14" t="s">
-        <v>303</v>
-      </c>
       <c r="D111" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>11</v>
@@ -6301,13 +6307,13 @@
     <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C112" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="D112" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
@@ -6338,13 +6344,13 @@
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C113" s="14" t="s">
-        <v>307</v>
-      </c>
       <c r="D113" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7" t="s">
@@ -6375,13 +6381,13 @@
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>309</v>
-      </c>
       <c r="D114" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
@@ -6412,13 +6418,13 @@
     <row r="115" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="D115" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
@@ -6449,13 +6455,13 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="D116" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
@@ -6486,13 +6492,13 @@
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>315</v>
-      </c>
       <c r="D117" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
@@ -6523,13 +6529,13 @@
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>317</v>
-      </c>
       <c r="D118" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
@@ -6560,13 +6566,13 @@
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>319</v>
-      </c>
       <c r="D119" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7" t="s">
@@ -6597,16 +6603,16 @@
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C120" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="D120" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>11</v>
@@ -6636,16 +6642,16 @@
     <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C121" s="14" t="s">
-        <v>324</v>
-      </c>
       <c r="D121" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>11</v>
@@ -6675,13 +6681,13 @@
     <row r="122" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C122" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C122" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="D122" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7" t="s">
@@ -6712,13 +6718,13 @@
     <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C123" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C123" s="14" t="s">
-        <v>328</v>
-      </c>
       <c r="D123" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
@@ -6749,13 +6755,13 @@
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C124" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="14" t="s">
-        <v>330</v>
-      </c>
       <c r="D124" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
@@ -6786,13 +6792,13 @@
     <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C125" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>332</v>
-      </c>
       <c r="D125" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7" t="s">
@@ -6824,13 +6830,13 @@
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>11</v>
@@ -6860,13 +6866,13 @@
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C127" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C127" s="14" t="s">
-        <v>336</v>
-      </c>
       <c r="D127" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>11</v>
@@ -6899,13 +6905,13 @@
     <row r="128" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C128" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C128" s="14" t="s">
-        <v>338</v>
-      </c>
       <c r="D128" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>11</v>
@@ -6938,13 +6944,13 @@
     <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>340</v>
-      </c>
       <c r="D129" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>11</v>
@@ -6977,13 +6983,13 @@
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="C130" s="14" t="s">
-        <v>342</v>
-      </c>
       <c r="D130" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>11</v>
@@ -7016,16 +7022,16 @@
     <row r="131" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C131" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="D131" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>11</v>
@@ -7055,13 +7061,13 @@
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C132" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>347</v>
-      </c>
       <c r="D132" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>11</v>
@@ -7094,400 +7100,400 @@
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="D133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M133" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M134" s="16" t="s">
         <v>352</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M134" s="16" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="D135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="16" t="s">
         <v>355</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M135" s="16" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M136" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M136" s="16" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="D137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M137" s="16" t="s">
         <v>361</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M137" s="16" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C138" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="D138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M138" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M138" s="16" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="D139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M139" s="16" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="D140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M140" s="16" t="s">
         <v>370</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M140" s="16" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="D141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M141" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M141" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M142" s="3" t="s">
-        <v>377</v>
+    </row>
+    <row r="142" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M142" s="16" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>11</v>
@@ -7516,54 +7522,93 @@
       <c r="L143" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M143" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M143" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M144" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C145" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="D145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M145" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M144" s="12" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M143" r:id="rId1" xr:uid="{D2D467EF-B901-4B6B-8501-A5CD696B7558}"/>
-    <hyperlink ref="M144" r:id="rId2" xr:uid="{460347F1-A541-49D9-B7A7-F25E37B57ED2}"/>
+    <hyperlink ref="M144" r:id="rId1" xr:uid="{D2D467EF-B901-4B6B-8501-A5CD696B7558}"/>
+    <hyperlink ref="M145" r:id="rId2" xr:uid="{460347F1-A541-49D9-B7A7-F25E37B57ED2}"/>
     <hyperlink ref="M141" r:id="rId3" xr:uid="{F89CF80E-8390-4DAC-8CAE-2778521C9332}"/>
     <hyperlink ref="M135" r:id="rId4" xr:uid="{CA5983CE-2F6A-4F12-A886-76227DD0C633}"/>
     <hyperlink ref="M136" r:id="rId5" xr:uid="{71F78C12-804D-4AA9-82AD-78FA2B74419C}"/>
@@ -7572,9 +7617,10 @@
     <hyperlink ref="M134" r:id="rId8" xr:uid="{B58BEDD7-A5FD-4150-9A94-E688A920800B}"/>
     <hyperlink ref="M140" r:id="rId9" xr:uid="{D3C2991C-FAEA-418D-A44F-B30890F7DA86}"/>
     <hyperlink ref="M139" r:id="rId10" xr:uid="{CF5A6F1C-E785-4118-855C-7453D1B92E7C}"/>
+    <hyperlink ref="M142" r:id="rId11" xr:uid="{A7B26CDB-A18D-449F-A525-E34DF5451AE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1579" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08263FB9-4194-49C0-926C-E174A343C2E0}"/>
+  <xr:revisionPtr revIDLastSave="1617" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024C9FEE-92FC-4E6D-A00B-2F6741E9FA66}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="404">
   <si>
     <t>Number</t>
   </si>
@@ -1020,9 +1020,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Phillipines</t>
-  </si>
-  <si>
     <t>(Himmelweit, 2012)</t>
   </si>
   <si>
@@ -1183,16 +1180,10 @@
     <t>Evolution of a gender tool: WEAI, WELI and livestock research</t>
   </si>
   <si>
-    <t>(WEAI,2016)</t>
-  </si>
-  <si>
     <t>MODULE G. WOMEN’S EMPOWERMENT IN AGRICULTURE INDEX</t>
   </si>
   <si>
     <t>Questionnaire</t>
-  </si>
-  <si>
-    <t>(WEAI, 2022)</t>
   </si>
   <si>
     <t>PROJECT-LEVEL WOMEN’S EMPOWERMENT IN AGRICULTURE INDEX
@@ -1346,12 +1337,6 @@
     <t>https://gender.cgiar.org/news-events/assessing-womens-empowerment-initiatives-collaboratively-can-create-positive-change</t>
   </si>
   <si>
-    <t>(WEAI,2021)</t>
-  </si>
-  <si>
-    <t>Versions</t>
-  </si>
-  <si>
     <t>https://weai.ifpri.info/versions/</t>
   </si>
   <si>
@@ -1413,6 +1398,61 @@
   </si>
   <si>
     <t>(Elias &amp; vander Burg, 2022)</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/news/feature/2021/05/24/a-holistic-approach-to-better-menstrual-health-and-hygiene-entrepreneurs-in-action</t>
+  </si>
+  <si>
+    <t>A Holistic Approach to Better Menstrual Health and Hygiene: Entrepreneurs in Action</t>
+  </si>
+  <si>
+    <t>(World Bank,2021)</t>
+  </si>
+  <si>
+    <t>https://www.who.int/news-room/fact-sheets/detail/female-genital-mutilation</t>
+  </si>
+  <si>
+    <t>Female genital mutilation</t>
+  </si>
+  <si>
+    <t>(WHO,2022)</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/topic/child-protection/female-genital-mutilation/</t>
+  </si>
+  <si>
+    <t>Female genital mutilation (FGM)</t>
+  </si>
+  <si>
+    <t>(Unicef,2021)</t>
+  </si>
+  <si>
+    <t>Decision Analysis</t>
+  </si>
+  <si>
+    <t>WEAI Versions</t>
+  </si>
+  <si>
+    <t>Instructional Guide on the Abbreviated Women’s Empowerment in
+Agriculture Index (A-WEAI)</t>
+  </si>
+  <si>
+    <t>(Malapit et al.,2015)</t>
+  </si>
+  <si>
+    <t>Methdological</t>
+  </si>
+  <si>
+    <t>(IFPRI,2016)</t>
+  </si>
+  <si>
+    <t>(IFPRI, 2022)</t>
+  </si>
+  <si>
+    <t>(IFPRI, n.d.)</t>
+  </si>
+  <si>
+    <t>Philipines</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1556,6 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1912,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1953,10 +1994,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -2386,7 +2427,7 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
@@ -2996,7 +3037,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>395</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
@@ -5616,7 +5657,7 @@
         <v>261</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>39</v>
@@ -5713,7 +5754,7 @@
         <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="L96" t="s">
         <v>11</v>
@@ -5724,16 +5765,16 @@
     </row>
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D97" t="s">
         <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F97" t="s">
         <v>31</v>
@@ -5742,7 +5783,7 @@
         <v>11</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I97" t="s">
         <v>11</v>
@@ -5762,16 +5803,16 @@
     </row>
     <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D98" t="s">
         <v>50</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F98" t="s">
         <v>43</v>
@@ -5800,10 +5841,10 @@
     </row>
     <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D99" t="s">
         <v>38</v>
@@ -5839,10 +5880,10 @@
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>50</v>
@@ -5878,10 +5919,10 @@
     <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>283</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>118</v>
@@ -5917,10 +5958,10 @@
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>118</v>
@@ -5956,10 +5997,10 @@
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>118</v>
@@ -5995,10 +6036,10 @@
     <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>118</v>
@@ -6034,10 +6075,10 @@
     <row r="105" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>118</v>
@@ -6073,10 +6114,10 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>118</v>
@@ -6112,10 +6153,10 @@
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>295</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>118</v>
@@ -6151,10 +6192,10 @@
     <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>297</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>118</v>
@@ -6190,10 +6231,10 @@
     <row r="109" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>299</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>118</v>
@@ -6229,10 +6270,10 @@
     <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>118</v>
@@ -6268,10 +6309,10 @@
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>302</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>118</v>
@@ -6307,10 +6348,10 @@
     <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>118</v>
@@ -6344,10 +6385,10 @@
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>306</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>118</v>
@@ -6381,10 +6422,10 @@
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>308</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>118</v>
@@ -6418,10 +6459,10 @@
     <row r="115" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>309</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>310</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>118</v>
@@ -6455,10 +6496,10 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>118</v>
@@ -6492,10 +6533,10 @@
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>118</v>
@@ -6529,10 +6570,10 @@
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>118</v>
@@ -6566,10 +6607,10 @@
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>118</v>
@@ -6603,16 +6644,16 @@
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>11</v>
@@ -6642,16 +6683,16 @@
     <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>11</v>
@@ -6681,10 +6722,10 @@
     <row r="122" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>118</v>
@@ -6718,10 +6759,10 @@
     <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>118</v>
@@ -6755,10 +6796,10 @@
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>118</v>
@@ -6792,10 +6833,10 @@
     <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>118</v>
@@ -6828,15 +6869,17 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
+      <c r="B126" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="C126" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>11</v>
@@ -6866,10 +6909,10 @@
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>118</v>
@@ -6905,10 +6948,10 @@
     <row r="128" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>118</v>
@@ -6944,10 +6987,10 @@
     <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>118</v>
@@ -6983,10 +7026,10 @@
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>118</v>
@@ -7022,16 +7065,16 @@
     <row r="131" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>11</v>
@@ -7061,10 +7104,10 @@
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>118</v>
@@ -7097,52 +7140,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M133" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>11</v>
@@ -7171,17 +7214,17 @@
       <c r="L134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M134" s="16" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M134" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>354</v>
+        <v>347</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
@@ -7211,16 +7254,16 @@
         <v>11</v>
       </c>
       <c r="M135" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
@@ -7250,16 +7293,16 @@
         <v>11</v>
       </c>
       <c r="M136" s="16" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>360</v>
+        <v>353</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>11</v>
@@ -7289,16 +7332,16 @@
         <v>11</v>
       </c>
       <c r="M137" s="16" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>11</v>
@@ -7328,16 +7371,16 @@
         <v>11</v>
       </c>
       <c r="M138" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>366</v>
+        <v>359</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
@@ -7367,16 +7410,16 @@
         <v>11</v>
       </c>
       <c r="M139" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>11</v>
@@ -7406,16 +7449,16 @@
         <v>11</v>
       </c>
       <c r="M140" s="16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>11</v>
@@ -7445,182 +7488,302 @@
         <v>11</v>
       </c>
       <c r="M141" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M142" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M143" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="19"/>
+    </row>
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M145" s="19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="M146" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M142" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3" t="s">
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="M147" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M149" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="3" t="s">
+    </row>
+    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M143" s="3" t="s">
+      <c r="C150" s="13" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3" t="s">
+      <c r="D150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M150" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M144" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M145" s="12" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M144" r:id="rId1" xr:uid="{D2D467EF-B901-4B6B-8501-A5CD696B7558}"/>
-    <hyperlink ref="M145" r:id="rId2" xr:uid="{460347F1-A541-49D9-B7A7-F25E37B57ED2}"/>
-    <hyperlink ref="M141" r:id="rId3" xr:uid="{F89CF80E-8390-4DAC-8CAE-2778521C9332}"/>
-    <hyperlink ref="M135" r:id="rId4" xr:uid="{CA5983CE-2F6A-4F12-A886-76227DD0C633}"/>
-    <hyperlink ref="M136" r:id="rId5" xr:uid="{71F78C12-804D-4AA9-82AD-78FA2B74419C}"/>
-    <hyperlink ref="M137" r:id="rId6" xr:uid="{865E0CF5-A208-4DBE-910E-4999D4832A9B}"/>
-    <hyperlink ref="M138" r:id="rId7" xr:uid="{339597D6-B5F0-4317-8A0C-6C4D93B712B5}"/>
-    <hyperlink ref="M134" r:id="rId8" xr:uid="{B58BEDD7-A5FD-4150-9A94-E688A920800B}"/>
-    <hyperlink ref="M140" r:id="rId9" xr:uid="{D3C2991C-FAEA-418D-A44F-B30890F7DA86}"/>
-    <hyperlink ref="M139" r:id="rId10" xr:uid="{CF5A6F1C-E785-4118-855C-7453D1B92E7C}"/>
-    <hyperlink ref="M142" r:id="rId11" xr:uid="{A7B26CDB-A18D-449F-A525-E34DF5451AE1}"/>
+    <hyperlink ref="M149" r:id="rId1" xr:uid="{D2D467EF-B901-4B6B-8501-A5CD696B7558}"/>
+    <hyperlink ref="M150" r:id="rId2" xr:uid="{460347F1-A541-49D9-B7A7-F25E37B57ED2}"/>
+    <hyperlink ref="M142" r:id="rId3" xr:uid="{F89CF80E-8390-4DAC-8CAE-2778521C9332}"/>
+    <hyperlink ref="M136" r:id="rId4" xr:uid="{CA5983CE-2F6A-4F12-A886-76227DD0C633}"/>
+    <hyperlink ref="M137" r:id="rId5" xr:uid="{71F78C12-804D-4AA9-82AD-78FA2B74419C}"/>
+    <hyperlink ref="M138" r:id="rId6" xr:uid="{865E0CF5-A208-4DBE-910E-4999D4832A9B}"/>
+    <hyperlink ref="M139" r:id="rId7" xr:uid="{339597D6-B5F0-4317-8A0C-6C4D93B712B5}"/>
+    <hyperlink ref="M135" r:id="rId8" xr:uid="{B58BEDD7-A5FD-4150-9A94-E688A920800B}"/>
+    <hyperlink ref="M141" r:id="rId9" xr:uid="{D3C2991C-FAEA-418D-A44F-B30890F7DA86}"/>
+    <hyperlink ref="M140" r:id="rId10" xr:uid="{CF5A6F1C-E785-4118-855C-7453D1B92E7C}"/>
+    <hyperlink ref="M143" r:id="rId11" xr:uid="{A7B26CDB-A18D-449F-A525-E34DF5451AE1}"/>
+    <hyperlink ref="M145" r:id="rId12" xr:uid="{36F24791-5467-4588-9034-951D4B048C26}"/>
+    <hyperlink ref="M146" r:id="rId13" xr:uid="{790E6643-2D28-42CE-86E2-C9070A125A5B}"/>
+    <hyperlink ref="M147" r:id="rId14" xr:uid="{7E07AA73-8379-4209-B082-8A5FAB13813C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1617" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024C9FEE-92FC-4E6D-A00B-2F6741E9FA66}"/>
+  <xr:revisionPtr revIDLastSave="1618" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A71281F-74F5-4AF7-992C-4E4B45A9AB10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="403">
   <si>
     <t>Number</t>
   </si>
@@ -1438,9 +1438,6 @@
   </si>
   <si>
     <t>(Malapit et al.,2015)</t>
-  </si>
-  <si>
-    <t>Methdological</t>
   </si>
   <si>
     <t>(IFPRI,2016)</t>
@@ -1955,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,7 +5751,7 @@
         <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L96" t="s">
         <v>11</v>
@@ -6644,7 +6641,7 @@
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>318</v>
@@ -6683,7 +6680,7 @@
     <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>320</v>
@@ -6870,7 +6867,7 @@
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>329</v>
@@ -7149,7 +7146,7 @@
         <v>397</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>399</v>
+        <v>118</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>11</v>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1618" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A71281F-74F5-4AF7-992C-4E4B45A9AB10}"/>
+  <xr:revisionPtr revIDLastSave="1627" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E948F776-8755-4954-A26A-D3882A12F86F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -1492,7 +1492,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,12 +1531,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1561,7 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1573,7 +1567,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1587,7 +1580,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1950,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2252,7 @@
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2736,30 +2729,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>73</v>
+      <c r="H20" t="s">
+        <v>131</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -2825,7 +2818,7 @@
       <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D22" t="s">
@@ -3965,7 +3958,7 @@
       <c r="B50" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>156</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -4232,7 +4225,7 @@
       <c r="B57" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -4271,7 +4264,7 @@
       <c r="B58" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4310,7 +4303,7 @@
       <c r="B59" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>178</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -4349,7 +4342,7 @@
       <c r="B60" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>181</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -4387,7 +4380,7 @@
       <c r="B61" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>183</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -4425,7 +4418,7 @@
       <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>185</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4464,7 +4457,7 @@
       <c r="B63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>187</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4774,7 +4767,7 @@
       <c r="D71" t="s">
         <v>38</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="16" t="s">
         <v>209</v>
       </c>
       <c r="F71" t="s">
@@ -5301,7 +5294,7 @@
       <c r="B85" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>242</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -5340,7 +5333,7 @@
       <c r="B86" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -5379,7 +5372,7 @@
       <c r="B87" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>246</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5418,7 +5411,7 @@
       <c r="B88" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>248</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5457,7 +5450,7 @@
       <c r="B89" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>250</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5496,7 +5489,7 @@
       <c r="B90" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -5535,7 +5528,7 @@
       <c r="B91" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>254</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -5574,7 +5567,7 @@
       <c r="B92" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>256</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -5611,7 +5604,7 @@
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>257</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -5626,7 +5619,7 @@
       <c r="G93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="8" t="s">
         <v>259</v>
       </c>
       <c r="I93" s="5" t="s">
@@ -5650,7 +5643,7 @@
       <c r="B94" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>261</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -5779,7 +5772,7 @@
       <c r="G97" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="15" t="s">
+      <c r="H97" s="14" t="s">
         <v>273</v>
       </c>
       <c r="I97" t="s">
@@ -5798,65 +5791,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>274</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D98" t="s">
-        <v>50</v>
-      </c>
-      <c r="E98" t="s">
-        <v>276</v>
-      </c>
-      <c r="F98" t="s">
-        <v>43</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" t="s">
-        <v>131</v>
-      </c>
-      <c r="I98" t="s">
-        <v>11</v>
-      </c>
-      <c r="J98" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" t="s">
-        <v>11</v>
-      </c>
-      <c r="L98" t="s">
-        <v>11</v>
-      </c>
-      <c r="M98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
       </c>
-      <c r="H99" t="s">
-        <v>40</v>
+      <c r="H99" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="I99" t="s">
         <v>11</v>
@@ -5882,7 +5837,7 @@
       <c r="C100" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -5918,7 +5873,7 @@
       <c r="B101" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="13" t="s">
         <v>282</v>
       </c>
       <c r="D101" s="7" t="s">
@@ -5957,7 +5912,7 @@
       <c r="B102" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="13" t="s">
         <v>284</v>
       </c>
       <c r="D102" s="7" t="s">
@@ -5996,7 +5951,7 @@
       <c r="B103" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="13" t="s">
         <v>286</v>
       </c>
       <c r="D103" s="7" t="s">
@@ -6035,7 +5990,7 @@
       <c r="B104" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="13" t="s">
         <v>288</v>
       </c>
       <c r="D104" s="7" t="s">
@@ -6074,7 +6029,7 @@
       <c r="B105" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="13" t="s">
         <v>290</v>
       </c>
       <c r="D105" s="7" t="s">
@@ -6113,7 +6068,7 @@
       <c r="B106" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="13" t="s">
         <v>292</v>
       </c>
       <c r="D106" s="7" t="s">
@@ -6152,7 +6107,7 @@
       <c r="B107" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="13" t="s">
         <v>294</v>
       </c>
       <c r="D107" s="7" t="s">
@@ -6191,7 +6146,7 @@
       <c r="B108" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="13" t="s">
         <v>296</v>
       </c>
       <c r="D108" s="7" t="s">
@@ -6230,7 +6185,7 @@
       <c r="B109" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="13" t="s">
         <v>298</v>
       </c>
       <c r="D109" s="7" t="s">
@@ -6269,7 +6224,7 @@
       <c r="B110" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="13" t="s">
         <v>299</v>
       </c>
       <c r="D110" s="7" t="s">
@@ -6308,7 +6263,7 @@
       <c r="B111" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="13" t="s">
         <v>301</v>
       </c>
       <c r="D111" s="7" t="s">
@@ -6347,7 +6302,7 @@
       <c r="B112" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="13" t="s">
         <v>303</v>
       </c>
       <c r="D112" s="7" t="s">
@@ -6384,7 +6339,7 @@
       <c r="B113" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="13" t="s">
         <v>305</v>
       </c>
       <c r="D113" s="7" t="s">
@@ -6421,7 +6376,7 @@
       <c r="B114" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="13" t="s">
         <v>307</v>
       </c>
       <c r="D114" s="7" t="s">
@@ -6458,7 +6413,7 @@
       <c r="B115" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="13" t="s">
         <v>309</v>
       </c>
       <c r="D115" s="7" t="s">
@@ -6495,7 +6450,7 @@
       <c r="B116" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="13" t="s">
         <v>311</v>
       </c>
       <c r="D116" s="7" t="s">
@@ -6532,7 +6487,7 @@
       <c r="B117" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="13" t="s">
         <v>313</v>
       </c>
       <c r="D117" s="7" t="s">
@@ -6569,7 +6524,7 @@
       <c r="B118" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="13" t="s">
         <v>315</v>
       </c>
       <c r="D118" s="7" t="s">
@@ -6606,7 +6561,7 @@
       <c r="B119" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="13" t="s">
         <v>317</v>
       </c>
       <c r="D119" s="7" t="s">
@@ -6643,7 +6598,7 @@
       <c r="B120" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="13" t="s">
         <v>318</v>
       </c>
       <c r="D120" s="7" t="s">
@@ -6682,7 +6637,7 @@
       <c r="B121" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="13" t="s">
         <v>320</v>
       </c>
       <c r="D121" s="7" t="s">
@@ -6721,7 +6676,7 @@
       <c r="B122" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="13" t="s">
         <v>322</v>
       </c>
       <c r="D122" s="7" t="s">
@@ -6758,7 +6713,7 @@
       <c r="B123" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="13" t="s">
         <v>324</v>
       </c>
       <c r="D123" s="7" t="s">
@@ -6795,7 +6750,7 @@
       <c r="B124" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="13" t="s">
         <v>326</v>
       </c>
       <c r="D124" s="7" t="s">
@@ -6832,7 +6787,7 @@
       <c r="B125" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="13" t="s">
         <v>328</v>
       </c>
       <c r="D125" s="7" t="s">
@@ -6869,7 +6824,7 @@
       <c r="B126" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="13" t="s">
         <v>329</v>
       </c>
       <c r="D126" s="7" t="s">
@@ -6908,7 +6863,7 @@
       <c r="B127" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="13" t="s">
         <v>332</v>
       </c>
       <c r="D127" s="7" t="s">
@@ -6947,7 +6902,7 @@
       <c r="B128" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="13" t="s">
         <v>334</v>
       </c>
       <c r="D128" s="7" t="s">
@@ -6986,7 +6941,7 @@
       <c r="B129" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="13" t="s">
         <v>336</v>
       </c>
       <c r="D129" s="7" t="s">
@@ -7025,7 +6980,7 @@
       <c r="B130" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="13" t="s">
         <v>338</v>
       </c>
       <c r="D130" s="7" t="s">
@@ -7064,7 +7019,7 @@
       <c r="B131" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="13" t="s">
         <v>340</v>
       </c>
       <c r="D131" s="7" t="s">
@@ -7103,7 +7058,7 @@
       <c r="B132" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="13" t="s">
         <v>343</v>
       </c>
       <c r="D132" s="7" t="s">
@@ -7142,7 +7097,7 @@
       <c r="B133" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="13" t="s">
         <v>397</v>
       </c>
       <c r="D133" s="7" t="s">
@@ -7181,7 +7136,7 @@
       <c r="B134" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="9" t="s">
         <v>345</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -7250,7 +7205,7 @@
       <c r="L135" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M135" s="16" t="s">
+      <c r="M135" s="15" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7259,7 +7214,7 @@
       <c r="B136" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="9" t="s">
         <v>351</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -7289,7 +7244,7 @@
       <c r="L136" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M136" s="16" t="s">
+      <c r="M136" s="15" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7328,7 +7283,7 @@
       <c r="L137" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M137" s="16" t="s">
+      <c r="M137" s="15" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7337,7 +7292,7 @@
       <c r="B138" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="15" t="s">
         <v>357</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -7367,7 +7322,7 @@
       <c r="L138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M138" s="16" t="s">
+      <c r="M138" s="15" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7376,7 +7331,7 @@
       <c r="B139" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C139" s="16" t="s">
+      <c r="C139" s="15" t="s">
         <v>360</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -7406,7 +7361,7 @@
       <c r="L139" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M139" s="16" t="s">
+      <c r="M139" s="15" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7415,7 +7370,7 @@
       <c r="B140" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="9" t="s">
         <v>363</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -7445,7 +7400,7 @@
       <c r="L140" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M140" s="16" t="s">
+      <c r="M140" s="15" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7454,7 +7409,7 @@
       <c r="B141" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="9" t="s">
         <v>396</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -7484,7 +7439,7 @@
       <c r="L141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M141" s="16" t="s">
+      <c r="M141" s="15" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7493,7 +7448,7 @@
       <c r="B142" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="9" t="s">
         <v>367</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -7523,7 +7478,7 @@
       <c r="L142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M142" s="16" t="s">
+      <c r="M142" s="15" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7532,7 +7487,7 @@
       <c r="B143" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="9" t="s">
         <v>384</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -7562,14 +7517,14 @@
       <c r="L143" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M143" s="16" t="s">
+      <c r="M143" s="15" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="10"/>
+      <c r="C144" s="9"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -7579,14 +7534,14 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-      <c r="M144" s="19"/>
+      <c r="M144" s="18"/>
     </row>
     <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="9" t="s">
         <v>387</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -7616,7 +7571,7 @@
       <c r="L145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M145" s="19" t="s">
+      <c r="M145" s="18" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7625,10 +7580,10 @@
       <c r="B146" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="M146" s="19" t="s">
+      <c r="M146" s="18" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7637,10 +7592,10 @@
       <c r="B147" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="M147" s="19" t="s">
+      <c r="M147" s="18" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7718,7 +7673,7 @@
       <c r="L149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M149" s="12" t="s">
+      <c r="M149" s="11" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7727,7 +7682,7 @@
       <c r="B150" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="12" t="s">
         <v>376</v>
       </c>
       <c r="D150" s="3" t="s">
@@ -7757,8 +7712,46 @@
       <c r="L150" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M150" s="12" t="s">
+      <c r="M150" s="11" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>277</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D157" t="s">
+        <v>38</v>
+      </c>
+      <c r="E157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" t="s">
+        <v>40</v>
+      </c>
+      <c r="I157" t="s">
+        <v>11</v>
+      </c>
+      <c r="J157" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" t="s">
+        <v>11</v>
+      </c>
+      <c r="L157" t="s">
+        <v>11</v>
+      </c>
+      <c r="M157" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -1952,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4edf099782f82b30/Universität/Masterarbeit/2_R/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1926" documentId="8_{46D7B0F6-20DA-45A1-9F57-3F5F5BF6AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6953700-AB64-4BA9-906E-9C2A092783F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D055A41-709C-4BC1-ACFD-672178E5B154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
+    <workbookView xWindow="12600" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
     use dat data for intensification obvservaz´tion &amp; comparisons of gender roles in different zones...say infrastructure might also be cool</t>
       </text>
     </comment>
-    <comment ref="D76" authorId="5" shapeId="0" xr:uid="{20B1A240-3850-4B74-A821-7668DAF149B6}">
+    <comment ref="D67" authorId="5" shapeId="0" xr:uid="{20B1A240-3850-4B74-A821-7668DAF149B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="398">
   <si>
     <t>Number</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Land-use change, nutrition, and gender roles in Indonesian farm households</t>
   </si>
   <si>
-    <t>7 day food recall data</t>
-  </si>
-  <si>
     <t>Nutrition</t>
   </si>
   <si>
@@ -451,13 +448,6 @@
     <t>Social</t>
   </si>
   <si>
-    <t>(Munmun et. al., 2015)</t>
-  </si>
-  <si>
-    <t>Women’s Participation in Agricultural Activities at Forest
-Land Areas of Bangladesh</t>
-  </si>
-  <si>
     <t>Patterned remittances enhance women's health-related autonomy</t>
   </si>
   <si>
@@ -485,11 +475,6 @@
   </si>
   <si>
     <t>Conceptal Framework</t>
-  </si>
-  <si>
-    <t>The effect of partners' education on women's reproductive and maternal
-health in developing countries
-Vissého</t>
   </si>
   <si>
     <t>Education</t>
@@ -1151,9 +1136,6 @@
     <t>(Story &amp; Bugart, 2012)</t>
   </si>
   <si>
-    <t>(Chrisendoa et. al, 2020)</t>
-  </si>
-  <si>
     <t>(UN, 2010)</t>
   </si>
   <si>
@@ -1443,6 +1425,10 @@
   </si>
   <si>
     <t>(Leslie, 2017)</t>
+  </si>
+  <si>
+    <t>The effect of partners' education on women's reproductive and maternal
+health in developing countries</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1586,12 +1572,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1942,7 +1932,7 @@
   <threadedComment ref="E57" dT="2022-04-12T17:46:53.21" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{AA605032-13EE-435C-975D-48C51A7BFF55}">
     <text>use dat data for intensification obvservaz´tion &amp; comparisons of gender roles in different zones...say infrastructure might also be cool</text>
   </threadedComment>
-  <threadedComment ref="D76" dT="2022-04-12T21:34:52.10" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{20B1A240-3850-4B74-A821-7668DAF149B6}">
+  <threadedComment ref="D67" dT="2022-04-12T21:34:52.10" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{20B1A240-3850-4B74-A821-7668DAF149B6}">
     <text>Question in general way, no personal expericence asked for (workshop like)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1950,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
-  <dimension ref="A1:O150"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1991,10 +1981,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -2011,13 +2001,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2052,9 +2042,9 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
@@ -2093,9 +2083,9 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
@@ -2129,41 +2119,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="B5" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M5" t="s">
@@ -2175,25 +2165,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -2216,19 +2206,19 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -2257,16 +2247,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>11</v>
@@ -2275,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>10</v>
@@ -2298,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2310,13 +2300,13 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -2339,10 +2329,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -2351,19 +2341,19 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -2380,25 +2370,25 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -2419,10 +2409,10 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -2431,13 +2421,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -2460,16 +2450,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -2478,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -2501,16 +2491,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -2542,16 +2532,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2560,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2583,13 +2573,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2601,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2624,16 +2614,16 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2642,7 +2632,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -2665,16 +2655,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -2683,7 +2673,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -2706,13 +2696,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -2724,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -2747,25 +2737,25 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -2788,16 +2778,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
         <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -2806,7 +2796,7 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -2829,25 +2819,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
         <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>68</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -2870,25 +2860,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
         <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -2911,25 +2901,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -2952,25 +2942,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -2993,16 +2983,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -3011,7 +3001,7 @@
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3034,16 +3024,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -3052,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3075,25 +3065,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3116,16 +3106,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -3134,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3157,25 +3147,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
         <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" t="s">
-        <v>87</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -3198,22 +3188,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -3222,13 +3212,13 @@
         <v>12</v>
       </c>
       <c r="J31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
         <v>90</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" t="s">
-        <v>91</v>
       </c>
       <c r="M31" t="s">
         <v>10</v>
@@ -3239,25 +3229,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
         <v>92</v>
       </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>93</v>
-      </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -3280,16 +3270,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
         <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -3298,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -3321,13 +3311,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -3336,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>10</v>
@@ -3362,25 +3352,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
         <v>35</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" t="s">
-        <v>36</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -3403,25 +3393,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
         <v>98</v>
       </c>
-      <c r="D36" t="s">
-        <v>99</v>
-      </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -3444,25 +3434,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
         <v>100</v>
       </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" t="s">
-        <v>101</v>
-      </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -3484,26 +3474,26 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>103</v>
+      <c r="B38" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="I38" t="s">
         <v>10</v>
@@ -3526,13 +3516,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -3544,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
@@ -3567,25 +3557,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
         <v>10</v>
@@ -3608,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I41" t="s">
         <v>10</v>
@@ -3649,25 +3639,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I42" t="s">
         <v>10</v>
@@ -3690,25 +3680,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I43" t="s">
         <v>10</v>
@@ -3726,15 +3716,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>112</v>
+        <v>320</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -3743,13 +3733,13 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
         <v>10</v>
@@ -3772,19 +3762,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -3813,25 +3803,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s">
         <v>10</v>
@@ -3854,25 +3844,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I47" t="s">
         <v>10</v>
@@ -3895,10 +3885,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -3907,13 +3897,13 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I48" t="s">
         <v>10</v>
@@ -3936,25 +3926,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I49" t="s">
         <v>10</v>
@@ -3973,34 +3963,34 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>49</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="21" t="s">
+      <c r="B50" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="21" t="s">
+      <c r="E50" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="20" t="s">
         <v>10</v>
       </c>
       <c r="K50" t="s">
@@ -4018,25 +4008,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I51" t="s">
         <v>10</v>
@@ -4059,25 +4049,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
         <v>34</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="I52" t="s">
         <v>10</v>
@@ -4100,25 +4090,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I53" t="s">
         <v>10</v>
@@ -4141,13 +4131,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>10</v>
@@ -4178,14 +4168,17 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -4194,10 +4187,10 @@
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I55" t="s">
         <v>10</v>
@@ -4216,8 +4209,11 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>21</v>
@@ -4229,10 +4225,10 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
@@ -4254,24 +4250,26 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
       <c r="B57" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>20</v>
@@ -4293,128 +4291,137 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
       <c r="B58" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H60" t="s">
-        <v>91</v>
-      </c>
-      <c r="I60" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" t="s">
-        <v>10</v>
-      </c>
-      <c r="M60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>14</v>
@@ -4426,10 +4433,10 @@
         <v>11</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>10</v>
@@ -4448,11 +4455,14 @@
       </c>
     </row>
     <row r="62" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
       <c r="B62" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>14</v>
@@ -4464,19 +4474,19 @@
         <v>11</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>10</v>
@@ -4486,12 +4496,14 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
       <c r="B63" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>14</v>
@@ -4500,13 +4512,13 @@
         <v>10</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>12</v>
@@ -4525,26 +4537,29 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I64" t="s">
         <v>10</v>
@@ -4562,71 +4577,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21" t="s">
-        <v>344</v>
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>394</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J65" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M65" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-    </row>
-    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>147</v>
+      </c>
+      <c r="I65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I66" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="J66" t="s">
         <v>10</v>
@@ -4641,27 +4659,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s">
         <v>10</v>
@@ -4679,12 +4700,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -4693,13 +4717,13 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
         <v>10</v>
@@ -4717,468 +4741,495 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" t="s">
+        <v>10</v>
+      </c>
+      <c r="M69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" t="s">
+        <v>10</v>
+      </c>
+      <c r="M70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>351</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>100</v>
+      </c>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I77" t="s">
+        <v>185</v>
+      </c>
+      <c r="J77" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s">
+        <v>297</v>
+      </c>
+      <c r="L77" t="s">
+        <v>10</v>
+      </c>
+      <c r="M77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>359</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
         <v>46</v>
       </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" t="s">
-        <v>153</v>
-      </c>
-      <c r="I69" t="s">
-        <v>10</v>
-      </c>
-      <c r="J69" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" t="s">
-        <v>10</v>
-      </c>
-      <c r="M69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="F79" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s">
-        <v>10</v>
-      </c>
-      <c r="J70" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70" t="s">
-        <v>10</v>
-      </c>
-      <c r="M70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>348</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
-        <v>291</v>
-      </c>
-      <c r="F71" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" t="s">
-        <v>10</v>
-      </c>
-      <c r="J71" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" t="s">
-        <v>10</v>
-      </c>
-      <c r="L71" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F80" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="F72" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" t="s">
-        <v>101</v>
-      </c>
-      <c r="H72" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s">
-        <v>10</v>
-      </c>
-      <c r="J72" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>349</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" t="s">
-        <v>36</v>
-      </c>
-      <c r="I73" t="s">
-        <v>10</v>
-      </c>
-      <c r="J73" t="s">
-        <v>10</v>
-      </c>
-      <c r="K73" t="s">
-        <v>10</v>
-      </c>
-      <c r="L73" t="s">
-        <v>10</v>
-      </c>
-      <c r="M73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>350</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" t="s">
-        <v>163</v>
-      </c>
-      <c r="F74" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" t="s">
-        <v>10</v>
-      </c>
-      <c r="J74" t="s">
-        <v>10</v>
-      </c>
-      <c r="K74" t="s">
-        <v>10</v>
-      </c>
-      <c r="L74" t="s">
-        <v>10</v>
-      </c>
-      <c r="M74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>351</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s">
-        <v>43</v>
-      </c>
-      <c r="J75" t="s">
-        <v>48</v>
-      </c>
-      <c r="K75" t="s">
-        <v>10</v>
-      </c>
-      <c r="L75" t="s">
-        <v>10</v>
-      </c>
-      <c r="M75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>352</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" t="s">
-        <v>39</v>
-      </c>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-      <c r="I76" t="s">
-        <v>10</v>
-      </c>
-      <c r="J76" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" t="s">
-        <v>39</v>
-      </c>
-      <c r="H77" t="s">
-        <v>28</v>
-      </c>
-      <c r="I77" t="s">
-        <v>10</v>
-      </c>
-      <c r="J77" t="s">
-        <v>10</v>
-      </c>
-      <c r="K77" t="s">
-        <v>10</v>
-      </c>
-      <c r="L77" t="s">
-        <v>10</v>
-      </c>
-      <c r="M77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>354</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>101</v>
-      </c>
-      <c r="G78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H78" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" t="s">
-        <v>10</v>
-      </c>
-      <c r="J78" t="s">
-        <v>10</v>
-      </c>
-      <c r="K78" t="s">
-        <v>10</v>
-      </c>
-      <c r="L78" t="s">
-        <v>10</v>
-      </c>
-      <c r="M78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>355</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" t="s">
-        <v>39</v>
-      </c>
-      <c r="H79" t="s">
-        <v>108</v>
-      </c>
-      <c r="I79" t="s">
-        <v>10</v>
-      </c>
-      <c r="J79" t="s">
-        <v>10</v>
-      </c>
-      <c r="K79" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79" t="s">
-        <v>10</v>
-      </c>
-      <c r="M79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>356</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" t="s">
-        <v>170</v>
-      </c>
-      <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
-      <c r="H80" t="s">
-        <v>36</v>
-      </c>
-      <c r="I80" t="s">
-        <v>10</v>
-      </c>
-      <c r="J80" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>357</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -5187,140 +5238,139 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
         <v>39</v>
       </c>
-      <c r="G81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="I81" t="s">
-        <v>10</v>
-      </c>
-      <c r="J81" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>358</v>
+        <v>42</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>101</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" t="s">
-        <v>10</v>
-      </c>
-      <c r="J82" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" t="s">
-        <v>10</v>
-      </c>
-      <c r="L82" t="s">
-        <v>10</v>
-      </c>
-      <c r="M82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" s="5" t="s">
+      <c r="F84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="I84" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J84" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" s="5" t="s">
+      <c r="J84" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" t="s">
         <v>10</v>
       </c>
       <c r="M84" t="s">
@@ -5330,25 +5380,25 @@
     <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="20" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>175</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>10</v>
@@ -5366,2498 +5416,2438 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="5" t="s">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>159</v>
+      </c>
+      <c r="F93" t="s">
+        <v>100</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" t="s">
+        <v>10</v>
+      </c>
+      <c r="K93" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>156</v>
+      </c>
+      <c r="F95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95" t="s">
+        <v>39</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" t="s">
+        <v>10</v>
+      </c>
+      <c r="K95" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" t="s">
+        <v>10</v>
+      </c>
+      <c r="M95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>123</v>
+      </c>
+      <c r="I100" t="s">
+        <v>144</v>
+      </c>
+      <c r="J100" t="s">
+        <v>10</v>
+      </c>
+      <c r="K100" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M138" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M139" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K140" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M140" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="5" t="s">
+      <c r="C141" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M141" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5" t="s">
+      <c r="I142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M142" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M143" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M144" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="C145" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="I145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M145" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" t="s">
-        <v>48</v>
-      </c>
-      <c r="I91" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="C146" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M146" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92" t="s">
-        <v>187</v>
-      </c>
-      <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>39</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I92" t="s">
-        <v>189</v>
-      </c>
-      <c r="J92" t="s">
-        <v>20</v>
-      </c>
-      <c r="K92" t="s">
-        <v>301</v>
-      </c>
-      <c r="L92" t="s">
-        <v>10</v>
-      </c>
-      <c r="M92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" t="s">
-        <v>192</v>
-      </c>
-      <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I93" t="s">
-        <v>10</v>
-      </c>
-      <c r="J93" t="s">
-        <v>10</v>
-      </c>
-      <c r="K93" t="s">
-        <v>10</v>
-      </c>
-      <c r="L93" t="s">
-        <v>10</v>
-      </c>
-      <c r="M93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="C147" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M147" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M148" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M149" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M150" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M151" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M152" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M153" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D94" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C154" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" t="s">
-        <v>36</v>
-      </c>
-      <c r="I94" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" t="s">
-        <v>10</v>
-      </c>
-      <c r="K94" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" t="s">
-        <v>10</v>
-      </c>
-      <c r="M94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7" t="s">
+      <c r="I154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M154" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M95" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M96" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M98" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7" t="s">
+      <c r="C155" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M155" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M99" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7" t="s">
+      <c r="C156" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M156" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M100" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7" t="s">
+      <c r="C157" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M157" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C101" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M101" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M102" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M103" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M104" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M105" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M106" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M107" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7" t="s">
+      <c r="C158" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M158" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M108" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7" t="s">
+      <c r="C159" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M159" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M160" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M109" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7" t="s">
+      <c r="C161" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M161" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M162" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M110" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7" t="s">
+      <c r="C163" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M163" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C111" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M111" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7" t="s">
+      <c r="C164" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M164" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M112" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7" t="s">
+      <c r="C165" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M165" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M166" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M167" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C113" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M113" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M114" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7" t="s">
+      <c r="C168" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M168" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M169" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M170" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M171" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M115" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7" t="s">
+      <c r="C172" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J172" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M172" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M173" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M174" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M176" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M177" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M178" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M179" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M180" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M181" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M182" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M183" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M184" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="15"/>
+    </row>
+    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M186" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M187" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M188" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M190" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M191" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M192" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C116" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M116" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M117" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M118" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
-      <c r="B119" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M119" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
-      <c r="B120" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M120" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M121" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M122" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M123" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M124" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M125" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M126" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M127" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M128" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M130" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M131" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M132" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M133" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M134" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M135" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M136" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M137" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M138" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="15"/>
-    </row>
-    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M140" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M141" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2" t="s">
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B193" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C142" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M142" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3" t="s">
+      <c r="C193" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M193" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M143" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3" t="s">
+      <c r="C194" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M194" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M195" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B196" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M144" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M145" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M146" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B147" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="C196" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M196" s="18" t="s">
         <v>295</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M147" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B148" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M148" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M149" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B150" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="M150" s="18" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M144" r:id="rId1" xr:uid="{D2D467EF-B901-4B6B-8501-A5CD696B7558}"/>
-    <hyperlink ref="M145" r:id="rId2" xr:uid="{460347F1-A541-49D9-B7A7-F25E37B57ED2}"/>
-    <hyperlink ref="M137" r:id="rId3" xr:uid="{F89CF80E-8390-4DAC-8CAE-2778521C9332}"/>
-    <hyperlink ref="M131" r:id="rId4" xr:uid="{CA5983CE-2F6A-4F12-A886-76227DD0C633}"/>
-    <hyperlink ref="M132" r:id="rId5" xr:uid="{71F78C12-804D-4AA9-82AD-78FA2B74419C}"/>
-    <hyperlink ref="M133" r:id="rId6" xr:uid="{865E0CF5-A208-4DBE-910E-4999D4832A9B}"/>
-    <hyperlink ref="M134" r:id="rId7" xr:uid="{339597D6-B5F0-4317-8A0C-6C4D93B712B5}"/>
-    <hyperlink ref="M130" r:id="rId8" xr:uid="{B58BEDD7-A5FD-4150-9A94-E688A920800B}"/>
-    <hyperlink ref="M136" r:id="rId9" xr:uid="{D3C2991C-FAEA-418D-A44F-B30890F7DA86}"/>
-    <hyperlink ref="M135" r:id="rId10" xr:uid="{CF5A6F1C-E785-4118-855C-7453D1B92E7C}"/>
-    <hyperlink ref="M138" r:id="rId11" xr:uid="{A7B26CDB-A18D-449F-A525-E34DF5451AE1}"/>
-    <hyperlink ref="M140" r:id="rId12" xr:uid="{36F24791-5467-4588-9034-951D4B048C26}"/>
-    <hyperlink ref="M141" r:id="rId13" xr:uid="{790E6643-2D28-42CE-86E2-C9070A125A5B}"/>
-    <hyperlink ref="M142" r:id="rId14" xr:uid="{7E07AA73-8379-4209-B082-8A5FAB13813C}"/>
-    <hyperlink ref="M146" r:id="rId15" xr:uid="{FBFD9AAB-CFDF-4D8E-B630-AE90D8797FE2}"/>
-    <hyperlink ref="M147" r:id="rId16" xr:uid="{91A9E7C8-492A-43F4-9352-5C62C771FDEF}"/>
-    <hyperlink ref="M148" r:id="rId17" xr:uid="{96907453-A408-434A-AE6B-E2ADAFF0B3BB}"/>
-    <hyperlink ref="M149" r:id="rId18" xr:uid="{F06DBA6F-83D3-4C4D-B249-66F5112EE7C5}"/>
-    <hyperlink ref="M150" r:id="rId19" xr:uid="{3587A885-922B-4ECA-97B1-15A91A1FE589}"/>
+    <hyperlink ref="M190" r:id="rId1" xr:uid="{D2D467EF-B901-4B6B-8501-A5CD696B7558}"/>
+    <hyperlink ref="M191" r:id="rId2" xr:uid="{460347F1-A541-49D9-B7A7-F25E37B57ED2}"/>
+    <hyperlink ref="M183" r:id="rId3" xr:uid="{F89CF80E-8390-4DAC-8CAE-2778521C9332}"/>
+    <hyperlink ref="M177" r:id="rId4" xr:uid="{CA5983CE-2F6A-4F12-A886-76227DD0C633}"/>
+    <hyperlink ref="M178" r:id="rId5" xr:uid="{71F78C12-804D-4AA9-82AD-78FA2B74419C}"/>
+    <hyperlink ref="M179" r:id="rId6" xr:uid="{865E0CF5-A208-4DBE-910E-4999D4832A9B}"/>
+    <hyperlink ref="M180" r:id="rId7" xr:uid="{339597D6-B5F0-4317-8A0C-6C4D93B712B5}"/>
+    <hyperlink ref="M176" r:id="rId8" xr:uid="{B58BEDD7-A5FD-4150-9A94-E688A920800B}"/>
+    <hyperlink ref="M182" r:id="rId9" xr:uid="{D3C2991C-FAEA-418D-A44F-B30890F7DA86}"/>
+    <hyperlink ref="M181" r:id="rId10" xr:uid="{CF5A6F1C-E785-4118-855C-7453D1B92E7C}"/>
+    <hyperlink ref="M184" r:id="rId11" xr:uid="{A7B26CDB-A18D-449F-A525-E34DF5451AE1}"/>
+    <hyperlink ref="M186" r:id="rId12" xr:uid="{36F24791-5467-4588-9034-951D4B048C26}"/>
+    <hyperlink ref="M187" r:id="rId13" xr:uid="{790E6643-2D28-42CE-86E2-C9070A125A5B}"/>
+    <hyperlink ref="M188" r:id="rId14" xr:uid="{7E07AA73-8379-4209-B082-8A5FAB13813C}"/>
+    <hyperlink ref="M192" r:id="rId15" xr:uid="{FBFD9AAB-CFDF-4D8E-B630-AE90D8797FE2}"/>
+    <hyperlink ref="M193" r:id="rId16" xr:uid="{91A9E7C8-492A-43F4-9352-5C62C771FDEF}"/>
+    <hyperlink ref="M194" r:id="rId17" xr:uid="{96907453-A408-434A-AE6B-E2ADAFF0B3BB}"/>
+    <hyperlink ref="M195" r:id="rId18" xr:uid="{F06DBA6F-83D3-4C4D-B249-66F5112EE7C5}"/>
+    <hyperlink ref="M196" r:id="rId19" xr:uid="{3587A885-922B-4ECA-97B1-15A91A1FE589}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\sciebo\Neu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Git\Thesis\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228EBD2-56C4-4A6E-9535-5F83E35DAE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4579DF59-FD29-4FB4-9AD8-C7A4EB582FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -685,11 +685,6 @@
 Past, Present, and Future</t>
   </si>
   <si>
-    <t xml:space="preserve">What factors explain women's empowerment? Decision-making among
-small-scale farmers in Uganda
-</t>
-  </si>
-  <si>
     <t>Women’s empowerment and gender equity in agriculture: A different
 perspective from Southeast Asia</t>
   </si>
@@ -1390,6 +1385,10 @@
   <si>
     <t>Nourishing networks: A social-ecological analysis of a network intervention
 for improving household nutrition in Western Kenya</t>
+  </si>
+  <si>
+    <t>What factors explain women's empowerment? Decision-making among
+small-scale farmers in Uganda</t>
   </si>
 </sst>
 </file>
@@ -1889,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:M138"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,10 +1912,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
         <v>260</v>
-      </c>
-      <c r="E1" t="s">
-        <v>261</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1928,10 +1927,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" t="s">
         <v>262</v>
-      </c>
-      <c r="J1" t="s">
-        <v>263</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1948,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1989,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>13</v>
@@ -2030,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>16</v>
@@ -2077,7 +2076,7 @@
         <v>172</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>34</v>
@@ -2235,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -2358,7 +2357,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
@@ -2399,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>50</v>
@@ -2440,7 +2439,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
@@ -2607,7 +2606,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2645,16 +2644,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -2768,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>66</v>
@@ -2850,7 +2849,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>69</v>
@@ -2932,7 +2931,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>73</v>
@@ -2941,7 +2940,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -2982,7 +2981,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -3014,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>77</v>
@@ -3055,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>80</v>
@@ -3137,7 +3136,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>87</v>
@@ -3178,7 +3177,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>89</v>
@@ -3219,7 +3218,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>90</v>
@@ -3301,10 +3300,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D35" t="s">
         <v>93</v>
@@ -3342,7 +3341,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>94</v>
@@ -3383,7 +3382,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>137</v>
@@ -3424,7 +3423,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>96</v>
@@ -3465,7 +3464,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>97</v>
@@ -3506,7 +3505,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>99</v>
@@ -3547,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>101</v>
@@ -3588,7 +3587,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>102</v>
@@ -3629,10 +3628,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -3670,7 +3669,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>105</v>
@@ -3711,10 +3710,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
@@ -3752,7 +3751,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>150</v>
@@ -3793,7 +3792,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>108</v>
@@ -3834,7 +3833,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>110</v>
@@ -3875,7 +3874,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>112</v>
@@ -3916,7 +3915,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>113</v>
@@ -3998,7 +3997,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>118</v>
@@ -4007,7 +4006,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F52" t="s">
         <v>26</v>
@@ -4039,7 +4038,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>119</v>
@@ -4080,7 +4079,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>120</v>
@@ -4121,7 +4120,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>21</v>
@@ -4162,7 +4161,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>122</v>
@@ -4203,7 +4202,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>124</v>
@@ -4244,7 +4243,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>125</v>
@@ -4285,7 +4284,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>127</v>
@@ -4367,7 +4366,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>130</v>
@@ -4408,7 +4407,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>131</v>
@@ -4449,7 +4448,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>132</v>
@@ -4490,7 +4489,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>138</v>
@@ -4531,7 +4530,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>140</v>
@@ -4572,7 +4571,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>153</v>
@@ -4613,7 +4612,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>154</v>
@@ -4654,7 +4653,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>155</v>
@@ -4695,7 +4694,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>156</v>
@@ -4736,7 +4735,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>157</v>
@@ -4777,7 +4776,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>161</v>
@@ -4818,7 +4817,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>162</v>
@@ -4859,7 +4858,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>163</v>
@@ -4900,7 +4899,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>164</v>
@@ -4982,16 +4981,16 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
         <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -5000,16 +4999,16 @@
         <v>37</v>
       </c>
       <c r="H76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I76" t="s">
         <v>176</v>
-      </c>
-      <c r="I76" t="s">
-        <v>177</v>
       </c>
       <c r="J76" t="s">
         <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L76" t="s">
         <v>10</v>
@@ -5023,10 +5022,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
@@ -5047,15 +5046,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>78</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -5093,7 +5092,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>134</v>
@@ -5134,7 +5133,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>152</v>
@@ -5175,7 +5174,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>149</v>
@@ -5257,7 +5256,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>167</v>
@@ -5298,7 +5297,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>135</v>
@@ -5380,7 +5379,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>145</v>
@@ -5389,7 +5388,7 @@
         <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F86" t="s">
         <v>95</v>
@@ -5419,7 +5418,7 @@
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>159</v>
@@ -5458,7 +5457,7 @@
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>168</v>
@@ -5497,16 +5496,16 @@
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>26</v>
@@ -5515,7 +5514,7 @@
         <v>10</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>10</v>
@@ -5536,10 +5535,10 @@
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>44</v>
@@ -5575,10 +5574,10 @@
     <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>93</v>
@@ -5614,10 +5613,10 @@
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>189</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>93</v>
@@ -5653,10 +5652,10 @@
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>93</v>
@@ -5692,10 +5691,10 @@
     <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>93</v>
@@ -5731,10 +5730,10 @@
     <row r="95" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>93</v>
@@ -5770,10 +5769,10 @@
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>93</v>
@@ -5809,10 +5808,10 @@
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>93</v>
@@ -5848,10 +5847,10 @@
     <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>93</v>
@@ -5887,10 +5886,10 @@
     <row r="99" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>93</v>
@@ -5926,10 +5925,10 @@
     <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>93</v>
@@ -5965,10 +5964,10 @@
     <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>93</v>
@@ -6004,10 +6003,10 @@
     <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>93</v>
@@ -6043,10 +6042,10 @@
     <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>93</v>
@@ -6082,10 +6081,10 @@
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>93</v>
@@ -6121,10 +6120,10 @@
     <row r="105" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>93</v>
@@ -6160,10 +6159,10 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>93</v>
@@ -6199,10 +6198,10 @@
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>93</v>
@@ -6238,10 +6237,10 @@
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>93</v>
@@ -6277,10 +6276,10 @@
     <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>93</v>
@@ -6316,16 +6315,16 @@
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>10</v>
@@ -6355,16 +6354,16 @@
     <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>10</v>
@@ -6394,10 +6393,10 @@
     <row r="112" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>93</v>
@@ -6433,10 +6432,10 @@
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>93</v>
@@ -6472,10 +6471,10 @@
     <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>93</v>
@@ -6511,10 +6510,10 @@
     <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>93</v>
@@ -6550,16 +6549,16 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>10</v>
@@ -6589,10 +6588,10 @@
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>93</v>
@@ -6628,10 +6627,10 @@
     <row r="118" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>93</v>
@@ -6667,10 +6666,10 @@
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>93</v>
@@ -6706,10 +6705,10 @@
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>93</v>
@@ -6745,16 +6744,16 @@
     <row r="121" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>10</v>
@@ -6784,10 +6783,10 @@
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>93</v>
@@ -6823,10 +6822,10 @@
     <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>93</v>
@@ -6862,283 +6861,283 @@
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C124" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M124" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M125" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M125" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C126" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M126" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M126" s="14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M127" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M127" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C128" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M128" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M128" s="14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="D129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M129" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M129" s="14" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C130" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M130" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M130" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>10</v>
@@ -7168,55 +7167,55 @@
         <v>10</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C132" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M132" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M132" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>10</v>
@@ -7246,7 +7245,7 @@
         <v>10</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -7267,10 +7266,10 @@
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
@@ -7300,16 +7299,16 @@
         <v>10</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
@@ -7339,16 +7338,16 @@
         <v>10</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>10</v>
@@ -7378,13 +7377,13 @@
         <v>10</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>47</v>
@@ -7423,127 +7422,127 @@
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M139" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M140" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M140" s="10" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C141" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M141" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M141" s="10" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>10</v>
@@ -7573,16 +7572,16 @@
         <v>10</v>
       </c>
       <c r="M142" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>10</v>
@@ -7612,16 +7611,16 @@
         <v>10</v>
       </c>
       <c r="M143" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>10</v>
@@ -7651,55 +7650,55 @@
         <v>10</v>
       </c>
       <c r="M144" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M145" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M145" s="10" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>10</v>
@@ -7729,7 +7728,7 @@
         <v>10</v>
       </c>
       <c r="M146" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Git\Thesis\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\sciebo\Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4579DF59-FD29-4FB4-9AD8-C7A4EB582FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFDCF67-031B-4053-B529-AADD03ADA7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -457,10 +457,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>Female political representation and child health: Evidence from a
-multilevel analysis</t>
-  </si>
-  <si>
     <t>Gender-based constraints affecting biofortified cassava production,
 processing and marketing among men and women adopters in Oyo and
 Benue States, Nigeria</t>
@@ -685,6 +681,11 @@
 Past, Present, and Future</t>
   </si>
   <si>
+    <t xml:space="preserve">What factors explain women's empowerment? Decision-making among
+small-scale farmers in Uganda
+</t>
+  </si>
+  <si>
     <t>Women’s empowerment and gender equity in agriculture: A different
 perspective from Southeast Asia</t>
   </si>
@@ -1387,8 +1388,7 @@
 for improving household nutrition in Western Kenya</t>
   </si>
   <si>
-    <t>What factors explain women's empowerment? Decision-making among
-small-scale farmers in Uganda</t>
+    <t>Female political representation and child health: Evidence from a multilevel analysis</t>
   </si>
 </sst>
 </file>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,10 +2070,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>258</v>
@@ -3154,7 +3154,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -3385,7 +3385,7 @@
         <v>330</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -3400,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -3684,7 +3684,7 @@
         <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>20</v>
@@ -3754,13 +3754,13 @@
         <v>334</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
         <v>95</v>
@@ -3842,7 +3842,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -3869,7 +3869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>49</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>315</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>14</v>
@@ -3918,13 +3918,13 @@
         <v>316</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
@@ -3933,7 +3933,7 @@
         <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I50" t="s">
         <v>10</v>
@@ -3956,10 +3956,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
@@ -4000,7 +4000,7 @@
         <v>317</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -4041,7 +4041,7 @@
         <v>318</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>44</v>
@@ -4082,7 +4082,7 @@
         <v>319</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
         <v>33</v>
@@ -4097,7 +4097,7 @@
         <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I54" t="s">
         <v>10</v>
@@ -4164,13 +4164,13 @@
         <v>321</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>37</v>
@@ -4205,7 +4205,7 @@
         <v>322</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>33</v>
@@ -4246,13 +4246,13 @@
         <v>323</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>95</v>
@@ -4287,7 +4287,7 @@
         <v>324</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>33</v>
@@ -4325,10 +4325,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>14</v>
@@ -4369,7 +4369,7 @@
         <v>325</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>14</v>
@@ -4410,7 +4410,7 @@
         <v>326</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>14</v>
@@ -4451,13 +4451,13 @@
         <v>327</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
         <v>37</v>
@@ -4492,7 +4492,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -4507,7 +4507,7 @@
         <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I64" t="s">
         <v>10</v>
@@ -4533,7 +4533,7 @@
         <v>331</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
         <v>44</v>
@@ -4548,7 +4548,7 @@
         <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I65" t="s">
         <v>10</v>
@@ -4574,7 +4574,7 @@
         <v>336</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
         <v>33</v>
@@ -4615,7 +4615,7 @@
         <v>337</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -4656,7 +4656,7 @@
         <v>338</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
@@ -4697,7 +4697,7 @@
         <v>339</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
@@ -4738,13 +4738,13 @@
         <v>340</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
         <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -4779,7 +4779,7 @@
         <v>342</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
         <v>33</v>
@@ -4820,7 +4820,7 @@
         <v>343</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>44</v>
@@ -4861,7 +4861,7 @@
         <v>384</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>44</v>
@@ -4902,7 +4902,7 @@
         <v>344</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>44</v>
@@ -4940,10 +4940,10 @@
         <v>75</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>33</v>
@@ -5046,7 +5046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>78</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>346</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>394</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -5095,7 +5095,7 @@
         <v>328</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>33</v>
@@ -5136,7 +5136,7 @@
         <v>335</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -5177,7 +5177,7 @@
         <v>333</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
         <v>33</v>
@@ -5215,16 +5215,16 @@
         <v>82</v>
       </c>
       <c r="B82" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F82" t="s">
         <v>37</v>
@@ -5259,7 +5259,7 @@
         <v>345</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>33</v>
@@ -5300,7 +5300,7 @@
         <v>329</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
         <v>33</v>
@@ -5315,10 +5315,10 @@
         <v>10</v>
       </c>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J84" t="s">
         <v>10</v>
@@ -5338,16 +5338,16 @@
         <v>85</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="D85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
         <v>147</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
-        <v>148</v>
       </c>
       <c r="F85" t="s">
         <v>37</v>
@@ -5382,7 +5382,7 @@
         <v>332</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D86" t="s">
         <v>33</v>
@@ -5421,7 +5421,7 @@
         <v>341</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>14</v>
@@ -5436,7 +5436,7 @@
         <v>64</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>10</v>
@@ -5460,22 +5460,22 @@
         <v>385</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E88" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>10</v>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\sciebo\Neu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Git\Thesis\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFDCF67-031B-4053-B529-AADD03ADA7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3B0E02-DDEA-461D-A50F-3844856BC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <author>tc={20B1A240-3850-4B74-A821-7668DAF149B6}</author>
   </authors>
   <commentList>
-    <comment ref="H38" authorId="0" shapeId="0" xr:uid="{78E0ECA9-0C81-43A7-BDDB-3D4715DBFF31}">
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{78E0ECA9-0C81-43A7-BDDB-3D4715DBFF31}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -51,7 +51,7 @@
     Kereala</t>
       </text>
     </comment>
-    <comment ref="D50" authorId="1" shapeId="0" xr:uid="{A71996C4-BCEB-4407-91F2-8F8E4CF7EFC1}">
+    <comment ref="D51" authorId="1" shapeId="0" xr:uid="{A71996C4-BCEB-4407-91F2-8F8E4CF7EFC1}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -60,7 +60,7 @@
 analysis approach (computer coding)-subthemes and keywords</t>
       </text>
     </comment>
-    <comment ref="E56" authorId="2" shapeId="0" xr:uid="{AA605032-13EE-435C-975D-48C51A7BFF55}">
+    <comment ref="E57" authorId="2" shapeId="0" xr:uid="{AA605032-13EE-435C-975D-48C51A7BFF55}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -68,7 +68,7 @@
     use dat data for intensification obvservaz´tion &amp; comparisons of gender roles in different zones...say infrastructure might also be cool</t>
       </text>
     </comment>
-    <comment ref="D66" authorId="3" shapeId="0" xr:uid="{20B1A240-3850-4B74-A821-7668DAF149B6}">
+    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{20B1A240-3850-4B74-A821-7668DAF149B6}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -632,10 +632,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>Disabled women'smaternal and newborn health care in rural Nepal:
-A qualitative study</t>
-  </si>
-  <si>
     <t>What does it Mean to Make a ‘Joint’ Decision? Unpacking Intra-household
 Decision Making in Agriculture: Implications for Policy and Practice</t>
   </si>
@@ -1389,6 +1385,10 @@
   </si>
   <si>
     <t>Female political representation and child health: Evidence from a multilevel analysis</t>
+  </si>
+  <si>
+    <t>Disabled women's maternal and newborn health care in rural Nepal:
+A qualitative study</t>
   </si>
 </sst>
 </file>
@@ -1482,13 +1482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,11 +1542,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1868,17 +1868,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H38" dT="2022-04-03T16:47:35.49" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{78E0ECA9-0C81-43A7-BDDB-3D4715DBFF31}">
+  <threadedComment ref="H39" dT="2022-04-03T16:47:35.49" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{78E0ECA9-0C81-43A7-BDDB-3D4715DBFF31}">
     <text>Kereala</text>
   </threadedComment>
-  <threadedComment ref="D50" dT="2022-04-04T13:19:44.20" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{A71996C4-BCEB-4407-91F2-8F8E4CF7EFC1}">
+  <threadedComment ref="D51" dT="2022-04-04T13:19:44.20" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{A71996C4-BCEB-4407-91F2-8F8E4CF7EFC1}">
     <text>Nivo software:thematic content
 analysis approach (computer coding)-subthemes and keywords</text>
   </threadedComment>
-  <threadedComment ref="E56" dT="2022-04-12T17:46:53.21" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{AA605032-13EE-435C-975D-48C51A7BFF55}">
+  <threadedComment ref="E57" dT="2022-04-12T17:46:53.21" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{AA605032-13EE-435C-975D-48C51A7BFF55}">
     <text>use dat data for intensification obvservaz´tion &amp; comparisons of gender roles in different zones...say infrastructure might also be cool</text>
   </threadedComment>
-  <threadedComment ref="D66" dT="2022-04-12T21:34:52.10" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{20B1A240-3850-4B74-A821-7668DAF149B6}">
+  <threadedComment ref="D67" dT="2022-04-12T21:34:52.10" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{20B1A240-3850-4B74-A821-7668DAF149B6}">
     <text>Question in general way, no personal expericence asked for (workshop like)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,10 +1912,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
         <v>259</v>
-      </c>
-      <c r="E1" t="s">
-        <v>260</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1927,10 +1927,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" t="s">
         <v>261</v>
-      </c>
-      <c r="J1" t="s">
-        <v>262</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1947,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1988,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>13</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>16</v>
@@ -2069,14 +2069,14 @@
       <c r="A5">
         <v>17</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>171</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>34</v>
@@ -2234,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -2357,7 +2357,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
@@ -2398,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>50</v>
@@ -2439,7 +2439,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
@@ -2606,7 +2606,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2643,17 +2643,17 @@
       <c r="A19" s="18">
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>295</v>
+      <c r="B19" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -2767,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>66</v>
@@ -2779,10 +2779,10 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
         <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
@@ -2849,7 +2849,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>69</v>
@@ -2931,7 +2931,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>73</v>
@@ -2940,7 +2940,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -2981,7 +2981,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -3013,9 +3013,9 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D28" t="s">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>80</v>
@@ -3091,7 +3091,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>30</v>
       </c>
       <c r="B30" t="s">
@@ -3131,112 +3131,112 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>20</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>300</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -3254,30 +3254,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
       </c>
-      <c r="H34" t="s">
-        <v>35</v>
+      <c r="H34" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -3295,27 +3295,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>91</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>389</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
         <v>37</v>
-      </c>
-      <c r="G35" t="s">
-        <v>104</v>
       </c>
       <c r="H35" t="s">
         <v>35</v>
@@ -3336,153 +3336,153 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
-        <v>37</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
@@ -3502,28 +3502,28 @@
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>307</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
         <v>10</v>
@@ -3543,25 +3543,25 @@
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>308</v>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>306</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
         <v>100</v>
@@ -3584,25 +3584,25 @@
     </row>
     <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>309</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
+        <v>101</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
         <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
         <v>100</v>
@@ -3625,110 +3625,110 @@
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>311</v>
-      </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>33</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>106</v>
-      </c>
-      <c r="F44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>312</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" t="s">
-        <v>107</v>
       </c>
       <c r="F45" t="s">
         <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I45" t="s">
         <v>10</v>
@@ -3746,30 +3746,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>334</v>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>311</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
         <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s">
         <v>10</v>
@@ -3787,30 +3787,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>313</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s">
         <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
         <v>10</v>
@@ -3828,153 +3828,153 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
       </c>
       <c r="H48" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
         <v>111</v>
       </c>
-      <c r="I48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" t="s">
-        <v>10</v>
-      </c>
-      <c r="M48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B50" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>315</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>316</v>
-      </c>
-      <c r="C50" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" t="s">
-        <v>10</v>
-      </c>
-      <c r="M50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s">
-        <v>34</v>
       </c>
       <c r="F51" t="s">
         <v>26</v>
       </c>
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>35</v>
+      <c r="G51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
       </c>
       <c r="I51" t="s">
         <v>10</v>
@@ -3992,235 +3992,235 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>115</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
         <v>26</v>
       </c>
       <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
         <v>95</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H53" t="s">
         <v>111</v>
       </c>
-      <c r="I52" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>318</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C55" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>319</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" t="s">
-        <v>10</v>
-      </c>
-      <c r="M54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" t="s">
-        <v>10</v>
-      </c>
-      <c r="M55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>56</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>57</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>10</v>
@@ -4238,138 +4238,138 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="I59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C59" s="19" t="s">
+      <c r="B60" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="E60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>86</v>
       </c>
-      <c r="I59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>14</v>
@@ -4381,19 +4381,19 @@
         <v>11</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>10</v>
@@ -4402,15 +4402,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>14</v>
@@ -4419,136 +4419,136 @@
         <v>10</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="J63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
-        <v>327</v>
-      </c>
-      <c r="C63" s="19" t="s">
+      <c r="B64" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>37</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>17</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H64" t="s">
         <v>82</v>
       </c>
-      <c r="I63" t="s">
-        <v>10</v>
-      </c>
-      <c r="J63" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" t="s">
-        <v>10</v>
-      </c>
-      <c r="M63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" t="s">
+        <v>10</v>
+      </c>
+      <c r="M64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>383</v>
-      </c>
-      <c r="C64" s="19" t="s">
+      <c r="B65" t="s">
+        <v>382</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>14</v>
       </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
         <v>104</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>22</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H65" t="s">
         <v>138</v>
-      </c>
-      <c r="I64" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" t="s">
-        <v>10</v>
-      </c>
-      <c r="M64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>331</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" t="s">
-        <v>140</v>
       </c>
       <c r="I65" t="s">
         <v>10</v>
@@ -4568,28 +4568,28 @@
     </row>
     <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="I66" t="s">
         <v>10</v>
@@ -4609,16 +4609,16 @@
     </row>
     <row r="67" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -4630,7 +4630,7 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s">
         <v>10</v>
@@ -4648,18 +4648,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -4689,15 +4689,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
@@ -4712,7 +4712,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I69" t="s">
         <v>10</v>
@@ -4732,28 +4732,28 @@
     </row>
     <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
         <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
         <v>10</v>
@@ -4773,95 +4773,95 @@
     </row>
     <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
         <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
         <v>95</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" t="s">
         <v>11</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H72" t="s">
         <v>12</v>
       </c>
-      <c r="I71" t="s">
-        <v>10</v>
-      </c>
-      <c r="J71" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" t="s">
-        <v>10</v>
-      </c>
-      <c r="L71" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>73</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>384</v>
+      <c r="B73" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>44</v>
@@ -4870,7 +4870,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>104</v>
@@ -4894,15 +4894,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>74</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>344</v>
+        <v>73</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>383</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>44</v>
@@ -4911,13 +4911,13 @@
         <v>10</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>10</v>
@@ -4935,21 +4935,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>164</v>
+        <v>343</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>17</v>
@@ -4976,428 +4976,428 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
+        <v>346</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" t="s">
+        <v>175</v>
+      </c>
+      <c r="J77" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s">
+        <v>286</v>
+      </c>
+      <c r="L77" t="s">
+        <v>10</v>
+      </c>
+      <c r="M77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>347</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" t="s">
-        <v>174</v>
-      </c>
-      <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="C78" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I76" t="s">
-        <v>176</v>
-      </c>
-      <c r="J76" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" t="s">
-        <v>287</v>
-      </c>
-      <c r="L76" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>348</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G80" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>78</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="I80" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" t="s">
         <v>14</v>
       </c>
-      <c r="E78" t="s">
-        <v>45</v>
-      </c>
-      <c r="F78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" t="s">
-        <v>46</v>
-      </c>
-      <c r="I78" t="s">
-        <v>10</v>
-      </c>
-      <c r="J78" t="s">
-        <v>10</v>
-      </c>
-      <c r="K78" t="s">
-        <v>10</v>
-      </c>
-      <c r="L78" t="s">
-        <v>10</v>
-      </c>
-      <c r="M78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>79</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="18" t="s">
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
         <v>37</v>
       </c>
-      <c r="G79" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J79" t="s">
-        <v>10</v>
-      </c>
-      <c r="K79" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79" t="s">
-        <v>10</v>
-      </c>
-      <c r="M79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>80</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
         <v>38</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I81" t="s">
         <v>41</v>
       </c>
-      <c r="J80" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="J81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C81" s="19" t="s">
+      <c r="B82" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="D81" t="s">
-        <v>33</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>104</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" t="s">
-        <v>35</v>
-      </c>
-      <c r="I81" t="s">
-        <v>10</v>
-      </c>
-      <c r="J81" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>82</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>142</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>37</v>
       </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
         <v>38</v>
       </c>
-      <c r="I82" t="s">
-        <v>10</v>
-      </c>
-      <c r="J82" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" t="s">
-        <v>10</v>
-      </c>
-      <c r="L82" t="s">
-        <v>10</v>
-      </c>
-      <c r="M82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="B84" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="5" t="s">
+      <c r="E84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="I84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C84" s="19" t="s">
+      <c r="B85" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>33</v>
       </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
         <v>26</v>
       </c>
-      <c r="G84" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
         <v>114</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I85" t="s">
         <v>135</v>
       </c>
-      <c r="J84" t="s">
-        <v>10</v>
-      </c>
-      <c r="K84" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" t="s">
-        <v>10</v>
-      </c>
-      <c r="M84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="J85" t="s">
+        <v>10</v>
+      </c>
+      <c r="K85" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" t="s">
+        <v>10</v>
+      </c>
+      <c r="M85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B86" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C86" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
         <v>147</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>37</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>95</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H86" t="s">
         <v>38</v>
-      </c>
-      <c r="I85" t="s">
-        <v>10</v>
-      </c>
-      <c r="J85" t="s">
-        <v>10</v>
-      </c>
-      <c r="K85" t="s">
-        <v>10</v>
-      </c>
-      <c r="L85" t="s">
-        <v>10</v>
-      </c>
-      <c r="M85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>86</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86" t="s">
-        <v>277</v>
-      </c>
-      <c r="F86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" t="s">
-        <v>35</v>
       </c>
       <c r="I86" t="s">
         <v>10</v>
@@ -5418,7 +5418,7 @@
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>158</v>
@@ -5457,25 +5457,25 @@
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E88" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>10</v>
@@ -5496,16 +5496,16 @@
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>178</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>26</v>
@@ -5514,7 +5514,7 @@
         <v>10</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>10</v>
@@ -5535,10 +5535,10 @@
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>44</v>
@@ -5574,10 +5574,10 @@
     <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>93</v>
@@ -5613,10 +5613,10 @@
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>93</v>
@@ -5652,10 +5652,10 @@
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>93</v>
@@ -5691,10 +5691,10 @@
     <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>93</v>
@@ -5730,10 +5730,10 @@
     <row r="95" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>93</v>
@@ -5769,10 +5769,10 @@
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>93</v>
@@ -5808,10 +5808,10 @@
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>93</v>
@@ -5847,10 +5847,10 @@
     <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>93</v>
@@ -5886,10 +5886,10 @@
     <row r="99" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>93</v>
@@ -5925,10 +5925,10 @@
     <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>93</v>
@@ -5964,10 +5964,10 @@
     <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>93</v>
@@ -6003,10 +6003,10 @@
     <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>93</v>
@@ -6042,10 +6042,10 @@
     <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>93</v>
@@ -6081,10 +6081,10 @@
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>93</v>
@@ -6120,10 +6120,10 @@
     <row r="105" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>93</v>
@@ -6159,10 +6159,10 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>93</v>
@@ -6198,10 +6198,10 @@
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>93</v>
@@ -6237,10 +6237,10 @@
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>93</v>
@@ -6276,10 +6276,10 @@
     <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>93</v>
@@ -6315,16 +6315,16 @@
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>10</v>
@@ -6354,16 +6354,16 @@
     <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>10</v>
@@ -6393,10 +6393,10 @@
     <row r="112" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>93</v>
@@ -6432,10 +6432,10 @@
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>93</v>
@@ -6471,10 +6471,10 @@
     <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>93</v>
@@ -6510,10 +6510,10 @@
     <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>93</v>
@@ -6549,16 +6549,16 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>10</v>
@@ -6588,10 +6588,10 @@
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>93</v>
@@ -6627,10 +6627,10 @@
     <row r="118" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>93</v>
@@ -6666,10 +6666,10 @@
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>93</v>
@@ -6705,10 +6705,10 @@
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>93</v>
@@ -6744,16 +6744,16 @@
     <row r="121" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>10</v>
@@ -6783,10 +6783,10 @@
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>93</v>
@@ -6822,10 +6822,10 @@
     <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>93</v>
@@ -6861,283 +6861,283 @@
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C124" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M124" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M125" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M125" s="14" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C126" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M126" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M126" s="14" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M127" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M127" s="14" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C128" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M128" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M128" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C129" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="D129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M129" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M129" s="14" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C130" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M130" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M130" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>10</v>
@@ -7167,55 +7167,55 @@
         <v>10</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C132" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M132" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M132" s="14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>10</v>
@@ -7245,7 +7245,7 @@
         <v>10</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -7266,10 +7266,10 @@
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
@@ -7299,16 +7299,16 @@
         <v>10</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
@@ -7338,16 +7338,16 @@
         <v>10</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>10</v>
@@ -7377,13 +7377,13 @@
         <v>10</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>47</v>
@@ -7422,127 +7422,127 @@
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M139" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M140" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M140" s="10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C141" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M141" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M141" s="10" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>10</v>
@@ -7572,16 +7572,16 @@
         <v>10</v>
       </c>
       <c r="M142" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>10</v>
@@ -7611,16 +7611,16 @@
         <v>10</v>
       </c>
       <c r="M143" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>10</v>
@@ -7650,55 +7650,55 @@
         <v>10</v>
       </c>
       <c r="M144" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M145" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M145" s="10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>10</v>
@@ -7728,7 +7728,7 @@
         <v>10</v>
       </c>
       <c r="M146" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\Git\Thesis\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\sciebo\Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3B0E02-DDEA-461D-A50F-3844856BC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00777F8-26F3-470F-9D2E-2E5CEF0B0211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -45,34 +45,34 @@
   <commentList>
     <comment ref="H39" authorId="0" shapeId="0" xr:uid="{78E0ECA9-0C81-43A7-BDDB-3D4715DBFF31}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Kereala</t>
       </text>
     </comment>
     <comment ref="D51" authorId="1" shapeId="0" xr:uid="{A71996C4-BCEB-4407-91F2-8F8E4CF7EFC1}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Nivo software:thematic content
 analysis approach (computer coding)-subthemes and keywords</t>
       </text>
     </comment>
     <comment ref="E57" authorId="2" shapeId="0" xr:uid="{AA605032-13EE-435C-975D-48C51A7BFF55}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     use dat data for intensification obvservaz´tion &amp; comparisons of gender roles in different zones...say infrastructure might also be cool</t>
       </text>
     </comment>
     <comment ref="D67" authorId="3" shapeId="0" xr:uid="{20B1A240-3850-4B74-A821-7668DAF149B6}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Question in general way, no personal expericence asked for (workshop like)</t>
       </text>
     </comment>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="443">
   <si>
     <t>Number</t>
   </si>
@@ -567,9 +567,6 @@
   <si>
     <t>“Breaking Even” under Intensification? Gendered
 Trade‐Offs for Women Milk Marketers in Kenya</t>
-  </si>
-  <si>
-    <t>organisation &amp; substantive coding</t>
   </si>
   <si>
     <t>The dos and don’ts of influencing policy: a
@@ -743,11 +740,6 @@
 An Environment of Computational Intelligence</t>
   </si>
   <si>
-    <t>Comparison of Machine Learning and Sentiment Analysis in
-Detection of Suspicious Online Reviewers on Different Type
-of Data</t>
-  </si>
-  <si>
     <t>Sentiment Analysis of Social Issues</t>
   </si>
   <si>
@@ -761,17 +753,7 @@
     <t>(Malapit et. al., 2019)</t>
   </si>
   <si>
-    <t>Development of the project-level Women’s Empowerment in Agriculture
-Index (pro-WEAI)</t>
-  </si>
-  <si>
     <t>GENNOVATIVE</t>
-  </si>
-  <si>
-    <t>FEMINIST SCIENCE
-AND EPISTEMOLOGIES:
-Key issues central to GENNOVATE’s
-research program</t>
   </si>
   <si>
     <t>LADDER OF LIFE:
@@ -789,21 +771,9 @@
     <t>(Mohajan, 2020)</t>
   </si>
   <si>
-    <t>Quantitative Research: A Successful Investigation in Natural and Social
-Sciences</t>
-  </si>
-  <si>
-    <t>GeoFarmer: A monitoring and feedback system for agricultural development
-projects</t>
-  </si>
-  <si>
     <t>Brief history of agricultural systems modeling</t>
   </si>
   <si>
-    <t>Towards a new generation of agricultural system data, models and
-knowledge products: Information and communication technology</t>
-  </si>
-  <si>
     <t>The Women’s Empowerment in Livestock Index</t>
   </si>
   <si>
@@ -823,68 +793,28 @@
   </si>
   <si>
     <t>Questionnaire</t>
-  </si>
-  <si>
-    <t>PROJECT-LEVEL WOMEN’S EMPOWERMENT IN AGRICULTURE INDEX
-PILOT VERSION</t>
-  </si>
-  <si>
-    <t>Adapting the Women's empowerment in agriculture index to specific
-country context: Insights and critiques from fieldwork in India</t>
   </si>
   <si>
     <t>The SWPER index for women’s empowerment in Africa:
 development and validation of an index based on survey data</t>
   </si>
   <si>
-    <t>How to administer a survey module
-Using the time use module as an example</t>
-  </si>
-  <si>
     <t>(Emily Myers &amp; Rubin, 2021)</t>
   </si>
   <si>
-    <t>Using pro
-WEAI qualitative data</t>
-  </si>
-  <si>
     <t>MODULE G4: TIME ALLOCATION</t>
   </si>
   <si>
     <t>Questionnnaire</t>
   </si>
   <si>
-    <t>Pro
-WEAI Foundations Module</t>
-  </si>
-  <si>
     <t>(IFPRI, 2019)</t>
   </si>
   <si>
-    <t>Pro
-WEAI Foundations Module
-Unit 2: Pro
-WEAI Methodology</t>
-  </si>
-  <si>
     <t>(Luedeling &amp; Shepherd, 2016)</t>
   </si>
   <si>
-    <t>Decision-Focused
-Agricultural Research</t>
-  </si>
-  <si>
     <t>(Jones et al.,2014)</t>
-  </si>
-  <si>
-    <t>An Introduction to Statistical
-Modelling</t>
-  </si>
-  <si>
-    <t>A ‘How To’ Guide
-to Measuring
-Women’s
-Empowerment. Sharing experience from Oxfam’s impact evaluations</t>
   </si>
   <si>
     <t>Including Questionnaire</t>
@@ -1013,10 +943,6 @@
   </si>
   <si>
     <t>WEAI Versions</t>
-  </si>
-  <si>
-    <t>Instructional Guide on the Abbreviated Women’s Empowerment in
-Agriculture Index (A-WEAI)</t>
   </si>
   <si>
     <t>(IFPRI, 2022)</t>
@@ -1389,13 +1315,216 @@
   <si>
     <t>Disabled women's maternal and newborn health care in rural Nepal:
 A qualitative study</t>
+  </si>
+  <si>
+    <t>https://www.un.org/en/global-issues/human-rights</t>
+  </si>
+  <si>
+    <t>Human rights</t>
+  </si>
+  <si>
+    <t>https://www.amnesty.org/en/what-we-do/discrimination/womens-rights/</t>
+  </si>
+  <si>
+    <t>Women's rights</t>
+  </si>
+  <si>
+    <t>(Amnesty International, 2022)</t>
+  </si>
+  <si>
+    <t>(UN, 2020)</t>
+  </si>
+  <si>
+    <t>https://atlasti.com/de</t>
+  </si>
+  <si>
+    <t>Turn your data into qualitative insights, faster and easier.</t>
+  </si>
+  <si>
+    <t>(ATLAS.ti,2022)</t>
+  </si>
+  <si>
+    <t>https://www.nvivo.de/</t>
+  </si>
+  <si>
+    <t>(Nvivo, 2022)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8LSJ6AzWruE</t>
+  </si>
+  <si>
+    <t>NVivo - Qualitative Datenanalyse leicht gemacht!</t>
+  </si>
+  <si>
+    <t>(Alfasoft, 2021)</t>
+  </si>
+  <si>
+    <t>Nvivo. Qualitative Datenanalyse leicht gemacht</t>
+  </si>
+  <si>
+    <t>organisation &amp; substantive coding (hand coding)</t>
+  </si>
+  <si>
+    <t>https://www.publichealth.columbia.edu/research/population-health-methods/content-analysis</t>
+  </si>
+  <si>
+    <t>Content Analysis</t>
+  </si>
+  <si>
+    <t>(Columbia University, 2019)</t>
+  </si>
+  <si>
+    <t>https://www.euro.who.int/en/about-us/partners/observatory-old/publications/policy-briefs-and-summaries</t>
+  </si>
+  <si>
+    <t>Policy briefs and summaries</t>
+  </si>
+  <si>
+    <t>(European Observatory on Health Systems and Policies,2022)</t>
+  </si>
+  <si>
+    <t>(Adelle &amp;Weiland, 2011)</t>
+  </si>
+  <si>
+    <t>Policy assessment: the state of the art</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(Aldwaik and Pontius 2012)</t>
+  </si>
+  <si>
+    <t>Intensity analysis
+to unify measurements of size and stationarity of land
+changes by interval, category, and transition.</t>
+  </si>
+  <si>
+    <t>Comparison of Machine Learning and Sentiment Analysis in Detection of Suspicious Online Reviewers on Different Type of Data</t>
+  </si>
+  <si>
+    <t>Pro WEAI Foundations Module</t>
+  </si>
+  <si>
+    <t>A ‘How To’ Guide to Measuring
+Women’s Empowerment. Sharing experience from Oxfam’s impact evaluations</t>
+  </si>
+  <si>
+    <t>An Introduction to Statistical Modelling</t>
+  </si>
+  <si>
+    <t>Decision-Focused Agricultural Research</t>
+  </si>
+  <si>
+    <t>Using pro WEAI qualitative data</t>
+  </si>
+  <si>
+    <t>How to administer a survey module using the time use module as an example</t>
+  </si>
+  <si>
+    <t>Adapting the Women's empowerment in agriculture index to specific country context: Insights and critiques from fieldwork in India</t>
+  </si>
+  <si>
+    <t>PROJECT-LEVEL WOMEN’S EMPOWERMENT IN AGRICULTURE INDEX PILOT VERSION</t>
+  </si>
+  <si>
+    <t>FEMINIST SCIENCE AND EPISTEMOLOGIES:
+Key issues central to GENNOVATE’s research program</t>
+  </si>
+  <si>
+    <t>Development of the project-level Women’s Empowerment in Agriculture Index (pro-WEAI)</t>
+  </si>
+  <si>
+    <t>Quantitative Research: A Successful Investigation in Natural and Social Sciences</t>
+  </si>
+  <si>
+    <t>GeoFarmer: A monitoring and feedback system for agricultural development projects</t>
+  </si>
+  <si>
+    <t>Towards a new generation of agricultural system data, models and knowledge products: Information and communication technology</t>
+  </si>
+  <si>
+    <t>Pro WEAI Foundations Module Unit 2: Pro WEAI Methodology</t>
+  </si>
+  <si>
+    <t>The farm-level economics of conservation agriculture for
+resource-poor farmers</t>
+  </si>
+  <si>
+    <t>(Pannell et al.,2014)</t>
+  </si>
+  <si>
+    <t>(Carvalho,2010)</t>
+  </si>
+  <si>
+    <t>Poverty and Time Preference</t>
+  </si>
+  <si>
+    <t>Time Discounting and Economic Decision-making in the Older
+Population</t>
+  </si>
+  <si>
+    <t>(Huffman et al.,2019)</t>
+  </si>
+  <si>
+    <t>High Discount Rates:
+- An Experimental Artifact or Caused
+by Poverty and Vulnerability?</t>
+  </si>
+  <si>
+    <t>(Holden,2014)</t>
+  </si>
+  <si>
+    <t>http://www.umb.no/statisk/clts-no/high_discount_rates_an_experimental_artifact_or_a_result_of_peeople_being_poor_and_vulnerable_wcere_2014_istanbul.pdf</t>
+  </si>
+  <si>
+    <t>How to measure anything</t>
+  </si>
+  <si>
+    <t>(Hubbard, 1962)</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>The Calibration of Expert Judgment: Heuristics and Biases Beyond the Laboratory</t>
+  </si>
+  <si>
+    <t>(Koehler, Brenner &amp; Griffin, 2012)</t>
+  </si>
+  <si>
+    <t>Taking a calculated Risk</t>
+  </si>
+  <si>
+    <t>(Bailey et al.,2000)</t>
+  </si>
+  <si>
+    <t>(Stackoverflow,2017)</t>
+  </si>
+  <si>
+    <t>https://rstudio.github.io/shinydashboard/appearance.html</t>
+  </si>
+  <si>
+    <t>shinydashboard</t>
+  </si>
+  <si>
+    <t>(Rstudio,2014)</t>
+  </si>
+  <si>
+    <t>R shinyDashboard customize box status color</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/36080529/r-shinydashboard-customize-box-status-color</t>
+  </si>
+  <si>
+    <t>(Rstudio,2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,6 +1555,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1506,7 +1642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1521,7 +1657,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1547,10 +1682,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1572,7 +1711,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1886,13 +2025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" customWidth="1"/>
@@ -1912,10 +2051,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1927,10 +2066,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1947,7 +2086,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1988,9 +2127,9 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
@@ -2029,9 +2168,9 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
@@ -2069,14 +2208,14 @@
       <c r="A5">
         <v>17</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>170</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>34</v>
@@ -2084,7 +2223,7 @@
       <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -2113,7 +2252,7 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
@@ -2154,7 +2293,7 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
@@ -2195,7 +2334,7 @@
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2234,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -2357,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
@@ -2398,9 +2537,9 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
@@ -2439,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
@@ -2606,7 +2745,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2640,20 +2779,20 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>13</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>180</v>
+      <c r="B19" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -2722,43 +2861,43 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="18" t="s">
+      <c r="I21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2767,9 +2906,9 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D22" t="s">
@@ -2810,7 +2949,7 @@
       <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D23" t="s">
@@ -2845,84 +2984,84 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>24</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="18" t="s">
+      <c r="I24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>25</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="18" t="s">
+      <c r="I25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2931,16 +3070,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -2974,14 +3113,14 @@
       <c r="B27" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -3009,13 +3148,13 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C28" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D28" t="s">
@@ -3054,9 +3193,9 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
-      </c>
-      <c r="C29" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D29" t="s">
@@ -3091,13 +3230,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D30" t="s">
@@ -3135,17 +3274,17 @@
       <c r="A31" s="5">
         <v>20</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>144</v>
+      <c r="B31" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
         <v>95</v>
@@ -3173,13 +3312,13 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D32" t="s">
@@ -3214,13 +3353,13 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
-      </c>
-      <c r="C33" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D33" t="s">
@@ -3259,9 +3398,9 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
-      </c>
-      <c r="C34" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D34" t="s">
@@ -3302,7 +3441,7 @@
       <c r="B35" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D35" t="s">
@@ -3341,16 +3480,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>388</v>
+        <v>285</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>431</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -3378,13 +3517,13 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C37" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D37" t="s">
@@ -3419,13 +3558,13 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>136</v>
       </c>
       <c r="D38" t="s">
@@ -3464,9 +3603,9 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
-      </c>
-      <c r="C39" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D39" t="s">
@@ -3505,9 +3644,9 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C40" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D40" t="s">
@@ -3546,9 +3685,9 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
-      </c>
-      <c r="C41" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>99</v>
       </c>
       <c r="D41" t="s">
@@ -3587,9 +3726,9 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C42" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>101</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3628,9 +3767,9 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>102</v>
       </c>
       <c r="D43" t="s">
@@ -3669,10 +3808,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>385</v>
+        <v>292</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>368</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -3710,9 +3849,9 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
-      </c>
-      <c r="C45" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>105</v>
       </c>
       <c r="D45" t="s">
@@ -3751,10 +3890,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>392</v>
+        <v>294</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>375</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
@@ -3792,16 +3931,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>149</v>
+        <v>316</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
         <v>95</v>
@@ -3833,9 +3972,9 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
-      </c>
-      <c r="C48" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D48" t="s">
@@ -3874,9 +4013,9 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C49" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D49" t="s">
@@ -3911,34 +4050,34 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D50" s="18" t="s">
+      <c r="B50" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="18" t="s">
+      <c r="E50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="18" t="s">
+      <c r="I50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K50" t="s">
@@ -3956,9 +4095,9 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>315</v>
-      </c>
-      <c r="C51" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D51" t="s">
@@ -3999,7 +4138,7 @@
       <c r="B52" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D52" t="s">
@@ -4038,16 +4177,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
-      </c>
-      <c r="C53" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
@@ -4079,9 +4218,9 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C54" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>118</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -4120,9 +4259,9 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>318</v>
-      </c>
-      <c r="C55" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D55" t="s">
@@ -4160,10 +4299,10 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="C56" s="18" t="s">
+      <c r="B56" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D56" t="s">
@@ -4202,9 +4341,9 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C57" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -4243,9 +4382,9 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C58" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4284,9 +4423,9 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C59" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>124</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -4325,9 +4464,9 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C60" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -4368,7 +4507,7 @@
       <c r="B61" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>128</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -4407,9 +4546,9 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C62" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>129</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4448,9 +4587,9 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C63" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4489,9 +4628,9 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>326</v>
-      </c>
-      <c r="C64" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4530,9 +4669,9 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>382</v>
-      </c>
-      <c r="C65" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>137</v>
       </c>
       <c r="D65" t="s">
@@ -4571,9 +4710,9 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
-      </c>
-      <c r="C66" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D66" t="s">
@@ -4612,10 +4751,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>152</v>
+        <v>318</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="D67" t="s">
         <v>33</v>
@@ -4653,10 +4792,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>336</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>153</v>
+        <v>319</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -4694,10 +4833,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>337</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>154</v>
+        <v>320</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
@@ -4735,10 +4874,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>338</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>155</v>
+        <v>321</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="D70" t="s">
         <v>33</v>
@@ -4776,16 +4915,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>156</v>
+        <v>322</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="D71" t="s">
         <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -4817,10 +4956,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>394</v>
+        <v>324</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>377</v>
       </c>
       <c r="D72" t="s">
         <v>33</v>
@@ -4858,10 +4997,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>160</v>
+        <v>325</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>44</v>
@@ -4898,11 +5037,11 @@
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>161</v>
+      <c r="B74" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>44</v>
@@ -4940,10 +5079,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>162</v>
+        <v>326</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>44</v>
@@ -4981,10 +5120,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>33</v>
@@ -5022,16 +5161,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>346</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>172</v>
+        <v>329</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="D77" t="s">
         <v>44</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -5040,16 +5179,16 @@
         <v>37</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I77" t="s">
         <v>174</v>
-      </c>
-      <c r="I77" t="s">
-        <v>175</v>
       </c>
       <c r="J77" t="s">
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="L77" t="s">
         <v>10</v>
@@ -5063,10 +5202,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>347</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>182</v>
+        <v>330</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
@@ -5091,11 +5230,11 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>171</v>
+      <c r="B79" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -5132,28 +5271,28 @@
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G80" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="18" t="s">
+      <c r="G80" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I80" s="18" t="s">
+      <c r="I80" s="17" t="s">
         <v>10</v>
       </c>
       <c r="J80" t="s">
@@ -5173,11 +5312,11 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>151</v>
+      <c r="B81" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -5197,16 +5336,16 @@
       <c r="I81" t="s">
         <v>41</v>
       </c>
-      <c r="J81" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" s="18" t="s">
+      <c r="J81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5214,11 +5353,11 @@
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>148</v>
+      <c r="B82" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
@@ -5255,17 +5394,17 @@
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="18" t="s">
         <v>142</v>
       </c>
       <c r="D83" t="s">
         <v>33</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>143</v>
+      <c r="E83" s="14" t="s">
+        <v>393</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -5296,11 +5435,11 @@
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>165</v>
+      <c r="B84" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>33</v>
@@ -5337,10 +5476,10 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="C85" s="19" t="s">
+      <c r="B85" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D85" t="s">
@@ -5378,17 +5517,17 @@
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="D86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
-        <v>147</v>
       </c>
       <c r="F86" t="s">
         <v>37</v>
@@ -5416,129 +5555,129 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C87" s="20" t="s">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H87" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M87" s="13" t="s">
+      <c r="I87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M87" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C88" s="20" t="s">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="F88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E88" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M88" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="20" t="s">
+      <c r="E89" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E89" s="13" t="s">
+      <c r="F89" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="13" t="s">
+      <c r="I89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7" t="s">
-        <v>348</v>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>44</v>
@@ -5572,12 +5711,12 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>93</v>
@@ -5613,10 +5752,10 @@
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>93</v>
@@ -5652,10 +5791,10 @@
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>189</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>93</v>
@@ -5691,10 +5830,10 @@
     <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>190</v>
+        <v>332</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>93</v>
@@ -5727,13 +5866,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>191</v>
+        <v>333</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>93</v>
@@ -5769,10 +5908,10 @@
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>192</v>
+        <v>334</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>93</v>
@@ -5808,10 +5947,10 @@
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>93</v>
@@ -5844,13 +5983,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>93</v>
@@ -5883,13 +6022,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>414</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>93</v>
@@ -5925,10 +6064,10 @@
     <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>93</v>
@@ -5964,10 +6103,10 @@
     <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>93</v>
@@ -6000,13 +6139,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>93</v>
@@ -6039,13 +6178,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>204</v>
+        <v>335</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>93</v>
@@ -6081,10 +6220,10 @@
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>205</v>
+        <v>336</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>93</v>
@@ -6117,13 +6256,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>206</v>
+        <v>337</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>93</v>
@@ -6159,10 +6298,10 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>207</v>
+        <v>338</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>93</v>
@@ -6198,10 +6337,10 @@
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>208</v>
+        <v>339</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>93</v>
@@ -6237,10 +6376,10 @@
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>209</v>
+        <v>340</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>93</v>
@@ -6276,10 +6415,10 @@
     <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>93</v>
@@ -6315,16 +6454,16 @@
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>212</v>
+        <v>341</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>10</v>
@@ -6351,19 +6490,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>214</v>
+        <v>256</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>10</v>
@@ -6390,13 +6529,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>215</v>
+        <v>342</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>93</v>
@@ -6432,10 +6571,10 @@
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>216</v>
+        <v>343</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>93</v>
@@ -6471,10 +6610,10 @@
     <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>217</v>
+        <v>344</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>93</v>
@@ -6507,13 +6646,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>219</v>
+        <v>208</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>93</v>
@@ -6549,16 +6688,16 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>220</v>
+        <v>257</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>10</v>
@@ -6585,13 +6724,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>222</v>
+        <v>345</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>93</v>
@@ -6624,13 +6763,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>224</v>
+        <v>211</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>93</v>
@@ -6663,13 +6802,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
-      <c r="B119" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>226</v>
+      <c r="B119" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>93</v>
@@ -6702,13 +6841,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>228</v>
+        <v>213</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>93</v>
@@ -6741,19 +6880,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>229</v>
+        <v>346</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>10</v>
@@ -6782,11 +6921,11 @@
     </row>
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>232</v>
+      <c r="B122" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>93</v>
@@ -6819,13 +6958,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>272</v>
+        <v>347</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>93</v>
@@ -6858,496 +6997,440 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>234</v>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M124" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M125" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M126" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M127" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M128" s="14" t="s">
-        <v>242</v>
+      <c r="A125" s="17"/>
+      <c r="B125" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="17"/>
+      <c r="B127" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="17"/>
+      <c r="B128" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M129" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M130" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M131" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M132" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M133" s="14" t="s">
-        <v>262</v>
+      <c r="A129" s="17"/>
+      <c r="B129" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="17"/>
+      <c r="B130" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M130" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="17"/>
+      <c r="B131" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M131" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="17"/>
+      <c r="B132" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M132" s="7"/>
+    </row>
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M133" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="14"/>
-    </row>
-    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M135" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M136" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M134" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>10</v>
@@ -7376,386 +7459,1178 @@
       <c r="L137" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M137" s="14" t="s">
-        <v>269</v>
+      <c r="M137" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C138" s="16" t="s">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M138" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M139" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M140" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M141" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M142" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M143" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M144" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M145" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M146" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="13"/>
+    </row>
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M148" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M149" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M150" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="4" t="s">
+      <c r="E151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H138" s="4" t="s">
+      <c r="G151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M138" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M140" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M141" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3" t="s">
+      <c r="I151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M151" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M152" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M142" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M143" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3" t="s">
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M153" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M144" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M145" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M146" s="10" t="s">
-        <v>284</v>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M165" s="26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M166" s="26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M167" s="26" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M140" r:id="rId1" xr:uid="{D2D467EF-B901-4B6B-8501-A5CD696B7558}"/>
-    <hyperlink ref="M141" r:id="rId2" xr:uid="{460347F1-A541-49D9-B7A7-F25E37B57ED2}"/>
-    <hyperlink ref="M132" r:id="rId3" xr:uid="{F89CF80E-8390-4DAC-8CAE-2778521C9332}"/>
-    <hyperlink ref="M126" r:id="rId4" xr:uid="{CA5983CE-2F6A-4F12-A886-76227DD0C633}"/>
-    <hyperlink ref="M127" r:id="rId5" xr:uid="{71F78C12-804D-4AA9-82AD-78FA2B74419C}"/>
-    <hyperlink ref="M128" r:id="rId6" xr:uid="{865E0CF5-A208-4DBE-910E-4999D4832A9B}"/>
-    <hyperlink ref="M129" r:id="rId7" xr:uid="{339597D6-B5F0-4317-8A0C-6C4D93B712B5}"/>
-    <hyperlink ref="M125" r:id="rId8" xr:uid="{B58BEDD7-A5FD-4150-9A94-E688A920800B}"/>
-    <hyperlink ref="M131" r:id="rId9" xr:uid="{D3C2991C-FAEA-418D-A44F-B30890F7DA86}"/>
-    <hyperlink ref="M130" r:id="rId10" xr:uid="{CF5A6F1C-E785-4118-855C-7453D1B92E7C}"/>
-    <hyperlink ref="M133" r:id="rId11" xr:uid="{A7B26CDB-A18D-449F-A525-E34DF5451AE1}"/>
-    <hyperlink ref="M135" r:id="rId12" xr:uid="{36F24791-5467-4588-9034-951D4B048C26}"/>
-    <hyperlink ref="M136" r:id="rId13" xr:uid="{790E6643-2D28-42CE-86E2-C9070A125A5B}"/>
-    <hyperlink ref="M137" r:id="rId14" xr:uid="{7E07AA73-8379-4209-B082-8A5FAB13813C}"/>
-    <hyperlink ref="M142" r:id="rId15" xr:uid="{FBFD9AAB-CFDF-4D8E-B630-AE90D8797FE2}"/>
-    <hyperlink ref="M143" r:id="rId16" xr:uid="{91A9E7C8-492A-43F4-9352-5C62C771FDEF}"/>
-    <hyperlink ref="M144" r:id="rId17" xr:uid="{96907453-A408-434A-AE6B-E2ADAFF0B3BB}"/>
-    <hyperlink ref="M145" r:id="rId18" xr:uid="{F06DBA6F-83D3-4C4D-B249-66F5112EE7C5}"/>
-    <hyperlink ref="M146" r:id="rId19" xr:uid="{3587A885-922B-4ECA-97B1-15A91A1FE589}"/>
+    <hyperlink ref="M145" r:id="rId1" xr:uid="{F89CF80E-8390-4DAC-8CAE-2778521C9332}"/>
+    <hyperlink ref="M139" r:id="rId2" xr:uid="{CA5983CE-2F6A-4F12-A886-76227DD0C633}"/>
+    <hyperlink ref="M140" r:id="rId3" xr:uid="{71F78C12-804D-4AA9-82AD-78FA2B74419C}"/>
+    <hyperlink ref="M141" r:id="rId4" xr:uid="{865E0CF5-A208-4DBE-910E-4999D4832A9B}"/>
+    <hyperlink ref="M142" r:id="rId5" xr:uid="{339597D6-B5F0-4317-8A0C-6C4D93B712B5}"/>
+    <hyperlink ref="M138" r:id="rId6" xr:uid="{B58BEDD7-A5FD-4150-9A94-E688A920800B}"/>
+    <hyperlink ref="M144" r:id="rId7" xr:uid="{D3C2991C-FAEA-418D-A44F-B30890F7DA86}"/>
+    <hyperlink ref="M143" r:id="rId8" xr:uid="{CF5A6F1C-E785-4118-855C-7453D1B92E7C}"/>
+    <hyperlink ref="M146" r:id="rId9" xr:uid="{A7B26CDB-A18D-449F-A525-E34DF5451AE1}"/>
+    <hyperlink ref="M148" r:id="rId10" xr:uid="{36F24791-5467-4588-9034-951D4B048C26}"/>
+    <hyperlink ref="M149" r:id="rId11" xr:uid="{790E6643-2D28-42CE-86E2-C9070A125A5B}"/>
+    <hyperlink ref="M150" r:id="rId12" xr:uid="{7E07AA73-8379-4209-B082-8A5FAB13813C}"/>
+    <hyperlink ref="M131" r:id="rId13" xr:uid="{0F066C8A-DA8A-464D-B096-92FA25E87C3F}"/>
+    <hyperlink ref="M166" r:id="rId14" xr:uid="{DF4D5677-5C6E-468B-88E0-4C015FC0E74C}"/>
+    <hyperlink ref="M165" r:id="rId15" xr:uid="{92B1E3FD-2CA5-44A0-8520-D0AE19D7AD52}"/>
+    <hyperlink ref="M167" r:id="rId16" xr:uid="{124EBB59-67A2-40D8-B85B-E2778C16C8B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\sciebo\Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00777F8-26F3-470F-9D2E-2E5CEF0B0211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B5AEFB-0173-4D50-B947-FA4D0F22D2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="498">
   <si>
     <t>Number</t>
   </si>
@@ -969,21 +969,6 @@
     <t>shinyMobile</t>
   </si>
   <si>
-    <t>https://github.com/schloerke/presentation-2022-04-27-appsilon-shinytest2</t>
-  </si>
-  <si>
-    <t>{shinytest2}: Regression Testing for Shiny Applications</t>
-  </si>
-  <si>
-    <t>http://schloerke.com/presentation-2022-04-27-appsilon-shinytest2/</t>
-  </si>
-  <si>
-    <t>https://appsilonconf2022.rinterface.com/?panelset3=package-your-app2&amp;panelset4=what2&amp;panelset5=purpose2</t>
-  </si>
-  <si>
-    <t>{shinyValidator}: toward a new audit process for Shiny apps quality through CI/CD</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -1264,12 +1249,6 @@
   </si>
   <si>
     <t>(Granjon, Perrier &amp; Rudolf, 2022)</t>
-  </si>
-  <si>
-    <t>(Schloerke, 2022)</t>
-  </si>
-  <si>
-    <t>(Granjon, 2022)</t>
   </si>
   <si>
     <t>(Farooq et al., 2019)</t>
@@ -1341,9 +1320,6 @@
     <t>Turn your data into qualitative insights, faster and easier.</t>
   </si>
   <si>
-    <t>(ATLAS.ti,2022)</t>
-  </si>
-  <si>
     <t>https://www.nvivo.de/</t>
   </si>
   <si>
@@ -1354,9 +1330,6 @@
   </si>
   <si>
     <t>NVivo - Qualitative Datenanalyse leicht gemacht!</t>
-  </si>
-  <si>
-    <t>(Alfasoft, 2021)</t>
   </si>
   <si>
     <t>Nvivo. Qualitative Datenanalyse leicht gemacht</t>
@@ -1499,25 +1472,218 @@
     <t>(Bailey et al.,2000)</t>
   </si>
   <si>
-    <t>(Stackoverflow,2017)</t>
-  </si>
-  <si>
     <t>https://rstudio.github.io/shinydashboard/appearance.html</t>
   </si>
   <si>
     <t>shinydashboard</t>
   </si>
   <si>
-    <t>(Rstudio,2014)</t>
-  </si>
-  <si>
     <t>R shinyDashboard customize box status color</t>
   </si>
   <si>
     <t>https://stackoverflow.com/questions/36080529/r-shinydashboard-customize-box-status-color</t>
   </si>
   <si>
-    <t>(Rstudio,2020)</t>
+    <t>(ATLAS.ti, 2022)</t>
+  </si>
+  <si>
+    <t>(Alfasoft,  2021)</t>
+  </si>
+  <si>
+    <t>(Stackoverflow, 2017)</t>
+  </si>
+  <si>
+    <t>(Rstudio, 2014)</t>
+  </si>
+  <si>
+    <t>(Atkins et al., 2022)</t>
+  </si>
+  <si>
+    <t>Package ‘rsconnect’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/rsconnect/rsconnect.pdf</t>
+  </si>
+  <si>
+    <t>(Wickham et al., 2022) A</t>
+  </si>
+  <si>
+    <t>Package ‘dplyr’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/dplyr/dplyr.pdf</t>
+  </si>
+  <si>
+    <t>(Wickham, 2022)</t>
+  </si>
+  <si>
+    <t>Package ‘plyr’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/plyr/plyr.pdf</t>
+  </si>
+  <si>
+    <t>(Wickham et al., 2022) B</t>
+  </si>
+  <si>
+    <t>Package ‘ggplot2’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/ggplot2/ggplot2.pdf</t>
+  </si>
+  <si>
+    <t>(Iannone, 2022)</t>
+  </si>
+  <si>
+    <t>Package ‘DiagrammeR’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/DiagrammeR/DiagrammeR.pdf</t>
+  </si>
+  <si>
+    <t>(Wickham et al., 2022) C</t>
+  </si>
+  <si>
+    <t>Package ‘readr’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/readr/readr.pdf</t>
+  </si>
+  <si>
+    <t>(Chang et al., 2021)</t>
+  </si>
+  <si>
+    <t>Package ‘shinydashboard’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/shinydashboard/shinydashboard.pdf</t>
+  </si>
+  <si>
+    <t>(Rstudio, 2022)</t>
+  </si>
+  <si>
+    <t>Download Rstudio</t>
+  </si>
+  <si>
+    <t>https://www.rstudio.com/products/rstudio/download/</t>
+  </si>
+  <si>
+    <t>(Grolemund, 2017)</t>
+  </si>
+  <si>
+    <t>Shiny HTML Tags Glossary</t>
+  </si>
+  <si>
+    <t>https://shiny.rstudio.com/articles/tag-glossary.html</t>
+  </si>
+  <si>
+    <t>(Wickham et al., 2022) D</t>
+  </si>
+  <si>
+    <t>Package ‘readxl’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/readxl/readxl.pdf</t>
+  </si>
+  <si>
+    <t>(Dowle et al., 2021)</t>
+  </si>
+  <si>
+    <t>Package ‘data.table’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/data.table/data.table.pdf</t>
+  </si>
+  <si>
+    <t>(Ren &amp; Russell, 2021)</t>
+  </si>
+  <si>
+    <t>Package ‘formattable’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/formattable/formattable.pdf</t>
+  </si>
+  <si>
+    <t>(Wickham et al., 2022) E</t>
+  </si>
+  <si>
+    <t>Package ‘tidyr’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/tidyr/tidyr.pdf</t>
+  </si>
+  <si>
+    <t>(Warnes et al., 2017)</t>
+  </si>
+  <si>
+    <t>Package ‘gdata’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/gdata/gdata.pdf</t>
+  </si>
+  <si>
+    <t>( Huang, 2022)</t>
+  </si>
+  <si>
+    <t>Package ‘tidyfst’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/tidyfst/tidyfst.pdf</t>
+  </si>
+  <si>
+    <t>(Csárdi et al., 2021)</t>
+  </si>
+  <si>
+    <t>Package ‘remotes’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/remotes/remotes.pdf</t>
+  </si>
+  <si>
+    <t>(Neuwirth,2022)</t>
+  </si>
+  <si>
+    <t>Package ‘RColorBrewer’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/RColorBrewer/RColorBrewer.pdf</t>
+  </si>
+  <si>
+    <t>(Coene,2022)</t>
+  </si>
+  <si>
+    <t>Package ‘echarts4r’</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/echarts4r/echarts4r.pdf</t>
+  </si>
+  <si>
+    <t>(Coene,2021)</t>
+  </si>
+  <si>
+    <t>echarts4r.maps</t>
+  </si>
+  <si>
+    <t>https://github.com/JohnCoene/echarts4r.maps</t>
+  </si>
+  <si>
+    <t>WAI</t>
+  </si>
+  <si>
+    <t>The Work Ability Index (WAI)—establishment
+of a German WAI-network</t>
+  </si>
+  <si>
+    <t>(Hasselhorn et al.,2005)</t>
+  </si>
+  <si>
+    <t>https://www.wainetzwerk.de/de/der-work-ability-index-(wai)-690.html</t>
+  </si>
+  <si>
+    <t>Was ist der Work Ability Index (WAI)?</t>
+  </si>
+  <si>
+    <t>(Institut für Arbeitsfähigkeit GmbH, 2022)</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1851,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2025,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2252,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2127,7 +2293,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>13</v>
@@ -2168,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>16</v>
@@ -2373,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -2496,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
@@ -2537,7 +2703,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>50</v>
@@ -2578,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
@@ -2745,7 +2911,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2783,7 +2949,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>179</v>
@@ -2906,7 +3072,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>66</v>
@@ -2988,7 +3154,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>69</v>
@@ -3070,7 +3236,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>73</v>
@@ -3079,7 +3245,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -3120,7 +3286,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -3152,7 +3318,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>77</v>
@@ -3193,7 +3359,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>80</v>
@@ -3275,7 +3441,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>143</v>
@@ -3316,7 +3482,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>87</v>
@@ -3357,7 +3523,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>89</v>
@@ -3398,7 +3564,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>90</v>
@@ -3480,16 +3646,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -3521,7 +3687,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>94</v>
@@ -3562,7 +3728,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>136</v>
@@ -3603,7 +3769,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>96</v>
@@ -3644,7 +3810,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>97</v>
@@ -3685,7 +3851,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>99</v>
@@ -3726,7 +3892,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>101</v>
@@ -3767,7 +3933,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>102</v>
@@ -3808,10 +3974,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -3849,7 +4015,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>105</v>
@@ -3890,10 +4056,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
@@ -3931,7 +4097,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>148</v>
@@ -3972,7 +4138,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>108</v>
@@ -4013,7 +4179,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>110</v>
@@ -4054,10 +4220,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>14</v>
@@ -4095,7 +4261,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>112</v>
@@ -4177,7 +4343,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>117</v>
@@ -4218,7 +4384,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>118</v>
@@ -4259,7 +4425,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>119</v>
@@ -4300,7 +4466,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>21</v>
@@ -4341,7 +4507,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>121</v>
@@ -4382,7 +4548,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>123</v>
@@ -4423,7 +4589,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>124</v>
@@ -4464,7 +4630,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>126</v>
@@ -4546,7 +4712,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>129</v>
@@ -4587,7 +4753,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>130</v>
@@ -4628,7 +4794,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>131</v>
@@ -4669,7 +4835,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>137</v>
@@ -4710,7 +4876,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>139</v>
@@ -4751,7 +4917,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>151</v>
@@ -4792,7 +4958,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>152</v>
@@ -4833,7 +4999,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>153</v>
@@ -4874,7 +5040,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>154</v>
@@ -4915,7 +5081,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>155</v>
@@ -4956,10 +5122,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D72" t="s">
         <v>33</v>
@@ -4997,7 +5163,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>159</v>
@@ -5038,7 +5204,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>160</v>
@@ -5079,7 +5245,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>161</v>
@@ -5161,7 +5327,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>171</v>
@@ -5188,7 +5354,7 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L77" t="s">
         <v>10</v>
@@ -5202,7 +5368,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>181</v>
@@ -5231,7 +5397,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>170</v>
@@ -5272,7 +5438,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>133</v>
@@ -5313,7 +5479,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>150</v>
@@ -5354,7 +5520,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>147</v>
@@ -5404,7 +5570,7 @@
         <v>33</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -5436,7 +5602,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>164</v>
@@ -5477,7 +5643,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>134</v>
@@ -5557,7 +5723,7 @@
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>157</v>
@@ -5596,7 +5762,7 @@
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>165</v>
@@ -5674,7 +5840,7 @@
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>182</v>
@@ -5830,7 +5996,7 @@
     <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>189</v>
@@ -5869,10 +6035,10 @@
     <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>93</v>
@@ -5908,7 +6074,7 @@
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>190</v>
@@ -5989,7 +6155,7 @@
         <v>193</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>93</v>
@@ -6028,7 +6194,7 @@
         <v>194</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>93</v>
@@ -6145,7 +6311,7 @@
         <v>198</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>93</v>
@@ -6181,10 +6347,10 @@
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>93</v>
@@ -6220,7 +6386,7 @@
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>199</v>
@@ -6259,10 +6425,10 @@
     <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>93</v>
@@ -6298,7 +6464,7 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>200</v>
@@ -6337,7 +6503,7 @@
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>201</v>
@@ -6376,7 +6542,7 @@
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>202</v>
@@ -6454,7 +6620,7 @@
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>205</v>
@@ -6496,7 +6662,7 @@
         <v>256</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>93</v>
@@ -6532,10 +6698,10 @@
     <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>93</v>
@@ -6571,7 +6737,7 @@
     <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>207</v>
@@ -6610,10 +6776,10 @@
     <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>93</v>
@@ -6652,7 +6818,7 @@
         <v>208</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>93</v>
@@ -6727,10 +6893,10 @@
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>93</v>
@@ -6769,7 +6935,7 @@
         <v>211</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>93</v>
@@ -6808,7 +6974,7 @@
         <v>212</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>93</v>
@@ -6847,7 +7013,7 @@
         <v>213</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>93</v>
@@ -6883,10 +7049,10 @@
     <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>93</v>
@@ -6961,7 +7127,7 @@
     <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>201</v>
@@ -7000,10 +7166,10 @@
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>93</v>
@@ -7033,16 +7199,16 @@
         <v>10</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>93</v>
@@ -7072,18 +7238,18 @@
         <v>10</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>93</v>
@@ -7119,10 +7285,10 @@
     <row r="127" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>93</v>
@@ -7158,10 +7324,10 @@
     <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="18" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>93</v>
@@ -7197,10 +7363,10 @@
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>93</v>
@@ -7236,10 +7402,10 @@
     <row r="130" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>93</v>
@@ -7275,10 +7441,10 @@
     <row r="131" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>93</v>
@@ -7308,16 +7474,16 @@
         <v>10</v>
       </c>
       <c r="M131" s="23" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>93</v>
@@ -7350,10 +7516,10 @@
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="17" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>93</v>
@@ -7388,10 +7554,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B134" s="17" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>93</v>
@@ -7421,13 +7587,86 @@
         <v>10</v>
       </c>
       <c r="M134" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J135" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K135" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M135" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J136" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K136" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L136" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>217</v>
@@ -7466,7 +7705,7 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>219</v>
@@ -7505,7 +7744,7 @@
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>221</v>
@@ -7544,7 +7783,7 @@
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>223</v>
@@ -7583,7 +7822,7 @@
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C141" s="25" t="s">
         <v>225</v>
@@ -7661,7 +7900,7 @@
     <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>230</v>
@@ -7700,7 +7939,7 @@
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>255</v>
@@ -7739,7 +7978,7 @@
     <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>233</v>
@@ -7832,7 +8071,7 @@
     <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>250</v>
@@ -7871,7 +8110,7 @@
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>252</v>
@@ -7910,7 +8149,7 @@
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>254</v>
@@ -7949,7 +8188,7 @@
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>47</v>
@@ -7988,10 +8227,10 @@
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>10</v>
@@ -8021,16 +8260,16 @@
         <v>10</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>10</v>
@@ -8060,94 +8299,16 @@
         <v>10</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M154" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M155" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>239</v>
+        <v>431</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>10</v>
@@ -8177,16 +8338,16 @@
         <v>10</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>240</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>261</v>
+        <v>380</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>10</v>
@@ -8216,16 +8377,16 @@
         <v>10</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>10</v>
@@ -8255,16 +8416,16 @@
         <v>10</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>265</v>
+        <v>429</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>10</v>
@@ -8294,16 +8455,16 @@
         <v>10</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>264</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>265</v>
+        <v>428</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>10</v>
@@ -8333,16 +8494,16 @@
         <v>10</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>266</v>
+        <v>427</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>364</v>
+        <v>435</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>10</v>
@@ -8372,16 +8533,16 @@
         <v>10</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>267</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>10</v>
@@ -8411,16 +8572,16 @@
         <v>10</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>392</v>
+        <v>441</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>10</v>
@@ -8450,16 +8611,16 @@
         <v>10</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>10</v>
@@ -8489,16 +8650,16 @@
         <v>10</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>10</v>
@@ -8527,17 +8688,17 @@
       <c r="L165" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M165" s="26" t="s">
-        <v>441</v>
+      <c r="M165" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>10</v>
@@ -8566,47 +8727,710 @@
       <c r="L166" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M166" s="26" t="s">
-        <v>437</v>
+      <c r="M166" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C167" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M167" s="26" t="s">
+      <c r="D184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M184" s="3" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8625,12 +9449,9 @@
     <hyperlink ref="M149" r:id="rId11" xr:uid="{790E6643-2D28-42CE-86E2-C9070A125A5B}"/>
     <hyperlink ref="M150" r:id="rId12" xr:uid="{7E07AA73-8379-4209-B082-8A5FAB13813C}"/>
     <hyperlink ref="M131" r:id="rId13" xr:uid="{0F066C8A-DA8A-464D-B096-92FA25E87C3F}"/>
-    <hyperlink ref="M166" r:id="rId14" xr:uid="{DF4D5677-5C6E-468B-88E0-4C015FC0E74C}"/>
-    <hyperlink ref="M165" r:id="rId15" xr:uid="{92B1E3FD-2CA5-44A0-8520-D0AE19D7AD52}"/>
-    <hyperlink ref="M167" r:id="rId16" xr:uid="{124EBB59-67A2-40D8-B85B-E2778C16C8B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\sciebo\Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DE390-54E9-4396-84DD-7C09DC50417B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D5C607-30FC-4192-A370-9FCD0800B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -2672,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B84" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3286B0C5-9C5A-4615-96EC-7CEA15BFF0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F33F631-4A99-4590-9EED-BAE647B18AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <author>tc={D35C317A-BA1B-45C9-9326-38966E7E225D}</author>
     <author>tc={410BCB7A-71F3-49B1-B140-1E840B4C93D0}</author>
     <author>tc={40D33C0C-EE74-4A73-BE01-E63A03D78D55}</author>
+    <author>tc={499F4F8C-DE7B-4855-B4B3-A7C7DBB76D22}</author>
     <author>tc={1071531B-F28F-4E07-BA78-B80D6C543B06}</author>
     <author>tc={67AA15A0-67DB-46F9-823E-8EF7704373AE}</author>
     <author>tc={99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}</author>
@@ -61,6 +62,9 @@
     <author>tc={4C76FAFB-1F0D-4C24-8E40-699B656AA08F}</author>
     <author>tc={C660464E-6D09-4094-B196-B64C4A7F4CE1}</author>
     <author>tc={B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}</author>
+    <author>tc={B3EA636F-2371-43A2-BF73-6AC41D603AC9}</author>
+    <author>tc={66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}</author>
+    <author>tc={CA22E2B6-64B4-4D38-A995-A4C551676D21}</author>
   </authors>
   <commentList>
     <comment ref="H39" authorId="0" shapeId="0" xr:uid="{78E0ECA9-0C81-43A7-BDDB-3D4715DBFF31}">
@@ -179,7 +183,7 @@
     literature review</t>
       </text>
     </comment>
-    <comment ref="H101" authorId="14" shapeId="0" xr:uid="{40D33C0C-EE74-4A73-BE01-E63A03D78D55}">
+    <comment ref="H102" authorId="14" shapeId="0" xr:uid="{40D33C0C-EE74-4A73-BE01-E63A03D78D55}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -187,7 +191,15 @@
     Zimbabwe</t>
       </text>
     </comment>
-    <comment ref="D105" authorId="15" shapeId="0" xr:uid="{1071531B-F28F-4E07-BA78-B80D6C543B06}">
+    <comment ref="H103" authorId="15" shapeId="0" xr:uid="{499F4F8C-DE7B-4855-B4B3-A7C7DBB76D22}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    focua on US, but also "elewhere"</t>
+      </text>
+    </comment>
+    <comment ref="D104" authorId="16" shapeId="0" xr:uid="{1071531B-F28F-4E07-BA78-B80D6C543B06}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -195,7 +207,7 @@
     Mixed</t>
       </text>
     </comment>
-    <comment ref="H105" authorId="16" shapeId="0" xr:uid="{67AA15A0-67DB-46F9-823E-8EF7704373AE}">
+    <comment ref="H104" authorId="17" shapeId="0" xr:uid="{67AA15A0-67DB-46F9-823E-8EF7704373AE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -203,7 +215,7 @@
     Vietnam</t>
       </text>
     </comment>
-    <comment ref="D207" authorId="17" shapeId="0" xr:uid="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
+    <comment ref="D206" authorId="18" shapeId="0" xr:uid="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -211,7 +223,7 @@
     Qualitative</t>
       </text>
     </comment>
-    <comment ref="E207" authorId="18" shapeId="0" xr:uid="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
+    <comment ref="E206" authorId="19" shapeId="0" xr:uid="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -219,7 +231,7 @@
     Literature</t>
       </text>
     </comment>
-    <comment ref="H207" authorId="19" shapeId="0" xr:uid="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
+    <comment ref="H206" authorId="20" shapeId="0" xr:uid="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -227,7 +239,7 @@
     General</t>
       </text>
     </comment>
-    <comment ref="D208" authorId="20" shapeId="0" xr:uid="{483C1267-1841-42AA-90F3-4EABDC538A91}">
+    <comment ref="D207" authorId="21" shapeId="0" xr:uid="{483C1267-1841-42AA-90F3-4EABDC538A91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -235,7 +247,7 @@
     Quantitative</t>
       </text>
     </comment>
-    <comment ref="E208" authorId="21" shapeId="0" xr:uid="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
+    <comment ref="E207" authorId="22" shapeId="0" xr:uid="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -243,7 +255,7 @@
     Experimental</t>
       </text>
     </comment>
-    <comment ref="F208" authorId="22" shapeId="0" xr:uid="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
+    <comment ref="F207" authorId="23" shapeId="0" xr:uid="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -252,7 +264,7 @@
 questionnaire (SIPPQ)</t>
       </text>
     </comment>
-    <comment ref="H208" authorId="23" shapeId="0" xr:uid="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
+    <comment ref="H207" authorId="24" shapeId="0" xr:uid="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -260,12 +272,36 @@
     Ghana</t>
       </text>
     </comment>
+    <comment ref="D212" authorId="25" shapeId="0" xr:uid="{B3EA636F-2371-43A2-BF73-6AC41D603AC9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    qualitative</t>
+      </text>
+    </comment>
+    <comment ref="E212" authorId="26" shapeId="0" xr:uid="{66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    incl. grounded theory</t>
+      </text>
+    </comment>
+    <comment ref="H212" authorId="27" shapeId="0" xr:uid="{CA22E2B6-64B4-4D38-A995-A4C551676D21}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    new england</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="581">
   <si>
     <t>Number</t>
   </si>
@@ -786,9 +822,6 @@
     <t>Long Working Hours and Health</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>What does it Mean to Make a ‘Joint’ Decision? Unpacking Intra-household
 Decision Making in Agriculture: Implications for Policy and Practice</t>
   </si>
@@ -819,9 +852,6 @@
 to Sustainable Agriculture</t>
   </si>
   <si>
-    <t>New England</t>
-  </si>
-  <si>
     <t>(Pyburn &amp; van Eerdewijk, 2021)</t>
   </si>
   <si>
@@ -855,9 +885,6 @@
     <t>Policy impact analysis</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>A gendered ecosystem services approach to identify novel and locally-relevant strategies for jointly improving food security, nutrition, and conservation in the Barotse Floodplain</t>
   </si>
   <si>
@@ -1680,9 +1707,6 @@
     <t>Decision Analysis literature</t>
   </si>
   <si>
-    <t>developed world literature</t>
-  </si>
-  <si>
     <t>Methodological workforce literature</t>
   </si>
   <si>
@@ -1693,9 +1717,6 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/d41586-021-03434-1</t>
-  </si>
-  <si>
-    <t>Including grounded theory</t>
   </si>
   <si>
     <t>(Council of Europe,2022)</t>
@@ -2154,7 +2175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2195,6 +2216,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2699,36 +2726,48 @@
   <threadedComment ref="D98" dT="2022-06-28T10:58:31.14" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{410BCB7A-71F3-49B1-B140-1E840B4C93D0}">
     <text>literature review</text>
   </threadedComment>
-  <threadedComment ref="H101" dT="2022-06-27T11:17:03.62" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{40D33C0C-EE74-4A73-BE01-E63A03D78D55}">
+  <threadedComment ref="H102" dT="2022-06-27T11:17:03.62" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{40D33C0C-EE74-4A73-BE01-E63A03D78D55}">
     <text>Zimbabwe</text>
   </threadedComment>
-  <threadedComment ref="D105" dT="2022-06-21T13:37:03.77" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{1071531B-F28F-4E07-BA78-B80D6C543B06}">
+  <threadedComment ref="H103" dT="2022-08-22T16:55:03.03" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{499F4F8C-DE7B-4855-B4B3-A7C7DBB76D22}">
+    <text>focua on US, but also "elewhere"</text>
+  </threadedComment>
+  <threadedComment ref="D104" dT="2022-06-21T13:37:03.77" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{1071531B-F28F-4E07-BA78-B80D6C543B06}">
     <text>Mixed</text>
   </threadedComment>
-  <threadedComment ref="H105" dT="2022-06-21T13:37:12.22" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{67AA15A0-67DB-46F9-823E-8EF7704373AE}">
+  <threadedComment ref="H104" dT="2022-06-21T13:37:12.22" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{67AA15A0-67DB-46F9-823E-8EF7704373AE}">
     <text>Vietnam</text>
   </threadedComment>
-  <threadedComment ref="D207" dT="2022-06-27T09:19:47.66" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
+  <threadedComment ref="D206" dT="2022-06-27T09:19:47.66" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
     <text>Qualitative</text>
   </threadedComment>
-  <threadedComment ref="E207" dT="2022-06-27T09:20:29.50" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
+  <threadedComment ref="E206" dT="2022-06-27T09:20:29.50" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
     <text>Literature</text>
   </threadedComment>
-  <threadedComment ref="H207" dT="2022-06-27T09:21:05.85" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
+  <threadedComment ref="H206" dT="2022-06-27T09:21:05.85" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
     <text>General</text>
   </threadedComment>
-  <threadedComment ref="D208" dT="2022-06-27T09:20:13.07" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{483C1267-1841-42AA-90F3-4EABDC538A91}">
+  <threadedComment ref="D207" dT="2022-06-27T09:20:13.07" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{483C1267-1841-42AA-90F3-4EABDC538A91}">
     <text>Quantitative</text>
   </threadedComment>
-  <threadedComment ref="E208" dT="2022-06-27T09:20:39.46" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
+  <threadedComment ref="E207" dT="2022-06-27T09:20:39.46" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
     <text>Experimental</text>
   </threadedComment>
-  <threadedComment ref="F208" dT="2022-06-27T09:20:50.87" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
+  <threadedComment ref="F207" dT="2022-06-27T09:20:50.87" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
     <text>“Stalking: International perceptions and prevalence”
 questionnaire (SIPPQ)</text>
   </threadedComment>
-  <threadedComment ref="H208" dT="2022-06-27T09:21:18.78" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
+  <threadedComment ref="H207" dT="2022-06-27T09:21:18.78" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
     <text>Ghana</text>
+  </threadedComment>
+  <threadedComment ref="D212" dT="2022-08-22T16:53:36.97" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{B3EA636F-2371-43A2-BF73-6AC41D603AC9}">
+    <text>qualitative</text>
+  </threadedComment>
+  <threadedComment ref="E212" dT="2022-08-22T16:53:46.90" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}">
+    <text>incl. grounded theory</text>
+  </threadedComment>
+  <threadedComment ref="H212" dT="2022-08-22T16:53:16.83" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{CA22E2B6-64B4-4D38-A995-A4C551676D21}">
+    <text>new england</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2737,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,10 +2801,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2777,10 +2816,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -2797,7 +2836,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2838,7 +2877,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>13</v>
@@ -2879,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
@@ -2920,13 +2959,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>34</v>
@@ -3084,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -3207,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>48</v>
@@ -3248,7 +3287,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>49</v>
@@ -3289,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>51</v>
@@ -3453,10 +3492,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -3494,16 +3533,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -3576,7 +3615,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>60</v>
@@ -3617,7 +3656,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>63</v>
@@ -3699,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>66</v>
@@ -3781,7 +3820,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>70</v>
@@ -3790,7 +3829,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -3831,7 +3870,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -3863,7 +3902,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>74</v>
@@ -3904,10 +3943,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
@@ -3986,7 +4025,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>136</v>
@@ -3995,7 +4034,7 @@
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -4027,7 +4066,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>83</v>
@@ -4068,10 +4107,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -4109,7 +4148,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>85</v>
@@ -4191,16 +4230,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -4232,7 +4271,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>89</v>
@@ -4273,7 +4312,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>129</v>
@@ -4314,7 +4353,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>91</v>
@@ -4355,7 +4394,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>92</v>
@@ -4396,7 +4435,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>94</v>
@@ -4437,7 +4476,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>96</v>
@@ -4478,7 +4517,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>97</v>
@@ -4519,10 +4558,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -4560,7 +4599,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>100</v>
@@ -4601,10 +4640,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
@@ -4642,7 +4681,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>141</v>
@@ -4683,7 +4722,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>103</v>
@@ -4724,7 +4763,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>105</v>
@@ -4765,10 +4804,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>14</v>
@@ -4806,7 +4845,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>107</v>
@@ -4888,7 +4927,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>112</v>
@@ -4897,7 +4936,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
@@ -4929,7 +4968,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>113</v>
@@ -4970,7 +5009,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>114</v>
@@ -5011,7 +5050,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>21</v>
@@ -5052,7 +5091,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>116</v>
@@ -5093,7 +5132,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>118</v>
@@ -5134,7 +5173,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>119</v>
@@ -5175,7 +5214,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>121</v>
@@ -5216,7 +5255,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>122</v>
@@ -5257,7 +5296,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>123</v>
@@ -5298,10 +5337,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>14</v>
@@ -5339,7 +5378,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>124</v>
@@ -5380,7 +5419,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>130</v>
@@ -5421,7 +5460,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>132</v>
@@ -5462,7 +5501,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>144</v>
@@ -5503,7 +5542,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>145</v>
@@ -5544,7 +5583,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>146</v>
@@ -5585,7 +5624,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>147</v>
@@ -5626,7 +5665,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>148</v>
@@ -5667,10 +5706,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D72" t="s">
         <v>33</v>
@@ -5708,10 +5747,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>44</v>
@@ -5749,10 +5788,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>44</v>
@@ -5790,10 +5829,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>44</v>
@@ -5831,10 +5870,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>33</v>
@@ -5872,16 +5911,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
         <v>44</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -5890,16 +5929,16 @@
         <v>37</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J77" t="s">
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L77" t="s">
         <v>10</v>
@@ -5913,10 +5952,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
@@ -5954,10 +5993,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -5995,7 +6034,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>126</v>
@@ -6036,7 +6075,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>143</v>
@@ -6077,7 +6116,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>140</v>
@@ -6127,7 +6166,7 @@
         <v>33</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -6159,10 +6198,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>33</v>
@@ -6200,7 +6239,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>127</v>
@@ -6282,16 +6321,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>11</v>
@@ -6323,16 +6362,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>11</v>
@@ -6364,16 +6403,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>11</v>
@@ -6405,16 +6444,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F90" s="17" t="s">
         <v>11</v>
@@ -6446,10 +6485,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>44</v>
@@ -6475,16 +6514,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>11</v>
@@ -6516,16 +6555,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>11</v>
@@ -6557,16 +6596,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>11</v>
@@ -6598,16 +6637,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F95" s="17" t="s">
         <v>11</v>
@@ -6639,16 +6678,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>11</v>
@@ -6680,16 +6719,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>11</v>
@@ -6721,16 +6760,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>11</v>
@@ -6762,16 +6801,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>11</v>
@@ -6803,16 +6842,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>11</v>
@@ -6839,69 +6878,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="12">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
         <v>100</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D101" s="12" t="s">
+      <c r="B101" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K101" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M101" s="12"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>436</v>
+      <c r="E101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>283</v>
+        <v>510</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>10</v>
+        <v>539</v>
       </c>
       <c r="F102" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>151</v>
+      <c r="H102" s="12" t="s">
+        <v>540</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>10</v>
@@ -6920,27 +6961,29 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="12">
+        <v>102</v>
+      </c>
       <c r="B103" s="12" t="s">
-        <v>311</v>
+        <v>507</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>441</v>
+        <v>166</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>159</v>
+      <c r="H103" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>10</v>
@@ -6958,69 +7001,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="12" t="s">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J104" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K104" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L104" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M104" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
-        <v>435</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
       <c r="B105" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H105" s="9" t="s">
-        <v>10</v>
+      <c r="H105" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>10</v>
@@ -7038,13 +7081,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="5" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>88</v>
@@ -7053,7 +7096,7 @@
         <v>10</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>10</v>
@@ -7077,13 +7120,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>88</v>
@@ -7119,10 +7162,10 @@
     <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="5" t="s">
-        <v>201</v>
+        <v>357</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>88</v>
@@ -7155,13 +7198,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>88</v>
@@ -7191,13 +7234,13 @@
         <v>10</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="5" t="s">
-        <v>362</v>
+        <v>498</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>361</v>
@@ -7229,17 +7272,15 @@
       <c r="L110" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M110" s="5"/>
+    </row>
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="5" t="s">
-        <v>503</v>
+        <v>364</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>88</v>
@@ -7268,15 +7309,17 @@
       <c r="L111" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M111" s="5"/>
-    </row>
-    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M111" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>88</v>
@@ -7309,13 +7352,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="5" t="s">
-        <v>369</v>
+        <v>575</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>368</v>
+        <v>576</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>88</v>
@@ -7348,13 +7391,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
+        <v>445</v>
+      </c>
       <c r="B114" s="5" t="s">
-        <v>580</v>
+        <v>331</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>581</v>
+        <v>330</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>88</v>
@@ -7384,18 +7429,16 @@
         <v>10</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>10</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
-        <v>450</v>
-      </c>
+      <c r="A115" s="19"/>
       <c r="B115" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" s="8" t="s">
         <v>333</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>88</v>
@@ -7425,15 +7468,17 @@
         <v>10</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>332</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
+      <c r="A116" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="B116" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C116" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>335</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -7464,18 +7509,16 @@
         <v>10</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
-        <v>339</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="19"/>
       <c r="B117" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>88</v>
@@ -7508,13 +7551,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
-      <c r="B118" s="5" t="s">
-        <v>547</v>
+      <c r="B118" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>88</v>
@@ -7547,10 +7590,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
-      <c r="B119" s="8" t="s">
-        <v>356</v>
+      <c r="B119" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>355</v>
@@ -7586,13 +7629,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="5" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>358</v>
+        <v>174</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>88</v>
@@ -7628,10 +7671,10 @@
     <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>88</v>
@@ -7667,10 +7710,10 @@
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="5" t="s">
-        <v>187</v>
+        <v>519</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>88</v>
@@ -7703,13 +7746,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="5" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>352</v>
+        <v>185</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>88</v>
@@ -7742,13 +7785,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="5" t="s">
-        <v>508</v>
+        <v>290</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>88</v>
@@ -7781,13 +7824,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="5" t="s">
-        <v>293</v>
+        <v>502</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>88</v>
@@ -7820,13 +7863,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
+    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="23" t="s">
+        <v>442</v>
+      </c>
       <c r="B126" s="5" t="s">
-        <v>507</v>
+        <v>175</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>88</v>
@@ -7860,14 +7905,12 @@
       </c>
     </row>
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="23" t="s">
-        <v>447</v>
-      </c>
+      <c r="A127" s="23"/>
       <c r="B127" s="5" t="s">
-        <v>178</v>
+        <v>456</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>179</v>
+        <v>455</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>88</v>
@@ -7903,10 +7946,10 @@
     <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="5" t="s">
-        <v>461</v>
+        <v>288</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>88</v>
@@ -7939,13 +7982,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>88</v>
@@ -7978,13 +8021,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="5" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>88</v>
@@ -8020,10 +8063,10 @@
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>88</v>
@@ -8056,13 +8099,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>186</v>
+        <v>527</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>88</v>
@@ -8092,16 +8135,16 @@
         <v>10</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>10</v>
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>88</v>
@@ -8131,16 +8174,16 @@
         <v>10</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>88</v>
@@ -8170,16 +8213,16 @@
         <v>10</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>537</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>88</v>
@@ -8215,10 +8258,10 @@
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>88</v>
@@ -8251,13 +8294,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="23"/>
+    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="B137" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>543</v>
+        <v>180</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>88</v>
@@ -8290,15 +8335,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="24" t="s">
-        <v>45</v>
-      </c>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="24"/>
       <c r="B138" s="5" t="s">
-        <v>183</v>
+        <v>555</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>350</v>
+        <v>186</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>88</v>
@@ -8331,13 +8374,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
       <c r="B139" s="5" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>88</v>
@@ -8370,13 +8413,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="24"/>
       <c r="B140" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>88</v>
@@ -8412,10 +8455,10 @@
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="24"/>
       <c r="B141" s="5" t="s">
-        <v>570</v>
+        <v>189</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>88</v>
@@ -8448,19 +8491,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="5" t="s">
-        <v>192</v>
+        <v>578</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>193</v>
+        <v>345</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -8490,16 +8533,16 @@
     <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="B143" s="5" t="s">
-        <v>583</v>
+        <v>291</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>10</v>
@@ -8528,11 +8571,11 @@
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
-      <c r="B144" s="5" t="s">
-        <v>294</v>
+      <c r="B144" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>88</v>
@@ -8565,13 +8608,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
       <c r="B145" s="25" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>88</v>
@@ -8606,17 +8649,17 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="24"/>
-      <c r="B146" s="25" t="s">
-        <v>493</v>
+      <c r="B146" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -8646,16 +8689,16 @@
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="24"/>
       <c r="B147" s="5" t="s">
-        <v>234</v>
+        <v>446</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>196</v>
+        <v>486</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>10</v>
@@ -8685,10 +8728,10 @@
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="24"/>
       <c r="B148" s="5" t="s">
-        <v>451</v>
+        <v>195</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>491</v>
+        <v>351</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>88</v>
@@ -8724,65 +8767,67 @@
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="24"/>
       <c r="B149" s="5" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>354</v>
+        <v>487</v>
       </c>
       <c r="D149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H149" s="5" t="s">
+      <c r="E150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M149" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="I150" s="5" t="s">
         <v>10</v>
       </c>
@@ -8796,18 +8841,16 @@
         <v>10</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>453</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
       <c r="B151" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>349</v>
+        <v>181</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>88</v>
@@ -8843,16 +8886,16 @@
     <row r="152" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="5" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>10</v>
@@ -8882,16 +8925,16 @@
     <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="5" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>10</v>
@@ -8918,13 +8961,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="5" t="s">
-        <v>458</v>
+        <v>292</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>457</v>
+        <v>192</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>88</v>
@@ -8957,19 +9000,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>10</v>
@@ -8996,19 +9039,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="17" t="s">
+        <v>433</v>
+      </c>
       <c r="B156" s="5" t="s">
-        <v>297</v>
+        <v>563</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>200</v>
+        <v>424</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>10</v>
@@ -9017,7 +9062,7 @@
         <v>10</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I156" s="5" t="s">
         <v>10</v>
@@ -9032,24 +9077,22 @@
         <v>10</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="17" t="s">
-        <v>437</v>
-      </c>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="17"/>
       <c r="B157" s="5" t="s">
-        <v>568</v>
+        <v>426</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>10</v>
@@ -9072,95 +9115,95 @@
       <c r="L157" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M157" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="17"/>
-      <c r="B158" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M158" s="5"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>448</v>
-      </c>
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C159" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M159" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M159" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>301</v>
+        <v>568</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>212</v>
+        <v>569</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>10</v>
@@ -9190,16 +9233,16 @@
         <v>10</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>574</v>
+        <v>295</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
@@ -9229,55 +9272,55 @@
         <v>10</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C162" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M162" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>206</v>
+        <v>523</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>10</v>
@@ -9306,17 +9349,17 @@
       <c r="L163" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M163" s="27" t="s">
-        <v>207</v>
+      <c r="M163" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>527</v>
+        <v>297</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>10</v>
@@ -9346,16 +9389,16 @@
         <v>10</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>208</v>
+        <v>224</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>10</v>
@@ -9385,16 +9428,16 @@
         <v>10</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>506</v>
+        <v>226</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>10</v>
@@ -9424,16 +9467,16 @@
         <v>10</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>10</v>
@@ -9463,16 +9506,16 @@
         <v>10</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
-        <v>304</v>
+        <v>520</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>10</v>
@@ -9502,16 +9545,16 @@
         <v>10</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>10</v>
@@ -9541,16 +9584,16 @@
         <v>10</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>572</v>
+        <v>322</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>10</v>
@@ -9580,16 +9623,16 @@
         <v>10</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>324</v>
+        <v>435</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>10</v>
@@ -9619,16 +9662,16 @@
         <v>10</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
-        <v>439</v>
+        <v>526</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>438</v>
+        <v>525</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>10</v>
@@ -9658,57 +9701,57 @@
         <v>10</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>440</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>529</v>
+      <c r="A173" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>449</v>
-      </c>
+      <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>327</v>
+        <v>543</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>545</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>10</v>
@@ -9738,16 +9781,16 @@
         <v>10</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>10</v>
@@ -9777,16 +9820,16 @@
         <v>10</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>10</v>
@@ -9816,16 +9859,16 @@
         <v>10</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>505</v>
+        <v>371</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>371</v>
+        <v>570</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>10</v>
@@ -9855,46 +9898,46 @@
         <v>10</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M178" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M178" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -10129,7 +10172,7 @@
       <c r="L184" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M184" s="3" t="s">
+      <c r="M184" s="26" t="s">
         <v>392</v>
       </c>
     </row>
@@ -10168,17 +10211,17 @@
       <c r="L185" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M185" s="26" t="s">
+      <c r="M185" s="3" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>396</v>
+        <v>577</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>397</v>
+        <v>214</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>10</v>
@@ -10207,17 +10250,17 @@
       <c r="L186" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M186" s="3" t="s">
-        <v>398</v>
+      <c r="M186" s="26" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>582</v>
+        <v>302</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>10</v>
@@ -10246,16 +10289,16 @@
       <c r="L187" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M187" s="26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M187" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C188" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C188" s="7" t="s">
         <v>216</v>
       </c>
       <c r="D188" s="3" t="s">
@@ -10286,16 +10329,16 @@
         <v>10</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>219</v>
+        <v>396</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>10</v>
@@ -10325,7 +10368,7 @@
         <v>10</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>220</v>
+        <v>398</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -10526,46 +10569,46 @@
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M195" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M195" s="3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>576</v>
+        <v>416</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>417</v>
@@ -10604,46 +10647,46 @@
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M197" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L197" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>422</v>
@@ -10676,16 +10719,16 @@
         <v>10</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>425</v>
+        <v>573</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>10</v>
@@ -10715,16 +10758,16 @@
         <v>10</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>578</v>
+        <v>490</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>10</v>
@@ -10754,16 +10797,16 @@
         <v>10</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>495</v>
+        <v>235</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>10</v>
@@ -10793,16 +10836,16 @@
         <v>10</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>494</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>10</v>
@@ -10832,16 +10875,16 @@
         <v>10</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>237</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>10</v>
@@ -10871,16 +10914,16 @@
         <v>10</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>10</v>
@@ -10910,16 +10953,16 @@
         <v>10</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>579</v>
+        <v>299</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>10</v>
@@ -10949,57 +10992,55 @@
         <v>10</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M206" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L206" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M206" s="21"/>
     </row>
     <row r="207" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="21" t="s">
-        <v>565</v>
-      </c>
+      <c r="A207" s="21"/>
       <c r="B207" s="21" t="s">
-        <v>443</v>
+        <v>541</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="D207" s="21" t="s">
         <v>10</v>
@@ -11034,10 +11075,10 @@
     <row r="208" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="21" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>444</v>
+        <v>552</v>
       </c>
       <c r="D208" s="21" t="s">
         <v>10</v>
@@ -11072,10 +11113,10 @@
     <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="21"/>
       <c r="B209" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D209" s="21" t="s">
         <v>10</v>
@@ -11106,13 +11147,13 @@
       </c>
       <c r="M209" s="21"/>
     </row>
-    <row r="210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="21"/>
       <c r="B210" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C210" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D210" s="21" t="s">
         <v>10</v>
@@ -11143,7 +11184,7 @@
       </c>
       <c r="M210" s="21"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="21" t="s">
         <v>561</v>
@@ -11183,10 +11224,10 @@
     <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="21" t="s">
-        <v>566</v>
+        <v>308</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>567</v>
+        <v>157</v>
       </c>
       <c r="D212" s="21" t="s">
         <v>10</v>
@@ -11215,14 +11256,16 @@
       <c r="L212" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M212" s="21"/>
+      <c r="M212" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M187" r:id="rId1" xr:uid="{9904468E-6CD6-4F70-8AC0-24285E951CA4}"/>
-    <hyperlink ref="M185" r:id="rId2" xr:uid="{2186CADD-2003-4F33-9CC1-2ED9FADFA6CC}"/>
-    <hyperlink ref="M163" r:id="rId3" xr:uid="{7544010D-B57C-4F8C-AAA4-2BDBDF866F35}"/>
+    <hyperlink ref="M186" r:id="rId1" xr:uid="{9904468E-6CD6-4F70-8AC0-24285E951CA4}"/>
+    <hyperlink ref="M184" r:id="rId2" xr:uid="{2186CADD-2003-4F33-9CC1-2ED9FADFA6CC}"/>
+    <hyperlink ref="M162" r:id="rId3" xr:uid="{7544010D-B57C-4F8C-AAA4-2BDBDF866F35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F33F631-4A99-4590-9EED-BAE647B18AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C6BD1-C210-4324-9F57-9E5BEB96D483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     Vietnam</t>
       </text>
     </comment>
-    <comment ref="D206" authorId="18" shapeId="0" xr:uid="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
+    <comment ref="D203" authorId="18" shapeId="0" xr:uid="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -223,7 +223,7 @@
     Qualitative</t>
       </text>
     </comment>
-    <comment ref="E206" authorId="19" shapeId="0" xr:uid="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
+    <comment ref="E203" authorId="19" shapeId="0" xr:uid="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -231,7 +231,7 @@
     Literature</t>
       </text>
     </comment>
-    <comment ref="H206" authorId="20" shapeId="0" xr:uid="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
+    <comment ref="H203" authorId="20" shapeId="0" xr:uid="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -239,7 +239,7 @@
     General</t>
       </text>
     </comment>
-    <comment ref="D207" authorId="21" shapeId="0" xr:uid="{483C1267-1841-42AA-90F3-4EABDC538A91}">
+    <comment ref="D204" authorId="21" shapeId="0" xr:uid="{483C1267-1841-42AA-90F3-4EABDC538A91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -247,7 +247,7 @@
     Quantitative</t>
       </text>
     </comment>
-    <comment ref="E207" authorId="22" shapeId="0" xr:uid="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
+    <comment ref="E204" authorId="22" shapeId="0" xr:uid="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +255,7 @@
     Experimental</t>
       </text>
     </comment>
-    <comment ref="F207" authorId="23" shapeId="0" xr:uid="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
+    <comment ref="F204" authorId="23" shapeId="0" xr:uid="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -264,7 +264,7 @@
 questionnaire (SIPPQ)</t>
       </text>
     </comment>
-    <comment ref="H207" authorId="24" shapeId="0" xr:uid="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
+    <comment ref="H204" authorId="24" shapeId="0" xr:uid="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -272,7 +272,7 @@
     Ghana</t>
       </text>
     </comment>
-    <comment ref="D212" authorId="25" shapeId="0" xr:uid="{B3EA636F-2371-43A2-BF73-6AC41D603AC9}">
+    <comment ref="D209" authorId="25" shapeId="0" xr:uid="{B3EA636F-2371-43A2-BF73-6AC41D603AC9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -280,7 +280,7 @@
     qualitative</t>
       </text>
     </comment>
-    <comment ref="E212" authorId="26" shapeId="0" xr:uid="{66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}">
+    <comment ref="E209" authorId="26" shapeId="0" xr:uid="{66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -288,7 +288,7 @@
     incl. grounded theory</t>
       </text>
     </comment>
-    <comment ref="H212" authorId="27" shapeId="0" xr:uid="{CA22E2B6-64B4-4D38-A995-A4C551676D21}">
+    <comment ref="H209" authorId="27" shapeId="0" xr:uid="{CA22E2B6-64B4-4D38-A995-A4C551676D21}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="572">
   <si>
     <t>Number</t>
   </si>
@@ -483,9 +483,6 @@
   <si>
     <t>Research Participants Telling the Truth
 About Their Lives</t>
-  </si>
-  <si>
-    <t>(Fast &amp; Richardson, 2019)</t>
   </si>
   <si>
     <t>Victim-blaming and the crisis of representation in the violence prevention field</t>
@@ -1008,12 +1005,6 @@
     <t>https://www.usaid.gov/sites/default/files/documents/1876/310maa.pdf</t>
   </si>
   <si>
-    <t>Why are menstruating women in India removing their wombs?</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/news/world-asia-india-48836690</t>
-  </si>
-  <si>
     <t>Psychological violence</t>
   </si>
   <si>
@@ -1282,9 +1273,6 @@
   </si>
   <si>
     <t>(USAID, 2012)</t>
-  </si>
-  <si>
-    <t>(Pandey, 2019)</t>
   </si>
   <si>
     <t>(Elias &amp; Meinzen-Dick, 2021)</t>
@@ -1991,24 +1979,6 @@
     <t>(Unicef, 2022)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=KKcbuR84KdM&amp;t=2127s</t>
-  </si>
-  <si>
-    <t>India's hysterectomy scandal | DW Documentary</t>
-  </si>
-  <si>
-    <t>(DW Documentary, 2022)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9K1qOkHvyQw&amp;t=401s</t>
-  </si>
-  <si>
-    <t>Hysterectomies in India I ARTE Documentary</t>
-  </si>
-  <si>
-    <t>(Arte.tv documentary, 2021)</t>
-  </si>
-  <si>
     <t>(scikit-learn developers, 2022) A</t>
   </si>
   <si>
@@ -2169,13 +2139,16 @@
   </si>
   <si>
     <t>Women in Agriculture: Risks for Occupational Injury within the Contexts of Role, and Haddon's Injury Model</t>
+  </si>
+  <si>
+    <t>(Fast &amp; Richardson/Kinewesquao, 2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2209,19 +2182,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2311,7 +2271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2340,7 +2300,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -2352,8 +2311,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2738,35 +2695,35 @@
   <threadedComment ref="H104" dT="2022-06-21T13:37:12.22" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{67AA15A0-67DB-46F9-823E-8EF7704373AE}">
     <text>Vietnam</text>
   </threadedComment>
-  <threadedComment ref="D206" dT="2022-06-27T09:19:47.66" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
+  <threadedComment ref="D203" dT="2022-06-27T09:19:47.66" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
     <text>Qualitative</text>
   </threadedComment>
-  <threadedComment ref="E206" dT="2022-06-27T09:20:29.50" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
+  <threadedComment ref="E203" dT="2022-06-27T09:20:29.50" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
     <text>Literature</text>
   </threadedComment>
-  <threadedComment ref="H206" dT="2022-06-27T09:21:05.85" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
+  <threadedComment ref="H203" dT="2022-06-27T09:21:05.85" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
     <text>General</text>
   </threadedComment>
-  <threadedComment ref="D207" dT="2022-06-27T09:20:13.07" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{483C1267-1841-42AA-90F3-4EABDC538A91}">
+  <threadedComment ref="D204" dT="2022-06-27T09:20:13.07" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{483C1267-1841-42AA-90F3-4EABDC538A91}">
     <text>Quantitative</text>
   </threadedComment>
-  <threadedComment ref="E207" dT="2022-06-27T09:20:39.46" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
+  <threadedComment ref="E204" dT="2022-06-27T09:20:39.46" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
     <text>Experimental</text>
   </threadedComment>
-  <threadedComment ref="F207" dT="2022-06-27T09:20:50.87" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
+  <threadedComment ref="F204" dT="2022-06-27T09:20:50.87" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
     <text>“Stalking: International perceptions and prevalence”
 questionnaire (SIPPQ)</text>
   </threadedComment>
-  <threadedComment ref="H207" dT="2022-06-27T09:21:18.78" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
+  <threadedComment ref="H204" dT="2022-06-27T09:21:18.78" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
     <text>Ghana</text>
   </threadedComment>
-  <threadedComment ref="D212" dT="2022-08-22T16:53:36.97" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{B3EA636F-2371-43A2-BF73-6AC41D603AC9}">
+  <threadedComment ref="D209" dT="2022-08-22T16:53:36.97" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{B3EA636F-2371-43A2-BF73-6AC41D603AC9}">
     <text>qualitative</text>
   </threadedComment>
-  <threadedComment ref="E212" dT="2022-08-22T16:53:46.90" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}">
+  <threadedComment ref="E209" dT="2022-08-22T16:53:46.90" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}">
     <text>incl. grounded theory</text>
   </threadedComment>
-  <threadedComment ref="H212" dT="2022-08-22T16:53:16.83" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{CA22E2B6-64B4-4D38-A995-A4C551676D21}">
+  <threadedComment ref="H209" dT="2022-08-22T16:53:16.83" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{CA22E2B6-64B4-4D38-A995-A4C551676D21}">
     <text>new england</text>
   </threadedComment>
 </ThreadedComments>
@@ -2774,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
-  <dimension ref="A1:O212"/>
+  <dimension ref="A1:O209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100:F101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M162" sqref="M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,10 +2758,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2816,10 +2773,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -2836,7 +2793,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2877,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>13</v>
@@ -2918,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
@@ -2959,13 +2916,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>34</v>
@@ -3123,7 +3080,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -3246,7 +3203,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>48</v>
@@ -3287,7 +3244,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>49</v>
@@ -3328,7 +3285,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>51</v>
@@ -3451,10 +3408,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>571</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -3492,10 +3449,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -3533,16 +3490,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -3551,7 +3508,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -3574,10 +3531,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -3615,10 +3572,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>44</v>
@@ -3627,13 +3584,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>10</v>
@@ -3656,10 +3613,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -3671,7 +3628,7 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
@@ -3697,10 +3654,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -3709,7 +3666,7 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -3738,10 +3695,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>33</v>
@@ -3779,16 +3736,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>17</v>
@@ -3820,16 +3777,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -3861,16 +3818,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
         <v>37</v>
@@ -3902,16 +3859,16 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -3920,7 +3877,7 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3943,16 +3900,16 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -3961,7 +3918,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3984,10 +3941,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -3996,7 +3953,7 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
@@ -4008,13 +3965,13 @@
         <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
         <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30" t="s">
         <v>10</v>
@@ -4025,19 +3982,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -4066,25 +4023,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -4107,10 +4064,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -4148,10 +4105,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
@@ -4189,10 +4146,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -4201,7 +4158,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
         <v>37</v>
@@ -4230,22 +4187,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36" t="s">
         <v>35</v>
@@ -4271,10 +4228,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
@@ -4283,7 +4240,7 @@
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -4312,10 +4269,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -4330,7 +4287,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I38" t="s">
         <v>10</v>
@@ -4353,10 +4310,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
@@ -4371,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
@@ -4394,16 +4351,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -4435,10 +4392,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -4453,7 +4410,7 @@
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
         <v>10</v>
@@ -4476,10 +4433,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>14</v>
@@ -4494,7 +4451,7 @@
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s">
         <v>10</v>
@@ -4517,16 +4474,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -4535,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
         <v>10</v>
@@ -4558,10 +4515,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -4570,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -4599,19 +4556,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -4640,19 +4597,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
@@ -4681,19 +4638,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -4722,10 +4679,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -4734,13 +4691,13 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I48" t="s">
         <v>10</v>
@@ -4763,10 +4720,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -4781,7 +4738,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I49" t="s">
         <v>10</v>
@@ -4804,10 +4761,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>14</v>
@@ -4816,7 +4773,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>37</v>
@@ -4845,16 +4802,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
         <v>26</v>
@@ -4863,7 +4820,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I51" t="s">
         <v>10</v>
@@ -4886,10 +4843,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
@@ -4927,25 +4884,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I53" t="s">
         <v>10</v>
@@ -4968,10 +4925,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>44</v>
@@ -5009,10 +4966,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
@@ -5027,7 +4984,7 @@
         <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I55" t="s">
         <v>10</v>
@@ -5050,7 +5007,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>21</v>
@@ -5091,22 +5048,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>20</v>
@@ -5132,16 +5089,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>37</v>
@@ -5173,19 +5130,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>26</v>
@@ -5214,10 +5171,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>33</v>
@@ -5226,13 +5183,13 @@
         <v>10</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s">
         <v>10</v>
@@ -5255,10 +5212,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>14</v>
@@ -5296,10 +5253,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>14</v>
@@ -5317,13 +5274,13 @@
         <v>18</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>10</v>
@@ -5337,10 +5294,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>14</v>
@@ -5349,13 +5306,13 @@
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>12</v>
@@ -5378,16 +5335,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
         <v>37</v>
@@ -5396,7 +5353,7 @@
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s">
         <v>10</v>
@@ -5419,10 +5376,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -5431,13 +5388,13 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G65" t="s">
         <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I65" t="s">
         <v>10</v>
@@ -5460,10 +5417,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
         <v>44</v>
@@ -5478,7 +5435,7 @@
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I66" t="s">
         <v>10</v>
@@ -5501,10 +5458,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
         <v>33</v>
@@ -5513,13 +5470,13 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s">
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I67" t="s">
         <v>10</v>
@@ -5542,10 +5499,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -5554,7 +5511,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -5583,10 +5540,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
@@ -5595,7 +5552,7 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
         <v>37</v>
@@ -5624,10 +5581,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
         <v>33</v>
@@ -5636,13 +5593,13 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s">
         <v>10</v>
@@ -5665,22 +5622,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>35</v>
@@ -5706,10 +5663,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D72" t="s">
         <v>33</v>
@@ -5718,7 +5675,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
@@ -5747,10 +5704,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>44</v>
@@ -5762,7 +5719,7 @@
         <v>17</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>46</v>
@@ -5788,10 +5745,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>44</v>
@@ -5803,7 +5760,7 @@
         <v>26</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>46</v>
@@ -5829,10 +5786,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>44</v>
@@ -5870,10 +5827,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>33</v>
@@ -5911,16 +5868,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
         <v>44</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -5929,16 +5886,16 @@
         <v>37</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I77" t="s">
         <v>163</v>
-      </c>
-      <c r="I77" t="s">
-        <v>164</v>
       </c>
       <c r="J77" t="s">
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L77" t="s">
         <v>10</v>
@@ -5952,10 +5909,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
@@ -5993,10 +5950,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -6005,7 +5962,7 @@
         <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G79" t="s">
         <v>26</v>
@@ -6034,10 +5991,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>33</v>
@@ -6075,10 +6032,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -6116,10 +6073,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
@@ -6128,7 +6085,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G82" t="s">
         <v>10</v>
@@ -6157,16 +6114,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="D83" t="s">
         <v>33</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -6198,10 +6155,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>33</v>
@@ -6239,10 +6196,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D85" t="s">
         <v>33</v>
@@ -6257,10 +6214,10 @@
         <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J85" t="s">
         <v>10</v>
@@ -6280,22 +6237,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="D86" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="F86" t="s">
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s">
         <v>38</v>
@@ -6317,605 +6274,605 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="17">
+      <c r="A87" s="16">
         <v>86</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>548</v>
+      <c r="B87" s="16" t="s">
+        <v>538</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="D87" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="F87" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="F87" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J87" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K87" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M87" s="17" t="s">
+      <c r="G87" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M87" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>87</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>515</v>
+      <c r="B88" s="16" t="s">
+        <v>511</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="D88" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D88" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M88" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>88</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F89" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G88" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="17" t="s">
+      <c r="G89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I88" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J88" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K88" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L88" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M88" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="17">
-        <v>88</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="D89" s="17" t="s">
+      <c r="I89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>89</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M90" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <v>90</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <v>91</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D92" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="F89" s="17" t="s">
+      <c r="E92" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F92" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
-        <v>89</v>
-      </c>
-      <c r="B90" s="17" t="s">
+      <c r="G92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M92" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
+        <v>92</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M93" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <v>93</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>94</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K95" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M95" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <v>95</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M97" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
+        <v>97</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K98" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L98" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="16">
+        <v>98</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F90" s="17" t="s">
+      <c r="C99" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F99" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J90" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K90" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M90" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
-        <v>90</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17" t="s">
+      <c r="G99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M99" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <v>99</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F100" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
-        <v>91</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F92" s="17" t="s">
+      <c r="G100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="16">
+        <v>100</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M92" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
-        <v>92</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M93" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
-        <v>93</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M94" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
-        <v>94</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J95" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K95" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M95" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
-        <v>95</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J96" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K96" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M96" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
-        <v>96</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J97" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M97" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
-        <v>97</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J98" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L98" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M98" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
-        <v>98</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I99" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J99" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K99" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M99" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
-        <v>99</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F100" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I100" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K100" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M100" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
-        <v>100</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K101" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M101" s="17" t="s">
+      <c r="G101" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K101" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6924,16 +6881,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>17</v>
@@ -6942,7 +6899,7 @@
         <v>37</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>10</v>
@@ -6965,16 +6922,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>26</v>
@@ -7002,56 +6959,56 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>432</v>
+      <c r="A104" s="17" t="s">
+        <v>428</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+      <c r="B105" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="5" t="s">
+      <c r="C105" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="D105" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>10</v>
@@ -7082,15 +7039,15 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>10</v>
@@ -7121,15 +7078,15 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="D107" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>10</v>
@@ -7160,15 +7117,15 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>10</v>
@@ -7199,15 +7156,15 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>10</v>
@@ -7234,19 +7191,19 @@
         <v>10</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>10</v>
@@ -7275,15 +7232,15 @@
       <c r="M110" s="5"/>
     </row>
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
+      <c r="A111" s="17"/>
       <c r="B111" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>10</v>
@@ -7314,15 +7271,15 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
+      <c r="A112" s="17"/>
       <c r="B112" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>10</v>
@@ -7353,15 +7310,15 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="18"/>
+      <c r="A113" s="17"/>
       <c r="B113" s="5" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>10</v>
@@ -7392,17 +7349,17 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="19" t="s">
-        <v>445</v>
+      <c r="A114" s="18" t="s">
+        <v>441</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>10</v>
@@ -7429,19 +7386,19 @@
         <v>10</v>
       </c>
       <c r="M114" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="C115" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>10</v>
@@ -7468,21 +7425,21 @@
         <v>10</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
-        <v>336</v>
+      <c r="A116" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>10</v>
@@ -7513,15 +7470,15 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="5" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>10</v>
@@ -7552,15 +7509,15 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>10</v>
@@ -7591,15 +7548,15 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>10</v>
@@ -7630,15 +7587,15 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="D120" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>10</v>
@@ -7669,15 +7626,15 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>10</v>
@@ -7708,15 +7665,15 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>10</v>
@@ -7747,15 +7704,15 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>10</v>
@@ -7786,15 +7743,15 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
+      <c r="A124" s="18"/>
       <c r="B124" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>10</v>
@@ -7825,15 +7782,15 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
+      <c r="A125" s="18"/>
       <c r="B125" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>10</v>
@@ -7864,17 +7821,17 @@
       </c>
     </row>
     <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="23" t="s">
-        <v>442</v>
+      <c r="A126" s="22" t="s">
+        <v>438</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="D126" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>10</v>
@@ -7905,15 +7862,15 @@
       </c>
     </row>
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="23"/>
+      <c r="A127" s="22"/>
       <c r="B127" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>10</v>
@@ -7944,15 +7901,15 @@
       </c>
     </row>
     <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="23"/>
+      <c r="A128" s="22"/>
       <c r="B128" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>10</v>
@@ -7983,15 +7940,15 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="23"/>
+      <c r="A129" s="22"/>
       <c r="B129" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>10</v>
@@ -8022,15 +7979,15 @@
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="23"/>
+      <c r="A130" s="22"/>
       <c r="B130" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="D130" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>10</v>
@@ -8061,15 +8018,15 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="23"/>
+      <c r="A131" s="22"/>
       <c r="B131" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="D131" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>10</v>
@@ -8100,15 +8057,15 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="23"/>
+      <c r="A132" s="22"/>
       <c r="B132" s="5" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>10</v>
@@ -8135,19 +8092,19 @@
         <v>10</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="23"/>
+      <c r="A133" s="22"/>
       <c r="B133" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>10</v>
@@ -8174,19 +8131,19 @@
         <v>10</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="23"/>
+      <c r="A134" s="22"/>
       <c r="B134" s="5" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>10</v>
@@ -8217,15 +8174,15 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="23"/>
+      <c r="A135" s="22"/>
       <c r="B135" s="5" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>10</v>
@@ -8256,15 +8213,15 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="23"/>
+      <c r="A136" s="22"/>
       <c r="B136" s="5" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>10</v>
@@ -8295,17 +8252,17 @@
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>10</v>
@@ -8336,15 +8293,15 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>10</v>
@@ -8375,15 +8332,15 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="5" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>10</v>
@@ -8414,15 +8371,15 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="24"/>
+      <c r="A140" s="23"/>
       <c r="B140" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>10</v>
@@ -8453,15 +8410,15 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="24"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="D141" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>10</v>
@@ -8492,18 +8449,18 @@
       </c>
     </row>
     <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="5" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>10</v>
@@ -8531,15 +8488,15 @@
       </c>
     </row>
     <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>10</v>
@@ -8570,15 +8527,15 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25" t="s">
-        <v>293</v>
+      <c r="A144" s="23"/>
+      <c r="B144" s="24" t="s">
+        <v>290</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>10</v>
@@ -8609,15 +8566,15 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25" t="s">
-        <v>488</v>
+      <c r="A145" s="23"/>
+      <c r="B145" s="24" t="s">
+        <v>484</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>10</v>
@@ -8648,18 +8605,18 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
+      <c r="A146" s="23"/>
       <c r="B146" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C146" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E146" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>10</v>
@@ -8687,15 +8644,15 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>10</v>
@@ -8726,15 +8683,15 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
+      <c r="A148" s="23"/>
       <c r="B148" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>10</v>
@@ -8765,12 +8722,12 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>10</v>
@@ -8800,21 +8757,21 @@
         <v>10</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>10</v>
@@ -8847,13 +8804,13 @@
     <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>10</v>
@@ -8886,16 +8843,16 @@
     <row r="152" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>10</v>
@@ -8925,13 +8882,13 @@
     <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>10</v>
@@ -8964,13 +8921,13 @@
     <row r="154" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>10</v>
@@ -9003,16 +8960,16 @@
     <row r="155" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>10</v>
@@ -9040,20 +8997,20 @@
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="17" t="s">
-        <v>433</v>
+      <c r="A156" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>10</v>
@@ -9077,22 +9034,22 @@
         <v>10</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="17"/>
+      <c r="A157" s="16"/>
       <c r="B157" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>10</v>
@@ -9119,13 +9076,13 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>207</v>
+        <v>433</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>10</v>
@@ -9155,16 +9112,16 @@
         <v>10</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>10</v>
@@ -9194,16 +9151,16 @@
         <v>10</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>10</v>
@@ -9233,94 +9190,94 @@
         <v>10</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M161" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M161" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C162" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M162" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M162" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>522</v>
+        <v>221</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>497</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>10</v>
@@ -9350,16 +9307,16 @@
         <v>10</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>205</v>
+        <v>296</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>10</v>
@@ -9389,94 +9346,94 @@
         <v>10</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M165" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M165" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>300</v>
+        <v>516</v>
       </c>
       <c r="C166" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M166" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M166" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
-        <v>301</v>
+        <v>557</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>10</v>
@@ -9506,16 +9463,16 @@
         <v>10</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
-        <v>520</v>
+        <v>318</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>10</v>
@@ -9545,174 +9502,174 @@
         <v>10</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C169" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M170" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M169" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2" t="s">
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M172" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M170" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M171" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M172" s="2" t="s">
-        <v>524</v>
-      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>444</v>
-      </c>
+      <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>370</v>
+        <v>496</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>10</v>
@@ -9742,16 +9699,16 @@
         <v>10</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>545</v>
+        <v>367</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>10</v>
@@ -9781,16 +9738,16 @@
         <v>10</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>10</v>
@@ -9820,16 +9777,16 @@
         <v>10</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>500</v>
+        <v>371</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>10</v>
@@ -9859,16 +9816,16 @@
         <v>10</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>10</v>
@@ -9898,16 +9855,16 @@
         <v>10</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>10</v>
@@ -9937,16 +9894,16 @@
         <v>10</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>10</v>
@@ -9976,16 +9933,16 @@
         <v>10</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>10</v>
@@ -10015,16 +9972,16 @@
         <v>10</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>10</v>
@@ -10054,16 +10011,16 @@
         <v>10</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>10</v>
@@ -10093,17 +10050,17 @@
         <v>10</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="N182" s="12"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>387</v>
+        <v>567</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>388</v>
+        <v>211</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>10</v>
@@ -10133,17 +10090,17 @@
         <v>10</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>389</v>
+        <v>212</v>
       </c>
       <c r="N183" s="12"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>391</v>
+        <v>210</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>10</v>
@@ -10172,17 +10129,17 @@
       <c r="L184" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M184" s="26" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M184" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>394</v>
+        <v>299</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>10</v>
@@ -10212,16 +10169,16 @@
         <v>10</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>395</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>577</v>
+        <v>392</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>214</v>
+        <v>393</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>10</v>
@@ -10250,17 +10207,17 @@
       <c r="L186" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M186" s="26" t="s">
-        <v>215</v>
+      <c r="M186" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>213</v>
+        <v>396</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>10</v>
@@ -10290,16 +10247,16 @@
         <v>10</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>216</v>
+        <v>398</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>10</v>
@@ -10329,16 +10286,16 @@
         <v>10</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>217</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>10</v>
@@ -10368,16 +10325,16 @@
         <v>10</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>10</v>
@@ -10407,16 +10364,16 @@
         <v>10</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>10</v>
@@ -10446,16 +10403,16 @@
         <v>10</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>405</v>
+        <v>561</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>10</v>
@@ -10485,16 +10442,16 @@
         <v>10</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>10</v>
@@ -10524,16 +10481,16 @@
         <v>10</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>411</v>
+        <v>539</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>10</v>
@@ -10563,16 +10520,16 @@
         <v>10</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>10</v>
@@ -10602,16 +10559,16 @@
         <v>10</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>416</v>
+        <v>562</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>417</v>
+        <v>563</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>10</v>
@@ -10641,16 +10598,16 @@
         <v>10</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>549</v>
+        <v>300</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>419</v>
+        <v>486</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>10</v>
@@ -10680,16 +10637,16 @@
         <v>10</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>550</v>
+        <v>301</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>422</v>
+        <v>232</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>10</v>
@@ -10719,16 +10676,16 @@
         <v>10</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>421</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>572</v>
+        <v>427</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>573</v>
+        <v>426</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>10</v>
@@ -10758,16 +10715,16 @@
         <v>10</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
-        <v>304</v>
+        <v>488</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>10</v>
@@ -10797,16 +10754,16 @@
         <v>10</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>305</v>
+        <v>490</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>235</v>
+        <v>564</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>10</v>
@@ -10836,16 +10793,16 @@
         <v>10</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>234</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>430</v>
+        <v>295</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>10</v>
@@ -10875,400 +10832,276 @@
         <v>10</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M203" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M204" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M205" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L203" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M203" s="20"/>
+    </row>
+    <row r="204" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="20"/>
+      <c r="B204" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L204" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M204" s="20"/>
+    </row>
+    <row r="205" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+      <c r="B205" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L205" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M205" s="20"/>
     </row>
     <row r="206" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="B206" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="D206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L206" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M206" s="21"/>
-    </row>
-    <row r="207" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="21"/>
-      <c r="B207" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="D207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L207" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M207" s="21"/>
+      <c r="A206" s="20"/>
+      <c r="B206" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="D206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M206" s="20"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207" s="20"/>
+      <c r="B207" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="D207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L207" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M207" s="20"/>
       <c r="O207" s="12"/>
     </row>
     <row r="208" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="21"/>
-      <c r="B208" s="21" t="s">
+      <c r="A208" s="20"/>
+      <c r="B208" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="D208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L208" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M208" s="21"/>
+      <c r="D208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L208" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M208" s="20"/>
       <c r="O208" s="12"/>
     </row>
     <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="21"/>
-      <c r="B209" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="C209" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L209" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M209" s="21"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="21"/>
-      <c r="B210" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="D210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L210" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M210" s="21"/>
-    </row>
-    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="21"/>
-      <c r="B211" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="C211" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="D211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L211" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M211" s="21"/>
-    </row>
-    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="21"/>
-      <c r="B212" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C212" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L212" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M212" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="A209" s="20"/>
+      <c r="B209" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L209" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M209" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="M186" r:id="rId1" xr:uid="{9904468E-6CD6-4F70-8AC0-24285E951CA4}"/>
-    <hyperlink ref="M184" r:id="rId2" xr:uid="{2186CADD-2003-4F33-9CC1-2ED9FADFA6CC}"/>
-    <hyperlink ref="M162" r:id="rId3" xr:uid="{7544010D-B57C-4F8C-AAA4-2BDBDF866F35}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\OneDrive\Desktop\Git\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\sciebo\Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C6BD1-C210-4324-9F57-9E5BEB96D483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E8E1DA-9D7F-4B80-95C1-FEA3F09582FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,12 @@
     <author>tc={499F4F8C-DE7B-4855-B4B3-A7C7DBB76D22}</author>
     <author>tc={1071531B-F28F-4E07-BA78-B80D6C543B06}</author>
     <author>tc={67AA15A0-67DB-46F9-823E-8EF7704373AE}</author>
+    <author>tc={539B7072-CA8F-40E7-93CE-EC9221E1ED6A}</author>
+    <author>tc={DB5CF6C3-AE82-4A85-B669-68F4B2FC21C2}</author>
+    <author>tc={704DDFF6-A7CA-4C0E-81C8-A4920F31B3AE}</author>
+    <author>tc={13107BB6-AF1D-4C38-87BE-E2B6837A93C0}</author>
+    <author>tc={2FEF8524-B836-46B3-BA07-5C0142F21AEC}</author>
+    <author>tc={8455CB66-12AD-4E00-9760-EFB8F041474F}</author>
     <author>tc={99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}</author>
     <author>tc={395F6EE0-D8A6-4ADA-BC77-C920407C5D27}</author>
     <author>tc={D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}</author>
@@ -215,7 +221,55 @@
     Vietnam</t>
       </text>
     </comment>
-    <comment ref="D203" authorId="18" shapeId="0" xr:uid="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
+    <comment ref="D114" authorId="18" shapeId="0" xr:uid="{539B7072-CA8F-40E7-93CE-EC9221E1ED6A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    websites</t>
+      </text>
+    </comment>
+    <comment ref="D115" authorId="19" shapeId="0" xr:uid="{DB5CF6C3-AE82-4A85-B669-68F4B2FC21C2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    website</t>
+      </text>
+    </comment>
+    <comment ref="D132" authorId="20" shapeId="0" xr:uid="{704DDFF6-A7CA-4C0E-81C8-A4920F31B3AE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    website</t>
+      </text>
+    </comment>
+    <comment ref="D133" authorId="21" shapeId="0" xr:uid="{13107BB6-AF1D-4C38-87BE-E2B6837A93C0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    webiste</t>
+      </text>
+    </comment>
+    <comment ref="D149" authorId="22" shapeId="0" xr:uid="{2FEF8524-B836-46B3-BA07-5C0142F21AEC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    website</t>
+      </text>
+    </comment>
+    <comment ref="D156" authorId="23" shapeId="0" xr:uid="{8455CB66-12AD-4E00-9760-EFB8F041474F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    website</t>
+      </text>
+    </comment>
+    <comment ref="D203" authorId="24" shapeId="0" xr:uid="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -223,7 +277,7 @@
     Qualitative</t>
       </text>
     </comment>
-    <comment ref="E203" authorId="19" shapeId="0" xr:uid="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
+    <comment ref="E203" authorId="25" shapeId="0" xr:uid="{395F6EE0-D8A6-4ADA-BC77-C920407C5D27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -231,7 +285,7 @@
     Literature</t>
       </text>
     </comment>
-    <comment ref="H203" authorId="20" shapeId="0" xr:uid="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
+    <comment ref="H203" authorId="26" shapeId="0" xr:uid="{D1D02E7D-0C0E-4252-A8C0-37D0806E0D54}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -239,7 +293,7 @@
     General</t>
       </text>
     </comment>
-    <comment ref="D204" authorId="21" shapeId="0" xr:uid="{483C1267-1841-42AA-90F3-4EABDC538A91}">
+    <comment ref="D204" authorId="27" shapeId="0" xr:uid="{483C1267-1841-42AA-90F3-4EABDC538A91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -247,7 +301,7 @@
     Quantitative</t>
       </text>
     </comment>
-    <comment ref="E204" authorId="22" shapeId="0" xr:uid="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
+    <comment ref="E204" authorId="28" shapeId="0" xr:uid="{4C76FAFB-1F0D-4C24-8E40-699B656AA08F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +309,7 @@
     Experimental</t>
       </text>
     </comment>
-    <comment ref="F204" authorId="23" shapeId="0" xr:uid="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
+    <comment ref="F204" authorId="29" shapeId="0" xr:uid="{C660464E-6D09-4094-B196-B64C4A7F4CE1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -264,7 +318,7 @@
 questionnaire (SIPPQ)</t>
       </text>
     </comment>
-    <comment ref="H204" authorId="24" shapeId="0" xr:uid="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
+    <comment ref="H204" authorId="30" shapeId="0" xr:uid="{B7A6EB3E-9A78-4229-BF20-DE8F1648AF35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -272,7 +326,7 @@
     Ghana</t>
       </text>
     </comment>
-    <comment ref="D209" authorId="25" shapeId="0" xr:uid="{B3EA636F-2371-43A2-BF73-6AC41D603AC9}">
+    <comment ref="D209" authorId="31" shapeId="0" xr:uid="{B3EA636F-2371-43A2-BF73-6AC41D603AC9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -280,7 +334,7 @@
     qualitative</t>
       </text>
     </comment>
-    <comment ref="E209" authorId="26" shapeId="0" xr:uid="{66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}">
+    <comment ref="E209" authorId="32" shapeId="0" xr:uid="{66C0DF3D-8D6C-4A98-B145-9C7E123B4F38}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -288,7 +342,7 @@
     incl. grounded theory</t>
       </text>
     </comment>
-    <comment ref="H209" authorId="27" shapeId="0" xr:uid="{CA22E2B6-64B4-4D38-A995-A4C551676D21}">
+    <comment ref="H209" authorId="33" shapeId="0" xr:uid="{CA22E2B6-64B4-4D38-A995-A4C551676D21}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -301,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="573">
   <si>
     <t>Number</t>
   </si>
@@ -2143,12 +2197,15 @@
   <si>
     <t>(Fast &amp; Richardson/Kinewesquao, 2019)</t>
   </si>
+  <si>
+    <t>Workforce theme, lterature research of methods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2182,6 +2239,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2695,6 +2758,24 @@
   <threadedComment ref="H104" dT="2022-06-21T13:37:12.22" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{67AA15A0-67DB-46F9-823E-8EF7704373AE}">
     <text>Vietnam</text>
   </threadedComment>
+  <threadedComment ref="D114" dT="2022-08-28T13:00:15.15" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{539B7072-CA8F-40E7-93CE-EC9221E1ED6A}">
+    <text>websites</text>
+  </threadedComment>
+  <threadedComment ref="D115" dT="2022-08-28T13:00:34.22" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{DB5CF6C3-AE82-4A85-B669-68F4B2FC21C2}">
+    <text>website</text>
+  </threadedComment>
+  <threadedComment ref="D132" dT="2022-08-28T13:00:52.27" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{704DDFF6-A7CA-4C0E-81C8-A4920F31B3AE}">
+    <text>website</text>
+  </threadedComment>
+  <threadedComment ref="D133" dT="2022-08-28T13:00:57.12" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{13107BB6-AF1D-4C38-87BE-E2B6837A93C0}">
+    <text>webiste</text>
+  </threadedComment>
+  <threadedComment ref="D149" dT="2022-08-28T13:01:12.65" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{2FEF8524-B836-46B3-BA07-5C0142F21AEC}">
+    <text>website</text>
+  </threadedComment>
+  <threadedComment ref="D156" dT="2022-08-28T13:01:28.54" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{8455CB66-12AD-4E00-9760-EFB8F041474F}">
+    <text>website</text>
+  </threadedComment>
   <threadedComment ref="D203" dT="2022-06-27T09:19:47.66" personId="{34278294-E7E3-4320-A158-D9A2A5F8DF2C}" id="{99E46C73-89D0-4EEA-82A1-4CE129CDE1ED}">
     <text>Qualitative</text>
   </threadedComment>
@@ -2733,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A03FB77-42A8-4496-B47B-A02E1CA4B62A}">
   <dimension ref="A1:O209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M162" sqref="M162"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6406,11 +6487,11 @@
       <c r="C90" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>87</v>
+      <c r="D90" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>453</v>
+        <v>572</v>
       </c>
       <c r="F90" s="16" t="s">
         <v>11</v>
@@ -7014,7 +7095,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>10</v>
@@ -7359,7 +7440,7 @@
         <v>326</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>10</v>
@@ -7398,7 +7479,7 @@
         <v>328</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>10</v>
@@ -8065,7 +8146,7 @@
         <v>518</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>10</v>
@@ -8104,7 +8185,7 @@
         <v>521</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>10</v>
@@ -9007,7 +9088,7 @@
         <v>424</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>420</v>

--- a/methods-excel.xlsx
+++ b/methods-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\sciebo\Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E8E1DA-9D7F-4B80-95C1-FEA3F09582FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205AEF4F-4210-4509-BE83-6B379EAF9057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30D774E5-5D97-4036-9EF5-DFCDE9589F87}"/>
   </bookViews>
@@ -2815,7 +2815,7 @@
   <dimension ref="A1:O209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:D90"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,7 +6488,7 @@
         <v>474</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>572</v>
